--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C235444E-4F63-4C0D-8087-F6FE06B7A8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC25C5-7423-4358-9B9B-16A3E7612A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
+    <workbookView xWindow="150" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
@@ -1168,39 +1168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,6 +1199,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,4831 +1576,4837 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="2" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="10"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="16">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="6">
         <v>120001</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="6">
         <v>50</v>
       </c>
-      <c r="J6" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L6" s="20">
+      <c r="J6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="9">
         <v>300011</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="9">
         <v>300034</v>
       </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
         <v>330001</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="6">
         <v>330011</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="6">
         <v>100031</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="10">
         <v>3</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="6">
         <v>900004</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="16">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="6">
         <v>120002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="6">
         <v>50</v>
       </c>
-      <c r="J7" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="J7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="9">
         <v>300019</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="9">
         <v>300040</v>
       </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <v>330001</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="6">
         <v>330013</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="6">
         <v>100032</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="10">
         <v>3</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="6">
         <v>900005</v>
       </c>
-      <c r="T7" s="17"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="16">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="6">
         <v>120003</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="6">
         <v>50</v>
       </c>
-      <c r="J8" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="J8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="9">
         <v>300004</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="9">
         <v>300043</v>
       </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
         <v>330001</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="6">
         <v>330013</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="6">
         <v>100033</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="10">
         <v>7</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="6">
         <v>900006</v>
       </c>
-      <c r="T8" s="17"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="16">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="6">
         <v>120004</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="6">
         <v>50</v>
       </c>
-      <c r="J9" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="J9" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="9">
         <v>300015</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="9">
         <v>300046</v>
       </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
         <v>330002</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="6">
         <v>330011</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="6">
         <v>100034</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="10">
         <v>1</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="6">
         <v>900007</v>
       </c>
-      <c r="T9" s="17"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="16">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="6">
         <v>120005</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="6">
         <v>50</v>
       </c>
-      <c r="J10" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="J10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L10" s="9">
         <v>300004</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="9">
         <v>300049</v>
       </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17">
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
         <v>330002</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="6">
         <v>330013</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="6">
         <v>100035</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="10">
         <v>1</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="6">
         <v>900008</v>
       </c>
-      <c r="T10" s="17"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="16">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="6">
         <v>120006</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="6">
         <v>4</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="6">
         <v>50</v>
       </c>
-      <c r="J11" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="J11" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L11" s="9">
         <v>300016</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="9">
         <v>300052</v>
       </c>
-      <c r="N11" s="20">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
         <v>330002</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="6">
         <v>330015</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="6">
         <v>100036</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="10">
         <v>7</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="6">
         <v>900009</v>
       </c>
-      <c r="T11" s="17"/>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="16">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="6">
         <v>120007</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="6">
         <v>50</v>
       </c>
-      <c r="J12" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="J12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L12" s="9">
         <v>300012</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="9">
         <v>300055</v>
       </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>330003</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="6">
         <v>330015</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="6">
         <v>100037</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="10">
         <v>1</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="6">
         <v>900010</v>
       </c>
-      <c r="T12" s="17"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="16">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="6">
         <v>120008</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="6">
         <v>50</v>
       </c>
-      <c r="J13" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="J13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="9">
         <v>300005</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="9">
         <v>300058</v>
       </c>
-      <c r="N13" s="20">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
         <v>330003</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="6">
         <v>330011</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="6">
         <v>100038</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="10">
         <v>5</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="6">
         <v>900011</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="16">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="6">
         <v>120009</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="7">
         <v>9</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="6">
         <v>50</v>
       </c>
-      <c r="J14" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="J14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="9">
         <v>300008</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="9">
         <v>300101</v>
       </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="O14" s="17">
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
         <v>330003</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="6">
         <v>330016</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="6">
         <v>100039</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="10">
         <v>5</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="6">
         <v>900012</v>
       </c>
-      <c r="T14" s="17"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="16">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="6">
         <v>120010</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="6">
         <v>50</v>
       </c>
-      <c r="J15" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="J15" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="9">
         <v>300006</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="9">
         <v>300064</v>
       </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="17">
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
         <v>330004</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="6">
         <v>330011</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="6">
         <v>100040</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="10">
         <v>1</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="6">
         <v>900013</v>
       </c>
-      <c r="T15" s="17"/>
+      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="16">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="6">
         <v>120011</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="6">
         <v>4</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="6">
         <v>50</v>
       </c>
-      <c r="J16" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L16" s="20">
+      <c r="J16" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="9">
         <v>300014</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="9">
         <v>300067</v>
       </c>
-      <c r="N16" s="20">
-        <v>0</v>
-      </c>
-      <c r="O16" s="17">
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
         <v>330004</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="6">
         <v>330016</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="6">
         <v>100041</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="10">
         <v>7</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="6">
         <v>900014</v>
       </c>
-      <c r="T16" s="17"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="16">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="6">
         <v>120012</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="6">
         <v>1</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="6">
         <v>50</v>
       </c>
-      <c r="J17" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L17" s="20">
+      <c r="J17" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L17" s="9">
         <v>300004</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="9">
         <v>300070</v>
       </c>
-      <c r="N17" s="20">
-        <v>0</v>
-      </c>
-      <c r="O17" s="17">
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
         <v>330004</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="6">
         <v>330013</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="6">
         <v>100042</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="10">
         <v>3</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="6">
         <v>900015</v>
       </c>
-      <c r="T17" s="17"/>
+      <c r="T17" s="6"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="16">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="6">
         <v>120013</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="6">
         <v>50</v>
       </c>
-      <c r="J18" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="20">
+      <c r="J18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="9">
         <v>300017</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="9">
         <v>300076</v>
       </c>
-      <c r="N18" s="20">
-        <v>0</v>
-      </c>
-      <c r="O18" s="17">
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
         <v>330004</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="6">
         <v>330012</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="6">
         <v>100043</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="10">
         <v>3</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="6">
         <v>900016</v>
       </c>
-      <c r="T18" s="17"/>
+      <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="16">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="6">
         <v>120014</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="7">
         <v>14</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="6">
         <v>50</v>
       </c>
-      <c r="J19" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L19" s="20">
+      <c r="J19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="9">
         <v>300007</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="9">
         <v>300080</v>
       </c>
-      <c r="N19" s="20">
-        <v>0</v>
-      </c>
-      <c r="O19" s="17">
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
         <v>330005</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="6">
         <v>330014</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="6">
         <v>100044</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="10">
         <v>1</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="6">
         <v>900017</v>
       </c>
-      <c r="T19" s="17"/>
+      <c r="T19" s="6"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="16">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="6">
         <v>120015</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="6">
         <v>5</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="6">
         <v>1</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="7">
         <v>15</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="6">
         <v>50</v>
       </c>
-      <c r="J20" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L20" s="20">
+      <c r="J20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L20" s="9">
         <v>300009</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="9">
         <v>300083</v>
       </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17">
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
         <v>330005</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="6">
         <v>330017</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="6">
         <v>100045</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="10">
         <v>10</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="6">
         <v>900018</v>
       </c>
-      <c r="T20" s="17"/>
+      <c r="T20" s="6"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="16">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="6">
         <v>120016</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="6">
         <v>3</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="7">
         <v>16</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="6">
         <v>50</v>
       </c>
-      <c r="J21" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K21" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L21" s="20">
+      <c r="J21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="9">
         <v>300007</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="9">
         <v>300095</v>
       </c>
-      <c r="N21" s="20">
-        <v>0</v>
-      </c>
-      <c r="O21" s="17">
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
         <v>330005</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="6">
         <v>330014</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="6">
         <v>100046</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="10">
         <v>5</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="6">
         <v>900019</v>
       </c>
-      <c r="T21" s="17"/>
+      <c r="T21" s="6"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="16">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="6">
         <v>120017</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="7">
         <v>17</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="6">
         <v>50</v>
       </c>
-      <c r="J22" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K22" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L22" s="20">
+      <c r="J22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="9">
         <v>300008</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="9">
         <v>300098</v>
       </c>
-      <c r="N22" s="20">
-        <v>0</v>
-      </c>
-      <c r="O22" s="17">
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
         <v>330006</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="6">
         <v>330016</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="6">
         <v>100047</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="10">
         <v>3</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="6">
         <v>900020</v>
       </c>
-      <c r="T22" s="17"/>
+      <c r="T22" s="6"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="16">
+      <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="6">
         <v>120018</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="6">
         <v>1</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="7">
         <v>18</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="6">
         <v>50</v>
       </c>
-      <c r="J23" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K23" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L23" s="20">
+      <c r="J23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="9">
         <v>300006</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="9">
         <v>300061</v>
       </c>
-      <c r="N23" s="20">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17">
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
         <v>330006</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="6">
         <v>330015</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="6">
         <v>100048</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="10">
         <v>5</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="6">
         <v>900021</v>
       </c>
-      <c r="T23" s="17"/>
+      <c r="T23" s="6"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="16">
+      <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="6">
         <v>120019</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="6">
         <v>1</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="6">
         <v>50</v>
       </c>
-      <c r="J24" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="20">
+      <c r="J24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L24" s="9">
         <v>300006</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="9">
         <v>300104</v>
       </c>
-      <c r="N24" s="20">
-        <v>0</v>
-      </c>
-      <c r="O24" s="17">
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
         <v>330007</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="6">
         <v>330014</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="6">
         <v>100049</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="10">
         <v>1</v>
       </c>
-      <c r="S24" s="17">
+      <c r="S24" s="6">
         <v>900022</v>
       </c>
-      <c r="T24" s="17"/>
+      <c r="T24" s="6"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="16">
+      <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="6">
         <v>120020</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="6">
         <v>2</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="6">
         <v>1</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="7">
         <v>20</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="6">
         <v>50</v>
       </c>
-      <c r="J25" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K25" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L25" s="20">
+      <c r="J25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L25" s="9">
         <v>300006</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="9">
         <v>300107</v>
       </c>
-      <c r="N25" s="20">
-        <v>0</v>
-      </c>
-      <c r="O25" s="17">
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
         <v>330007</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="6">
         <v>330011</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="6">
         <v>100050</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="10">
         <v>3</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="6">
         <v>900023</v>
       </c>
-      <c r="T25" s="17"/>
+      <c r="T25" s="6"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="16">
+      <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="6">
         <v>120021</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="6">
         <v>3</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="6">
         <v>1</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="7">
         <v>21</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="6">
         <v>50</v>
       </c>
-      <c r="J26" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K26" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L26" s="20">
+      <c r="J26" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L26" s="9">
         <v>300006</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="9">
         <v>300110</v>
       </c>
-      <c r="N26" s="20">
-        <v>0</v>
-      </c>
-      <c r="O26" s="17">
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
         <v>330007</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="6">
         <v>330013</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="6">
         <v>100051</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="10">
         <v>5</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="6">
         <v>900024</v>
       </c>
-      <c r="T26" s="20"/>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="16">
+      <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="6">
         <v>120022</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="6">
         <v>2</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="6">
         <v>1</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="7">
         <v>22</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="6">
         <v>50</v>
       </c>
-      <c r="J27" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K27" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L27" s="20">
+      <c r="J27" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L27" s="9">
         <v>300017</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="9">
         <v>300113</v>
       </c>
-      <c r="N27" s="20">
-        <v>0</v>
-      </c>
-      <c r="O27" s="17">
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
         <v>330008</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="6">
         <v>330015</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="6">
         <v>100052</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="10">
         <v>3</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="6">
         <v>900025</v>
       </c>
-      <c r="T27" s="17"/>
+      <c r="T27" s="6"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="16">
+      <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="6">
         <v>120023</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="6">
         <v>1</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="7">
         <v>23</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="6">
         <v>50</v>
       </c>
-      <c r="J28" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K28" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L28" s="20">
+      <c r="J28" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="9">
         <v>300021</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="9">
         <v>300140</v>
       </c>
-      <c r="N28" s="20">
-        <v>0</v>
-      </c>
-      <c r="O28" s="17">
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
         <v>330008</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="6">
         <v>330012</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="6">
         <v>100053</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="10">
         <v>5</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="6">
         <v>900026</v>
       </c>
-      <c r="T28" s="17"/>
+      <c r="T28" s="6"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="16">
+      <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="6">
         <v>120024</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="6">
         <v>4</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="6">
         <v>1</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="7">
         <v>24</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="6">
         <v>50</v>
       </c>
-      <c r="J29" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K29" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L29" s="20">
+      <c r="J29" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L29" s="9">
         <v>300021</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="9">
         <v>300116</v>
       </c>
-      <c r="N29" s="20">
-        <v>0</v>
-      </c>
-      <c r="O29" s="17">
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
         <v>330008</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="6">
         <v>330012</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="6">
         <v>100054</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="10">
         <v>7</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="6">
         <v>900027</v>
       </c>
-      <c r="T29" s="17"/>
+      <c r="T29" s="6"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="16">
+      <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="6">
         <v>120025</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="6">
         <v>5</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="6">
         <v>1</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="7">
         <v>25</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="6">
         <v>50</v>
       </c>
-      <c r="J30" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K30" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="20">
+      <c r="J30" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L30" s="9">
         <v>300023</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="9">
         <v>300119</v>
       </c>
-      <c r="N30" s="20">
-        <v>0</v>
-      </c>
-      <c r="O30" s="17">
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
         <v>330009</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="6">
         <v>330017</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="6">
         <v>100055</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30" s="10">
         <v>10</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="6">
         <v>900028</v>
       </c>
-      <c r="T30" s="17"/>
+      <c r="T30" s="6"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="16">
+      <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="6">
         <v>120026</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="6">
         <v>1</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="7">
         <v>26</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="6">
         <v>50</v>
       </c>
-      <c r="J31" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K31" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L31" s="20">
+      <c r="J31" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L31" s="9">
         <v>300013</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="9">
         <v>300122</v>
       </c>
-      <c r="N31" s="20">
-        <v>0</v>
-      </c>
-      <c r="O31" s="17">
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
         <v>330010</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="6">
         <v>330012</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="6">
         <v>100056</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="10">
         <v>1</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="6">
         <v>900029</v>
       </c>
-      <c r="T31" s="17"/>
+      <c r="T31" s="6"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="16">
+      <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="6">
         <v>120027</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="6">
         <v>4</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="6">
         <v>1</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="7">
         <v>27</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="6">
         <v>50</v>
       </c>
-      <c r="J32" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K32" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L32" s="20">
+      <c r="J32" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L32" s="9">
         <v>300021</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="9">
         <v>300125</v>
       </c>
-      <c r="N32" s="20">
-        <v>0</v>
-      </c>
-      <c r="O32" s="17">
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
         <v>330010</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="6">
         <v>330014</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="6">
         <v>100057</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32" s="10">
         <v>7</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="6">
         <v>900030</v>
       </c>
-      <c r="T32" s="17"/>
+      <c r="T32" s="6"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="16">
+      <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="6">
         <v>120028</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="6">
         <v>2</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="6">
         <v>2</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="6">
         <v>100</v>
       </c>
-      <c r="J33" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K33" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L33" s="20">
+      <c r="J33" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L33" s="9">
         <v>300011</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="9">
         <v>300036</v>
       </c>
-      <c r="N33" s="20">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17">
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
         <v>330001</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="6">
         <v>330011</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="6">
         <v>100058</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33" s="10">
         <v>6</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="6">
         <v>900031</v>
       </c>
-      <c r="T33" s="17"/>
+      <c r="T33" s="6"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="16">
+      <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="6">
         <v>120029</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="6">
         <v>2</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="6">
         <v>2</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="6">
         <v>100</v>
       </c>
-      <c r="J34" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K34" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L34" s="20">
+      <c r="J34" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L34" s="9">
         <v>300019</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="9">
         <v>300041</v>
       </c>
-      <c r="N34" s="20">
-        <v>0</v>
-      </c>
-      <c r="O34" s="17">
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
         <v>330001</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="6">
         <v>330013</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q34" s="6">
         <v>100059</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="10">
         <v>6</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="6">
         <v>900032</v>
       </c>
-      <c r="T34" s="17"/>
+      <c r="T34" s="6"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="16">
+      <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="6">
         <v>120030</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="6">
         <v>4</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="6">
         <v>2</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="7">
         <v>3</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="6">
         <v>100</v>
       </c>
-      <c r="J35" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K35" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="20">
+      <c r="J35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="9">
         <v>300004</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="9">
         <v>300044</v>
       </c>
-      <c r="N35" s="20">
-        <v>0</v>
-      </c>
-      <c r="O35" s="17">
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
         <v>330001</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="6">
         <v>330013</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="6">
         <v>100060</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="10">
         <v>14</v>
       </c>
-      <c r="S35" s="17">
+      <c r="S35" s="6">
         <v>900033</v>
       </c>
-      <c r="T35" s="17"/>
+      <c r="T35" s="6"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="16">
+      <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="6">
         <v>120031</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="6">
         <v>1</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="6">
         <v>2</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="7">
         <v>4</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="6">
         <v>100</v>
       </c>
-      <c r="J36" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K36" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L36" s="20">
+      <c r="J36" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L36" s="9">
         <v>300015</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="9">
         <v>300047</v>
       </c>
-      <c r="N36" s="20">
-        <v>0</v>
-      </c>
-      <c r="O36" s="17">
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
         <v>330002</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P36" s="6">
         <v>330011</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="6">
         <v>100061</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="10">
         <v>2</v>
       </c>
-      <c r="S36" s="17">
+      <c r="S36" s="6">
         <v>900034</v>
       </c>
-      <c r="T36" s="17"/>
+      <c r="T36" s="6"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="16">
+      <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="6">
         <v>120032</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="6">
         <v>1</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="7">
         <v>5</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="6">
         <v>100</v>
       </c>
-      <c r="J37" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K37" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L37" s="20">
+      <c r="J37" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L37" s="9">
         <v>300004</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="9">
         <v>300050</v>
       </c>
-      <c r="N37" s="20">
-        <v>0</v>
-      </c>
-      <c r="O37" s="17">
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
         <v>330002</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="6">
         <v>330013</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="6">
         <v>100062</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="10">
         <v>2</v>
       </c>
-      <c r="S37" s="17">
+      <c r="S37" s="6">
         <v>900035</v>
       </c>
-      <c r="T37" s="17"/>
+      <c r="T37" s="6"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="16">
+      <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="6">
         <v>120033</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="6">
         <v>4</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="7">
         <v>6</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="6">
         <v>100</v>
       </c>
-      <c r="J38" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K38" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L38" s="20">
+      <c r="J38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L38" s="9">
         <v>300016</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="9">
         <v>300053</v>
       </c>
-      <c r="N38" s="20">
-        <v>0</v>
-      </c>
-      <c r="O38" s="17">
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
         <v>330002</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="6">
         <v>330015</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="6">
         <v>100063</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="10">
         <v>14</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="6">
         <v>900036</v>
       </c>
-      <c r="T38" s="17"/>
+      <c r="T38" s="6"/>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="16">
+      <c r="B39" s="5">
         <v>34</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="6">
         <v>120034</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="6">
         <v>2</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="7">
         <v>7</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="6">
         <v>100</v>
       </c>
-      <c r="J39" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K39" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L39" s="20">
+      <c r="J39" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L39" s="9">
         <v>300012</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="9">
         <v>300056</v>
       </c>
-      <c r="N39" s="20">
-        <v>0</v>
-      </c>
-      <c r="O39" s="17">
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
         <v>330003</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="6">
         <v>330015</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="6">
         <v>100064</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="10">
         <v>2</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="6">
         <v>900037</v>
       </c>
-      <c r="T39" s="17"/>
+      <c r="T39" s="6"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="16">
+      <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="6">
         <v>120035</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="6">
         <v>3</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="6">
         <v>2</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="7">
         <v>8</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="6">
         <v>100</v>
       </c>
-      <c r="J40" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K40" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L40" s="20">
+      <c r="J40" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L40" s="9">
         <v>300005</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="9">
         <v>300059</v>
       </c>
-      <c r="N40" s="20">
-        <v>0</v>
-      </c>
-      <c r="O40" s="17">
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
         <v>330003</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P40" s="6">
         <v>330011</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="6">
         <v>100065</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40" s="10">
         <v>10</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="6">
         <v>900038</v>
       </c>
-      <c r="T40" s="17"/>
+      <c r="T40" s="6"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="16">
+      <c r="B41" s="5">
         <v>36</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="6">
         <v>120036</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="6">
         <v>3</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="6">
         <v>2</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="7">
         <v>9</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="6">
         <v>100</v>
       </c>
-      <c r="J41" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K41" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L41" s="20">
+      <c r="J41" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L41" s="9">
         <v>300008</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="9">
         <v>300102</v>
       </c>
-      <c r="N41" s="20">
-        <v>0</v>
-      </c>
-      <c r="O41" s="17">
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
         <v>330003</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="6">
         <v>330016</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="6">
         <v>100066</v>
       </c>
-      <c r="R41" s="21">
+      <c r="R41" s="10">
         <v>10</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="6">
         <v>900039</v>
       </c>
-      <c r="T41" s="17"/>
+      <c r="T41" s="6"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="16">
+      <c r="B42" s="5">
         <v>37</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="6">
         <v>120037</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="6">
         <v>1</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="6">
         <v>2</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="7">
         <v>10</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="6">
         <v>100</v>
       </c>
-      <c r="J42" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K42" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L42" s="20">
+      <c r="J42" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L42" s="9">
         <v>300006</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="9">
         <v>300065</v>
       </c>
-      <c r="N42" s="20">
-        <v>0</v>
-      </c>
-      <c r="O42" s="17">
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
         <v>330004</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="6">
         <v>330011</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="6">
         <v>100067</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R42" s="10">
         <v>2</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="6">
         <v>900040</v>
       </c>
-      <c r="T42" s="17"/>
+      <c r="T42" s="6"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="16">
+      <c r="B43" s="5">
         <v>38</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="6">
         <v>120038</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="6">
         <v>4</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="6">
         <v>2</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="7">
         <v>11</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="6">
         <v>100</v>
       </c>
-      <c r="J43" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K43" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L43" s="20">
+      <c r="J43" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K43" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L43" s="9">
         <v>300014</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="9">
         <v>300068</v>
       </c>
-      <c r="N43" s="20">
-        <v>0</v>
-      </c>
-      <c r="O43" s="17">
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
         <v>330004</v>
       </c>
-      <c r="P43" s="17">
+      <c r="P43" s="6">
         <v>330016</v>
       </c>
-      <c r="Q43" s="17">
+      <c r="Q43" s="6">
         <v>100068</v>
       </c>
-      <c r="R43" s="21">
+      <c r="R43" s="10">
         <v>14</v>
       </c>
-      <c r="S43" s="17">
+      <c r="S43" s="6">
         <v>900041</v>
       </c>
-      <c r="T43" s="17"/>
+      <c r="T43" s="6"/>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="16">
+      <c r="B44" s="5">
         <v>39</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="6">
         <v>120039</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="6">
         <v>2</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="6">
         <v>2</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="7">
         <v>12</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="6">
         <v>100</v>
       </c>
-      <c r="J44" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K44" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L44" s="20">
+      <c r="J44" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L44" s="9">
         <v>300004</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="9">
         <v>300072</v>
       </c>
-      <c r="N44" s="20">
-        <v>0</v>
-      </c>
-      <c r="O44" s="17">
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
         <v>330004</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="6">
         <v>330013</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="6">
         <v>100069</v>
       </c>
-      <c r="R44" s="21">
+      <c r="R44" s="10">
         <v>6</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="6">
         <v>900042</v>
       </c>
-      <c r="T44" s="20"/>
+      <c r="T44" s="9"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="16">
+      <c r="B45" s="5">
         <v>40</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="6">
         <v>120040</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="6">
         <v>2</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="6">
         <v>2</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="7">
         <v>13</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="6">
         <v>100</v>
       </c>
-      <c r="J45" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K45" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L45" s="20">
+      <c r="J45" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L45" s="9">
         <v>300017</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="9">
         <v>300077</v>
       </c>
-      <c r="N45" s="20">
-        <v>0</v>
-      </c>
-      <c r="O45" s="17">
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
         <v>330004</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="6">
         <v>330012</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="6">
         <v>100070</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="10">
         <v>6</v>
       </c>
-      <c r="S45" s="17">
+      <c r="S45" s="6">
         <v>900043</v>
       </c>
-      <c r="T45" s="17"/>
+      <c r="T45" s="6"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="B46" s="16">
+      <c r="B46" s="5">
         <v>41</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="6">
         <v>120041</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="6">
         <v>1</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="6">
         <v>2</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="7">
         <v>14</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="6">
         <v>100</v>
       </c>
-      <c r="J46" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K46" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L46" s="20">
+      <c r="J46" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L46" s="9">
         <v>300007</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="9">
         <v>300081</v>
       </c>
-      <c r="N46" s="20">
-        <v>0</v>
-      </c>
-      <c r="O46" s="17">
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
         <v>330005</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="6">
         <v>330014</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="6">
         <v>100071</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="10">
         <v>2</v>
       </c>
-      <c r="S46" s="17">
+      <c r="S46" s="6">
         <v>900044</v>
       </c>
-      <c r="T46" s="17"/>
+      <c r="T46" s="6"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="16">
+      <c r="B47" s="5">
         <v>42</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="6">
         <v>120042</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="6">
         <v>5</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="6">
         <v>2</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="7">
         <v>15</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="6">
         <v>100</v>
       </c>
-      <c r="J47" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K47" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L47" s="20">
+      <c r="J47" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L47" s="9">
         <v>300009</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="9">
         <v>300087</v>
       </c>
-      <c r="N47" s="20">
-        <v>0</v>
-      </c>
-      <c r="O47" s="17">
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
         <v>330005</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="6">
         <v>330017</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q47" s="6">
         <v>100072</v>
       </c>
-      <c r="R47" s="21">
+      <c r="R47" s="10">
         <v>20</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="6">
         <v>900045</v>
       </c>
-      <c r="T47" s="17"/>
+      <c r="T47" s="6"/>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="16">
+      <c r="B48" s="5">
         <v>43</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="6">
         <v>120043</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="6">
         <v>3</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="6">
         <v>2</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="7">
         <v>16</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="6">
         <v>100</v>
       </c>
-      <c r="J48" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K48" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L48" s="20">
+      <c r="J48" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L48" s="9">
         <v>300007</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="9">
         <v>300096</v>
       </c>
-      <c r="N48" s="20">
-        <v>0</v>
-      </c>
-      <c r="O48" s="17">
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
         <v>330005</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P48" s="6">
         <v>330014</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="Q48" s="6">
         <v>100073</v>
       </c>
-      <c r="R48" s="21">
+      <c r="R48" s="10">
         <v>10</v>
       </c>
-      <c r="S48" s="17">
+      <c r="S48" s="6">
         <v>900046</v>
       </c>
-      <c r="T48" s="17"/>
+      <c r="T48" s="6"/>
     </row>
     <row r="49" spans="2:20">
-      <c r="B49" s="16">
+      <c r="B49" s="5">
         <v>44</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="6">
         <v>120044</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="6">
         <v>2</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="6">
         <v>2</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="7">
         <v>17</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="6">
         <v>100</v>
       </c>
-      <c r="J49" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K49" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L49" s="20">
+      <c r="J49" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L49" s="9">
         <v>300008</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="9">
         <v>300099</v>
       </c>
-      <c r="N49" s="20">
-        <v>0</v>
-      </c>
-      <c r="O49" s="17">
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
         <v>330006</v>
       </c>
-      <c r="P49" s="17">
+      <c r="P49" s="6">
         <v>330016</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="6">
         <v>100074</v>
       </c>
-      <c r="R49" s="21">
+      <c r="R49" s="10">
         <v>6</v>
       </c>
-      <c r="S49" s="17">
+      <c r="S49" s="6">
         <v>900047</v>
       </c>
-      <c r="T49" s="17"/>
+      <c r="T49" s="6"/>
     </row>
     <row r="50" spans="2:20">
-      <c r="B50" s="16">
+      <c r="B50" s="5">
         <v>45</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="6">
         <v>120045</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="6">
         <v>3</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="6">
         <v>2</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="7">
         <v>18</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="6">
         <v>100</v>
       </c>
-      <c r="J50" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L50" s="20">
+      <c r="J50" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L50" s="9">
         <v>300006</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="9">
         <v>300062</v>
       </c>
-      <c r="N50" s="20">
-        <v>0</v>
-      </c>
-      <c r="O50" s="17">
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
         <v>330006</v>
       </c>
-      <c r="P50" s="17">
+      <c r="P50" s="6">
         <v>330015</v>
       </c>
-      <c r="Q50" s="17">
+      <c r="Q50" s="6">
         <v>100075</v>
       </c>
-      <c r="R50" s="21">
+      <c r="R50" s="10">
         <v>10</v>
       </c>
-      <c r="S50" s="17">
+      <c r="S50" s="6">
         <v>900048</v>
       </c>
-      <c r="T50" s="17"/>
+      <c r="T50" s="6"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="16">
+      <c r="B51" s="5">
         <v>46</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="6">
         <v>120046</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="6">
         <v>1</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="6">
         <v>2</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="7">
         <v>19</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="6">
         <v>100</v>
       </c>
-      <c r="J51" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K51" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L51" s="20">
+      <c r="J51" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L51" s="9">
         <v>300006</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="9">
         <v>300105</v>
       </c>
-      <c r="N51" s="20">
-        <v>0</v>
-      </c>
-      <c r="O51" s="17">
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
         <v>330007</v>
       </c>
-      <c r="P51" s="17">
+      <c r="P51" s="6">
         <v>330014</v>
       </c>
-      <c r="Q51" s="17">
+      <c r="Q51" s="6">
         <v>100076</v>
       </c>
-      <c r="R51" s="21">
+      <c r="R51" s="10">
         <v>2</v>
       </c>
-      <c r="S51" s="17">
+      <c r="S51" s="6">
         <v>900049</v>
       </c>
-      <c r="T51" s="17"/>
+      <c r="T51" s="6"/>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="16">
+      <c r="B52" s="5">
         <v>47</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="6">
         <v>120047</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="6">
         <v>2</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="6">
         <v>2</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="7">
         <v>20</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="6">
         <v>100</v>
       </c>
-      <c r="J52" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K52" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L52" s="20">
+      <c r="J52" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L52" s="9">
         <v>300006</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="9">
         <v>300108</v>
       </c>
-      <c r="N52" s="20">
-        <v>0</v>
-      </c>
-      <c r="O52" s="17">
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
         <v>330007</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P52" s="6">
         <v>330011</v>
       </c>
-      <c r="Q52" s="17">
+      <c r="Q52" s="6">
         <v>100077</v>
       </c>
-      <c r="R52" s="21">
+      <c r="R52" s="10">
         <v>6</v>
       </c>
-      <c r="S52" s="17">
+      <c r="S52" s="6">
         <v>900050</v>
       </c>
-      <c r="T52" s="17"/>
+      <c r="T52" s="6"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="16">
+      <c r="B53" s="5">
         <v>48</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="6">
         <v>120048</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="6">
         <v>3</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="6">
         <v>2</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="7">
         <v>21</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="6">
         <v>100</v>
       </c>
-      <c r="J53" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K53" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L53" s="20">
+      <c r="J53" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L53" s="9">
         <v>300006</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="9">
         <v>300111</v>
       </c>
-      <c r="N53" s="20">
-        <v>0</v>
-      </c>
-      <c r="O53" s="17">
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
         <v>330007</v>
       </c>
-      <c r="P53" s="17">
+      <c r="P53" s="6">
         <v>330013</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="6">
         <v>100078</v>
       </c>
-      <c r="R53" s="21">
+      <c r="R53" s="10">
         <v>10</v>
       </c>
-      <c r="S53" s="17">
+      <c r="S53" s="6">
         <v>900051</v>
       </c>
-      <c r="T53" s="17"/>
+      <c r="T53" s="6"/>
     </row>
     <row r="54" spans="2:20">
-      <c r="B54" s="16">
+      <c r="B54" s="5">
         <v>49</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="6">
         <v>120049</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="6">
         <v>2</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="6">
         <v>2</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="7">
         <v>22</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="6">
         <v>100</v>
       </c>
-      <c r="J54" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K54" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L54" s="20">
+      <c r="J54" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L54" s="9">
         <v>300017</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="9">
         <v>300114</v>
       </c>
-      <c r="N54" s="20">
-        <v>0</v>
-      </c>
-      <c r="O54" s="17">
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
         <v>330008</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P54" s="6">
         <v>330015</v>
       </c>
-      <c r="Q54" s="17">
+      <c r="Q54" s="6">
         <v>100079</v>
       </c>
-      <c r="R54" s="21">
+      <c r="R54" s="10">
         <v>6</v>
       </c>
-      <c r="S54" s="17">
+      <c r="S54" s="6">
         <v>900052</v>
       </c>
-      <c r="T54" s="17"/>
+      <c r="T54" s="6"/>
     </row>
     <row r="55" spans="2:20">
-      <c r="B55" s="16">
+      <c r="B55" s="5">
         <v>50</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="6">
         <v>120050</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="6">
         <v>3</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="6">
         <v>2</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="7">
         <v>23</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="6">
         <v>100</v>
       </c>
-      <c r="J55" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K55" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L55" s="20">
+      <c r="J55" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L55" s="9">
         <v>300021</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="9">
         <v>300143</v>
       </c>
-      <c r="N55" s="20">
-        <v>0</v>
-      </c>
-      <c r="O55" s="17">
+      <c r="N55" s="9">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
         <v>330008</v>
       </c>
-      <c r="P55" s="17">
+      <c r="P55" s="6">
         <v>330012</v>
       </c>
-      <c r="Q55" s="17">
+      <c r="Q55" s="6">
         <v>100080</v>
       </c>
-      <c r="R55" s="21">
+      <c r="R55" s="10">
         <v>10</v>
       </c>
-      <c r="S55" s="17">
+      <c r="S55" s="6">
         <v>900053</v>
       </c>
-      <c r="T55" s="17"/>
+      <c r="T55" s="6"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="B56" s="16">
+      <c r="B56" s="5">
         <v>51</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="6">
         <v>120051</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="6">
         <v>4</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="6">
         <v>2</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="7">
         <v>24</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="6">
         <v>100</v>
       </c>
-      <c r="J56" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K56" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L56" s="20">
+      <c r="J56" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L56" s="9">
         <v>300021</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="9">
         <v>300117</v>
       </c>
-      <c r="N56" s="20">
-        <v>0</v>
-      </c>
-      <c r="O56" s="17">
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
         <v>330008</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="6">
         <v>330012</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q56" s="6">
         <v>100081</v>
       </c>
-      <c r="R56" s="21">
+      <c r="R56" s="10">
         <v>14</v>
       </c>
-      <c r="S56" s="17">
+      <c r="S56" s="6">
         <v>900054</v>
       </c>
-      <c r="T56" s="17"/>
+      <c r="T56" s="6"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="16">
+      <c r="B57" s="5">
         <v>52</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="6">
         <v>120052</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="6">
         <v>5</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="6">
         <v>2</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="7">
         <v>25</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="6">
         <v>100</v>
       </c>
-      <c r="J57" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K57" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L57" s="20">
+      <c r="J57" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L57" s="9">
         <v>300023</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="9">
         <v>300120</v>
       </c>
-      <c r="N57" s="20">
-        <v>0</v>
-      </c>
-      <c r="O57" s="17">
+      <c r="N57" s="9">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
         <v>330009</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="6">
         <v>330017</v>
       </c>
-      <c r="Q57" s="17">
+      <c r="Q57" s="6">
         <v>100082</v>
       </c>
-      <c r="R57" s="21">
+      <c r="R57" s="10">
         <v>20</v>
       </c>
-      <c r="S57" s="17">
+      <c r="S57" s="6">
         <v>900055</v>
       </c>
-      <c r="T57" s="17"/>
+      <c r="T57" s="6"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="16">
+      <c r="B58" s="5">
         <v>53</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="6">
         <v>120053</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="6">
         <v>1</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="6">
         <v>2</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="7">
         <v>26</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="6">
         <v>100</v>
       </c>
-      <c r="J58" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K58" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L58" s="20">
+      <c r="J58" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L58" s="9">
         <v>300013</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="9">
         <v>300123</v>
       </c>
-      <c r="N58" s="20">
-        <v>0</v>
-      </c>
-      <c r="O58" s="17">
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
         <v>330010</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="6">
         <v>330012</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="6">
         <v>100083</v>
       </c>
-      <c r="R58" s="21">
+      <c r="R58" s="10">
         <v>2</v>
       </c>
-      <c r="S58" s="17">
+      <c r="S58" s="6">
         <v>900056</v>
       </c>
-      <c r="T58" s="17"/>
+      <c r="T58" s="6"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="16">
+      <c r="B59" s="5">
         <v>54</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="6">
         <v>120054</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="6">
         <v>4</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="6">
         <v>2</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="7">
         <v>27</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="6">
         <v>100</v>
       </c>
-      <c r="J59" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K59" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L59" s="20">
+      <c r="J59" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L59" s="9">
         <v>300021</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="9">
         <v>300130</v>
       </c>
-      <c r="N59" s="20">
-        <v>0</v>
-      </c>
-      <c r="O59" s="17">
+      <c r="N59" s="9">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
         <v>330010</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="6">
         <v>330014</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="6">
         <v>100084</v>
       </c>
-      <c r="R59" s="21">
+      <c r="R59" s="10">
         <v>14</v>
       </c>
-      <c r="S59" s="17">
+      <c r="S59" s="6">
         <v>900057</v>
       </c>
-      <c r="T59" s="17"/>
+      <c r="T59" s="6"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="16">
+      <c r="B60" s="5">
         <v>55</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="6">
         <v>120055</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="6">
         <v>2</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="6">
         <v>3</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="7">
         <v>1</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="6">
         <v>200</v>
       </c>
-      <c r="J60" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K60" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L60" s="20">
+      <c r="J60" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L60" s="9">
         <v>300011</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="9">
         <v>300038</v>
       </c>
-      <c r="N60" s="20">
-        <v>0</v>
-      </c>
-      <c r="O60" s="17">
+      <c r="N60" s="9">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
         <v>330001</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="6">
         <v>330011</v>
       </c>
-      <c r="Q60" s="17">
-        <v>0</v>
-      </c>
-      <c r="R60" s="21">
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+      <c r="R60" s="10">
         <v>18</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="6">
         <v>900058</v>
       </c>
-      <c r="T60" s="17"/>
+      <c r="T60" s="6"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="16">
+      <c r="B61" s="5">
         <v>56</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="6">
         <v>120056</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="6">
         <v>2</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="6">
         <v>3</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="7">
         <v>2</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="6">
         <v>200</v>
       </c>
-      <c r="J61" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K61" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L61" s="20">
+      <c r="J61" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L61" s="9">
         <v>300019</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="9">
         <v>300042</v>
       </c>
-      <c r="N61" s="20">
-        <v>0</v>
-      </c>
-      <c r="O61" s="17">
+      <c r="N61" s="9">
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
         <v>330001</v>
       </c>
-      <c r="P61" s="17">
+      <c r="P61" s="6">
         <v>330013</v>
       </c>
-      <c r="Q61" s="17">
-        <v>0</v>
-      </c>
-      <c r="R61" s="21">
+      <c r="Q61" s="6">
+        <v>0</v>
+      </c>
+      <c r="R61" s="10">
         <v>18</v>
       </c>
-      <c r="S61" s="17">
+      <c r="S61" s="6">
         <v>900059</v>
       </c>
-      <c r="T61" s="17"/>
+      <c r="T61" s="6"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="16">
+      <c r="B62" s="5">
         <v>57</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="6">
         <v>120057</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="6">
         <v>4</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="6">
         <v>3</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="7">
         <v>3</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="6">
         <v>200</v>
       </c>
-      <c r="J62" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K62" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L62" s="20">
+      <c r="J62" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L62" s="9">
         <v>300004</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="9">
         <v>300045</v>
       </c>
-      <c r="N62" s="20">
-        <v>0</v>
-      </c>
-      <c r="O62" s="17">
+      <c r="N62" s="9">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
         <v>330001</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="6">
         <v>330013</v>
       </c>
-      <c r="Q62" s="17">
-        <v>0</v>
-      </c>
-      <c r="R62" s="21">
+      <c r="Q62" s="6">
+        <v>0</v>
+      </c>
+      <c r="R62" s="10">
         <v>42</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="6">
         <v>900060</v>
       </c>
-      <c r="T62" s="17"/>
+      <c r="T62" s="6"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="16">
+      <c r="B63" s="5">
         <v>58</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="6">
         <v>120058</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="6">
         <v>1</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="6">
         <v>3</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="7">
         <v>4</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="6">
         <v>200</v>
       </c>
-      <c r="J63" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K63" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L63" s="20">
+      <c r="J63" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K63" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L63" s="9">
         <v>300015</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="9">
         <v>300048</v>
       </c>
-      <c r="N63" s="20">
-        <v>0</v>
-      </c>
-      <c r="O63" s="17">
+      <c r="N63" s="9">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
         <v>330002</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63" s="6">
         <v>330011</v>
       </c>
-      <c r="Q63" s="17">
-        <v>0</v>
-      </c>
-      <c r="R63" s="21">
+      <c r="Q63" s="6">
+        <v>0</v>
+      </c>
+      <c r="R63" s="10">
         <v>6</v>
       </c>
-      <c r="S63" s="17">
+      <c r="S63" s="6">
         <v>900061</v>
       </c>
-      <c r="T63" s="17"/>
+      <c r="T63" s="6"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="16">
+      <c r="B64" s="5">
         <v>59</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="6">
         <v>120059</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="6">
         <v>1</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="6">
         <v>3</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="7">
         <v>5</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="6">
         <v>200</v>
       </c>
-      <c r="J64" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K64" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L64" s="20">
+      <c r="J64" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K64" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L64" s="9">
         <v>300004</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M64" s="9">
         <v>300051</v>
       </c>
-      <c r="N64" s="20">
-        <v>0</v>
-      </c>
-      <c r="O64" s="17">
+      <c r="N64" s="9">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
         <v>330002</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="6">
         <v>330013</v>
       </c>
-      <c r="Q64" s="17">
-        <v>0</v>
-      </c>
-      <c r="R64" s="21">
+      <c r="Q64" s="6">
+        <v>0</v>
+      </c>
+      <c r="R64" s="10">
         <v>6</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="6">
         <v>900062</v>
       </c>
-      <c r="T64" s="17"/>
+      <c r="T64" s="6"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="16">
+      <c r="B65" s="5">
         <v>60</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="6">
         <v>120060</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="6">
         <v>4</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="6">
         <v>3</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="7">
         <v>6</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="6">
         <v>200</v>
       </c>
-      <c r="J65" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K65" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L65" s="20">
+      <c r="J65" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L65" s="9">
         <v>300016</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="9">
         <v>300054</v>
       </c>
-      <c r="N65" s="20">
-        <v>0</v>
-      </c>
-      <c r="O65" s="17">
+      <c r="N65" s="9">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
         <v>330002</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="6">
         <v>330015</v>
       </c>
-      <c r="Q65" s="17">
-        <v>0</v>
-      </c>
-      <c r="R65" s="21">
+      <c r="Q65" s="6">
+        <v>0</v>
+      </c>
+      <c r="R65" s="10">
         <v>42</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="6">
         <v>900063</v>
       </c>
-      <c r="T65" s="17"/>
+      <c r="T65" s="6"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="16">
+      <c r="B66" s="5">
         <v>61</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="6">
         <v>120061</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="6">
         <v>1</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="6">
         <v>3</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="7">
         <v>7</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="6">
         <v>200</v>
       </c>
-      <c r="J66" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K66" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L66" s="20">
+      <c r="J66" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L66" s="9">
         <v>300012</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="9">
         <v>300057</v>
       </c>
-      <c r="N66" s="20">
-        <v>0</v>
-      </c>
-      <c r="O66" s="17">
+      <c r="N66" s="9">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
         <v>330003</v>
       </c>
-      <c r="P66" s="17">
+      <c r="P66" s="6">
         <v>330015</v>
       </c>
-      <c r="Q66" s="17">
-        <v>0</v>
-      </c>
-      <c r="R66" s="21">
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+      <c r="R66" s="10">
         <v>6</v>
       </c>
-      <c r="S66" s="17">
+      <c r="S66" s="6">
         <v>900064</v>
       </c>
-      <c r="T66" s="17"/>
+      <c r="T66" s="6"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="16">
+      <c r="B67" s="5">
         <v>62</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="6">
         <v>120062</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="6">
         <v>3</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="6">
         <v>3</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="7">
         <v>8</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="6">
         <v>200</v>
       </c>
-      <c r="J67" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K67" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L67" s="20">
+      <c r="J67" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L67" s="9">
         <v>300005</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="9">
         <v>300060</v>
       </c>
-      <c r="N67" s="20">
-        <v>0</v>
-      </c>
-      <c r="O67" s="17">
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
         <v>330003</v>
       </c>
-      <c r="P67" s="17">
+      <c r="P67" s="6">
         <v>330011</v>
       </c>
-      <c r="Q67" s="17">
-        <v>0</v>
-      </c>
-      <c r="R67" s="21">
+      <c r="Q67" s="6">
+        <v>0</v>
+      </c>
+      <c r="R67" s="10">
         <v>30</v>
       </c>
-      <c r="S67" s="17">
+      <c r="S67" s="6">
         <v>900065</v>
       </c>
-      <c r="T67" s="17"/>
+      <c r="T67" s="6"/>
     </row>
     <row r="68" spans="2:20">
-      <c r="B68" s="16">
+      <c r="B68" s="5">
         <v>63</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="6">
         <v>120063</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="6">
         <v>3</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="6">
         <v>3</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="7">
         <v>9</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="6">
         <v>200</v>
       </c>
-      <c r="J68" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K68" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L68" s="20">
+      <c r="J68" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L68" s="9">
         <v>300008</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M68" s="9">
         <v>300103</v>
       </c>
-      <c r="N68" s="20">
-        <v>0</v>
-      </c>
-      <c r="O68" s="17">
+      <c r="N68" s="9">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
         <v>330003</v>
       </c>
-      <c r="P68" s="17">
+      <c r="P68" s="6">
         <v>330016</v>
       </c>
-      <c r="Q68" s="17">
-        <v>0</v>
-      </c>
-      <c r="R68" s="21">
+      <c r="Q68" s="6">
+        <v>0</v>
+      </c>
+      <c r="R68" s="10">
         <v>30</v>
       </c>
-      <c r="S68" s="17">
+      <c r="S68" s="6">
         <v>900066</v>
       </c>
-      <c r="T68" s="17"/>
+      <c r="T68" s="6"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="16">
+      <c r="B69" s="5">
         <v>64</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="6">
         <v>120064</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="6">
         <v>1</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="6">
         <v>3</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="7">
         <v>10</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="6">
         <v>200</v>
       </c>
-      <c r="J69" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K69" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L69" s="20">
+      <c r="J69" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L69" s="9">
         <v>300006</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="9">
         <v>300066</v>
       </c>
-      <c r="N69" s="20">
-        <v>0</v>
-      </c>
-      <c r="O69" s="17">
+      <c r="N69" s="9">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
         <v>330004</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="6">
         <v>330011</v>
       </c>
-      <c r="Q69" s="17">
-        <v>0</v>
-      </c>
-      <c r="R69" s="21">
+      <c r="Q69" s="6">
+        <v>0</v>
+      </c>
+      <c r="R69" s="10">
         <v>6</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="6">
         <v>900067</v>
       </c>
-      <c r="T69" s="17"/>
+      <c r="T69" s="6"/>
     </row>
     <row r="70" spans="2:20">
-      <c r="B70" s="16">
+      <c r="B70" s="5">
         <v>65</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="6">
         <v>120065</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="6">
         <v>4</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="6">
         <v>3</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="7">
         <v>11</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="6">
         <v>200</v>
       </c>
-      <c r="J70" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K70" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L70" s="20">
+      <c r="J70" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K70" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L70" s="9">
         <v>300014</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="9">
         <v>300069</v>
       </c>
-      <c r="N70" s="20">
-        <v>0</v>
-      </c>
-      <c r="O70" s="17">
+      <c r="N70" s="9">
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
         <v>330004</v>
       </c>
-      <c r="P70" s="17">
+      <c r="P70" s="6">
         <v>330016</v>
       </c>
-      <c r="Q70" s="17">
-        <v>0</v>
-      </c>
-      <c r="R70" s="21">
+      <c r="Q70" s="6">
+        <v>0</v>
+      </c>
+      <c r="R70" s="10">
         <v>42</v>
       </c>
-      <c r="S70" s="17">
+      <c r="S70" s="6">
         <v>900068</v>
       </c>
-      <c r="T70" s="17"/>
+      <c r="T70" s="6"/>
     </row>
     <row r="71" spans="2:20">
-      <c r="B71" s="16">
+      <c r="B71" s="5">
         <v>66</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="6">
         <v>120066</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="6">
         <v>2</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="6">
         <v>3</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="7">
         <v>12</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="6">
         <v>200</v>
       </c>
-      <c r="J71" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K71" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L71" s="20">
+      <c r="J71" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K71" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L71" s="9">
         <v>300004</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="9">
         <v>300074</v>
       </c>
-      <c r="N71" s="20">
-        <v>0</v>
-      </c>
-      <c r="O71" s="17">
+      <c r="N71" s="9">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
         <v>330004</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="6">
         <v>330013</v>
       </c>
-      <c r="Q71" s="17">
-        <v>0</v>
-      </c>
-      <c r="R71" s="21">
+      <c r="Q71" s="6">
+        <v>0</v>
+      </c>
+      <c r="R71" s="10">
         <v>18</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="6">
         <v>900069</v>
       </c>
-      <c r="T71" s="17"/>
+      <c r="T71" s="6"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="16">
+      <c r="B72" s="5">
         <v>67</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="6">
         <v>120067</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="6">
         <v>2</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="6">
         <v>3</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="7">
         <v>13</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="6">
         <v>200</v>
       </c>
-      <c r="J72" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K72" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L72" s="20">
+      <c r="J72" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K72" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L72" s="9">
         <v>300017</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72" s="9">
         <v>300078</v>
       </c>
-      <c r="N72" s="20">
-        <v>0</v>
-      </c>
-      <c r="O72" s="17">
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
         <v>330004</v>
       </c>
-      <c r="P72" s="17">
+      <c r="P72" s="6">
         <v>330012</v>
       </c>
-      <c r="Q72" s="17">
-        <v>0</v>
-      </c>
-      <c r="R72" s="21">
+      <c r="Q72" s="6">
+        <v>0</v>
+      </c>
+      <c r="R72" s="10">
         <v>18</v>
       </c>
-      <c r="S72" s="17">
+      <c r="S72" s="6">
         <v>900070</v>
       </c>
-      <c r="T72" s="17"/>
+      <c r="T72" s="6"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="16">
+      <c r="B73" s="5">
         <v>68</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="6">
         <v>120068</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="6">
         <v>1</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="6">
         <v>3</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="7">
         <v>14</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="6">
         <v>200</v>
       </c>
-      <c r="J73" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K73" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L73" s="20">
+      <c r="J73" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K73" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L73" s="9">
         <v>300007</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73" s="9">
         <v>300082</v>
       </c>
-      <c r="N73" s="20">
-        <v>0</v>
-      </c>
-      <c r="O73" s="17">
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+      <c r="O73" s="6">
         <v>330005</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="6">
         <v>330014</v>
       </c>
-      <c r="Q73" s="17">
-        <v>0</v>
-      </c>
-      <c r="R73" s="21">
+      <c r="Q73" s="6">
+        <v>0</v>
+      </c>
+      <c r="R73" s="10">
         <v>6</v>
       </c>
-      <c r="S73" s="17">
+      <c r="S73" s="6">
         <v>900071</v>
       </c>
-      <c r="T73" s="17"/>
+      <c r="T73" s="6"/>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="16">
+      <c r="B74" s="5">
         <v>69</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="6">
         <v>120069</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="6">
         <v>5</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="6">
         <v>3</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="7">
         <v>15</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="6">
         <v>200</v>
       </c>
-      <c r="J74" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K74" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L74" s="20">
+      <c r="J74" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K74" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L74" s="9">
         <v>300009</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M74" s="9">
         <v>300091</v>
       </c>
-      <c r="N74" s="20">
-        <v>0</v>
-      </c>
-      <c r="O74" s="17">
+      <c r="N74" s="9">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
         <v>330005</v>
       </c>
-      <c r="P74" s="17">
+      <c r="P74" s="6">
         <v>330017</v>
       </c>
-      <c r="Q74" s="17">
-        <v>0</v>
-      </c>
-      <c r="R74" s="21">
+      <c r="Q74" s="6">
+        <v>0</v>
+      </c>
+      <c r="R74" s="10">
         <v>60</v>
       </c>
-      <c r="S74" s="17">
+      <c r="S74" s="6">
         <v>900072</v>
       </c>
-      <c r="T74" s="17"/>
+      <c r="T74" s="6"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="16">
+      <c r="B75" s="5">
         <v>70</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="6">
         <v>120070</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="6">
         <v>3</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="6">
         <v>3</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="7">
         <v>16</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="6">
         <v>200</v>
       </c>
-      <c r="J75" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K75" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L75" s="20">
+      <c r="J75" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K75" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L75" s="9">
         <v>300007</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="9">
         <v>300097</v>
       </c>
-      <c r="N75" s="20">
-        <v>0</v>
-      </c>
-      <c r="O75" s="17">
+      <c r="N75" s="9">
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
         <v>330005</v>
       </c>
-      <c r="P75" s="17">
+      <c r="P75" s="6">
         <v>330014</v>
       </c>
-      <c r="Q75" s="17">
-        <v>0</v>
-      </c>
-      <c r="R75" s="21">
+      <c r="Q75" s="6">
+        <v>0</v>
+      </c>
+      <c r="R75" s="10">
         <v>30</v>
       </c>
-      <c r="S75" s="17">
+      <c r="S75" s="6">
         <v>900073</v>
       </c>
-      <c r="T75" s="17"/>
+      <c r="T75" s="6"/>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="16">
+      <c r="B76" s="5">
         <v>71</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="6">
         <v>120071</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="6">
         <v>2</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="6">
         <v>3</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="7">
         <v>17</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="6">
         <v>200</v>
       </c>
-      <c r="J76" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K76" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L76" s="20">
+      <c r="J76" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K76" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L76" s="9">
         <v>300008</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76" s="9">
         <v>300100</v>
       </c>
-      <c r="N76" s="20">
-        <v>0</v>
-      </c>
-      <c r="O76" s="17">
+      <c r="N76" s="9">
+        <v>0</v>
+      </c>
+      <c r="O76" s="6">
         <v>330006</v>
       </c>
-      <c r="P76" s="17">
+      <c r="P76" s="6">
         <v>330016</v>
       </c>
-      <c r="Q76" s="17">
-        <v>0</v>
-      </c>
-      <c r="R76" s="21">
+      <c r="Q76" s="6">
+        <v>0</v>
+      </c>
+      <c r="R76" s="10">
         <v>18</v>
       </c>
-      <c r="S76" s="17">
+      <c r="S76" s="6">
         <v>900074</v>
       </c>
-      <c r="T76" s="17"/>
+      <c r="T76" s="6"/>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="16">
+      <c r="B77" s="5">
         <v>72</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="6">
         <v>120072</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="6">
         <v>3</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="6">
         <v>3</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77" s="7">
         <v>18</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="6">
         <v>200</v>
       </c>
-      <c r="J77" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K77" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L77" s="20">
+      <c r="J77" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K77" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L77" s="9">
         <v>300006</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="9">
         <v>300063</v>
       </c>
-      <c r="N77" s="20">
-        <v>0</v>
-      </c>
-      <c r="O77" s="17">
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
         <v>330006</v>
       </c>
-      <c r="P77" s="17">
+      <c r="P77" s="6">
         <v>330015</v>
       </c>
-      <c r="Q77" s="17">
-        <v>0</v>
-      </c>
-      <c r="R77" s="21">
+      <c r="Q77" s="6">
+        <v>0</v>
+      </c>
+      <c r="R77" s="10">
         <v>30</v>
       </c>
-      <c r="S77" s="17">
+      <c r="S77" s="6">
         <v>900075</v>
       </c>
-      <c r="T77" s="17"/>
+      <c r="T77" s="6"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="16">
+      <c r="B78" s="5">
         <v>73</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="6">
         <v>120073</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="6">
         <v>1</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="6">
         <v>3</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="7">
         <v>19</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="6">
         <v>200</v>
       </c>
-      <c r="J78" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K78" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L78" s="20">
+      <c r="J78" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K78" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L78" s="9">
         <v>300006</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="9">
         <v>300106</v>
       </c>
-      <c r="N78" s="20">
-        <v>0</v>
-      </c>
-      <c r="O78" s="17">
+      <c r="N78" s="9">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
         <v>330007</v>
       </c>
-      <c r="P78" s="17">
+      <c r="P78" s="6">
         <v>330014</v>
       </c>
-      <c r="Q78" s="17">
-        <v>0</v>
-      </c>
-      <c r="R78" s="21">
+      <c r="Q78" s="6">
+        <v>0</v>
+      </c>
+      <c r="R78" s="10">
         <v>6</v>
       </c>
-      <c r="S78" s="17">
+      <c r="S78" s="6">
         <v>900076</v>
       </c>
-      <c r="T78" s="17"/>
+      <c r="T78" s="6"/>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="16">
+      <c r="B79" s="5">
         <v>74</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="6">
         <v>120074</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="6">
         <v>2</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="6">
         <v>3</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79" s="7">
         <v>20</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="6">
         <v>200</v>
       </c>
-      <c r="J79" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K79" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L79" s="20">
+      <c r="J79" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K79" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L79" s="9">
         <v>300006</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79" s="9">
         <v>300109</v>
       </c>
-      <c r="N79" s="20">
-        <v>0</v>
-      </c>
-      <c r="O79" s="17">
+      <c r="N79" s="9">
+        <v>0</v>
+      </c>
+      <c r="O79" s="6">
         <v>330007</v>
       </c>
-      <c r="P79" s="17">
+      <c r="P79" s="6">
         <v>330011</v>
       </c>
-      <c r="Q79" s="17">
-        <v>0</v>
-      </c>
-      <c r="R79" s="21">
+      <c r="Q79" s="6">
+        <v>0</v>
+      </c>
+      <c r="R79" s="10">
         <v>18</v>
       </c>
-      <c r="S79" s="17">
+      <c r="S79" s="6">
         <v>900077</v>
       </c>
-      <c r="T79" s="17"/>
+      <c r="T79" s="6"/>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="16">
+      <c r="B80" s="5">
         <v>75</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="6">
         <v>120075</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="6">
         <v>3</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="6">
         <v>3</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80" s="7">
         <v>21</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="6">
         <v>200</v>
       </c>
-      <c r="J80" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K80" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L80" s="20">
+      <c r="J80" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K80" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L80" s="9">
         <v>300006</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="9">
         <v>300112</v>
       </c>
-      <c r="N80" s="20">
-        <v>0</v>
-      </c>
-      <c r="O80" s="17">
+      <c r="N80" s="9">
+        <v>0</v>
+      </c>
+      <c r="O80" s="6">
         <v>330007</v>
       </c>
-      <c r="P80" s="17">
+      <c r="P80" s="6">
         <v>330013</v>
       </c>
-      <c r="Q80" s="17">
-        <v>0</v>
-      </c>
-      <c r="R80" s="21">
+      <c r="Q80" s="6">
+        <v>0</v>
+      </c>
+      <c r="R80" s="10">
         <v>30</v>
       </c>
-      <c r="S80" s="17">
+      <c r="S80" s="6">
         <v>900078</v>
       </c>
-      <c r="T80" s="20"/>
+      <c r="T80" s="9"/>
     </row>
     <row r="81" spans="2:20">
-      <c r="B81" s="16">
+      <c r="B81" s="5">
         <v>76</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="6">
         <v>120076</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="6">
         <v>2</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="6">
         <v>3</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81" s="7">
         <v>22</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="6">
         <v>200</v>
       </c>
-      <c r="J81" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K81" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L81" s="20">
+      <c r="J81" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K81" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L81" s="9">
         <v>300017</v>
       </c>
-      <c r="M81" s="20">
+      <c r="M81" s="9">
         <v>300115</v>
       </c>
-      <c r="N81" s="20">
-        <v>0</v>
-      </c>
-      <c r="O81" s="17">
+      <c r="N81" s="9">
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
         <v>330008</v>
       </c>
-      <c r="P81" s="17">
+      <c r="P81" s="6">
         <v>330015</v>
       </c>
-      <c r="Q81" s="17">
-        <v>0</v>
-      </c>
-      <c r="R81" s="21">
+      <c r="Q81" s="6">
+        <v>0</v>
+      </c>
+      <c r="R81" s="10">
         <v>18</v>
       </c>
-      <c r="S81" s="17">
+      <c r="S81" s="6">
         <v>900079</v>
       </c>
-      <c r="T81" s="17"/>
+      <c r="T81" s="6"/>
     </row>
     <row r="82" spans="2:20">
-      <c r="B82" s="16">
+      <c r="B82" s="5">
         <v>77</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="6">
         <v>120077</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="6">
         <v>3</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="6">
         <v>3</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="7">
         <v>23</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="6">
         <v>200</v>
       </c>
-      <c r="J82" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K82" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L82" s="20">
+      <c r="J82" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K82" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L82" s="9">
         <v>300021</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M82" s="9">
         <v>300146</v>
       </c>
-      <c r="N82" s="20">
-        <v>0</v>
-      </c>
-      <c r="O82" s="17">
+      <c r="N82" s="9">
+        <v>0</v>
+      </c>
+      <c r="O82" s="6">
         <v>330008</v>
       </c>
-      <c r="P82" s="17">
+      <c r="P82" s="6">
         <v>330012</v>
       </c>
-      <c r="Q82" s="17">
-        <v>0</v>
-      </c>
-      <c r="R82" s="21">
+      <c r="Q82" s="6">
+        <v>0</v>
+      </c>
+      <c r="R82" s="10">
         <v>30</v>
       </c>
-      <c r="S82" s="17">
+      <c r="S82" s="6">
         <v>900080</v>
       </c>
-      <c r="T82" s="17"/>
+      <c r="T82" s="6"/>
     </row>
     <row r="83" spans="2:20">
-      <c r="B83" s="16">
+      <c r="B83" s="5">
         <v>78</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="6">
         <v>120078</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="6">
         <v>4</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G83" s="6">
         <v>3</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83" s="7">
         <v>24</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="6">
         <v>200</v>
       </c>
-      <c r="J83" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K83" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L83" s="20">
+      <c r="J83" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K83" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L83" s="9">
         <v>300021</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M83" s="9">
         <v>300118</v>
       </c>
-      <c r="N83" s="20">
-        <v>0</v>
-      </c>
-      <c r="O83" s="17">
+      <c r="N83" s="9">
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
         <v>330008</v>
       </c>
-      <c r="P83" s="17">
+      <c r="P83" s="6">
         <v>330012</v>
       </c>
-      <c r="Q83" s="17">
-        <v>0</v>
-      </c>
-      <c r="R83" s="21">
+      <c r="Q83" s="6">
+        <v>0</v>
+      </c>
+      <c r="R83" s="10">
         <v>42</v>
       </c>
-      <c r="S83" s="17">
+      <c r="S83" s="6">
         <v>900081</v>
       </c>
-      <c r="T83" s="17"/>
+      <c r="T83" s="6"/>
     </row>
     <row r="84" spans="2:20">
-      <c r="B84" s="16">
+      <c r="B84" s="5">
         <v>79</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="6">
         <v>120079</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="6">
         <v>5</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="6">
         <v>3</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="7">
         <v>25</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="6">
         <v>200</v>
       </c>
-      <c r="J84" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K84" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L84" s="20">
+      <c r="J84" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K84" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L84" s="9">
         <v>300023</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M84" s="9">
         <v>300121</v>
       </c>
-      <c r="N84" s="20">
-        <v>0</v>
-      </c>
-      <c r="O84" s="17">
+      <c r="N84" s="9">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
         <v>330009</v>
       </c>
-      <c r="P84" s="17">
+      <c r="P84" s="6">
         <v>330017</v>
       </c>
-      <c r="Q84" s="17">
-        <v>0</v>
-      </c>
-      <c r="R84" s="21">
+      <c r="Q84" s="6">
+        <v>0</v>
+      </c>
+      <c r="R84" s="10">
         <v>60</v>
       </c>
-      <c r="S84" s="17">
+      <c r="S84" s="6">
         <v>900082</v>
       </c>
-      <c r="T84" s="17"/>
+      <c r="T84" s="6"/>
     </row>
     <row r="85" spans="2:20">
-      <c r="B85" s="16">
+      <c r="B85" s="5">
         <v>80</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="6">
         <v>120080</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="6">
         <v>1</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="6">
         <v>3</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85" s="7">
         <v>26</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="6">
         <v>200</v>
       </c>
-      <c r="J85" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K85" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L85" s="20">
+      <c r="J85" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K85" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L85" s="9">
         <v>300013</v>
       </c>
-      <c r="M85" s="20">
+      <c r="M85" s="9">
         <v>300124</v>
       </c>
-      <c r="N85" s="20">
-        <v>0</v>
-      </c>
-      <c r="O85" s="17">
+      <c r="N85" s="9">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
         <v>330010</v>
       </c>
-      <c r="P85" s="17">
+      <c r="P85" s="6">
         <v>330012</v>
       </c>
-      <c r="Q85" s="17">
-        <v>0</v>
-      </c>
-      <c r="R85" s="21">
+      <c r="Q85" s="6">
+        <v>0</v>
+      </c>
+      <c r="R85" s="10">
         <v>6</v>
       </c>
-      <c r="S85" s="22">
+      <c r="S85" s="11">
         <v>900083</v>
       </c>
-      <c r="T85" s="17"/>
+      <c r="T85" s="6"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="16">
+      <c r="B86" s="5">
         <v>81</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="6">
         <v>120081</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="6">
         <v>4</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="6">
         <v>3</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="7">
         <v>27</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="6">
         <v>200</v>
       </c>
-      <c r="J86" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K86" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L86" s="20">
+      <c r="J86" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K86" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L86" s="9">
         <v>300021</v>
       </c>
-      <c r="M86" s="20">
+      <c r="M86" s="9">
         <v>300135</v>
       </c>
-      <c r="N86" s="20">
-        <v>0</v>
-      </c>
-      <c r="O86" s="17">
+      <c r="N86" s="9">
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
         <v>330010</v>
       </c>
-      <c r="P86" s="17">
+      <c r="P86" s="6">
         <v>330014</v>
       </c>
-      <c r="Q86" s="17">
-        <v>0</v>
-      </c>
-      <c r="R86" s="21">
+      <c r="Q86" s="6">
+        <v>0</v>
+      </c>
+      <c r="R86" s="10">
         <v>42</v>
       </c>
-      <c r="S86" s="22">
+      <c r="S86" s="11">
         <v>900084</v>
       </c>
-      <c r="T86" s="17"/>
+      <c r="T86" s="6"/>
     </row>
     <row r="87" spans="2:20">
-      <c r="B87" s="16"/>
+      <c r="B87" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="H2:H3"/>
@@ -6409,12 +6415,6 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6424,7 +6424,7 @@
     <brk id="86" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="1048575" man="1"/>
+    <brk id="2" max="1048575" man="1"/>
     <brk id="19" max="85" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC25C5-7423-4358-9B9B-16A3E7612A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD7F03D-DE18-4434-9DFC-0D0A9DD43218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{720C7A76-4375-4BEA-88FB-1922E503FC52}">
+    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{720C7A76-4375-4BEA-88FB-1922E503FC52}">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
   <si>
     <t>번호</t>
   </si>
@@ -874,13 +874,23 @@
     <t>DarkElf04</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>애니메이션
+공격 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk_Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1020,7 +1030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1158,13 +1168,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +1257,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}">
-  <dimension ref="B2:T87"/>
+  <dimension ref="B2:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1571,11 +1602,11 @@
     <col min="15" max="16" width="7.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.125" customWidth="1"/>
+    <col min="20" max="20" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:21">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1617,14 +1648,17 @@
       <c r="R2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:21">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1659,9 +1693,10 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="13"/>
-      <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="T3" s="13"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1714,13 +1749,16 @@
         <v>38</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:21">
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
@@ -1773,13 +1811,16 @@
         <v>44</v>
       </c>
       <c r="S5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:21">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1831,12 +1872,15 @@
       <c r="R6" s="10">
         <v>3</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T6" s="6">
         <v>900004</v>
       </c>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1888,12 +1932,15 @@
       <c r="R7" s="10">
         <v>3</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="6">
         <v>900005</v>
       </c>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -1945,12 +1992,15 @@
       <c r="R8" s="10">
         <v>7</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T8" s="6">
         <v>900006</v>
       </c>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -2002,12 +2052,15 @@
       <c r="R9" s="10">
         <v>1</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T9" s="6">
         <v>900007</v>
       </c>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -2059,12 +2112,15 @@
       <c r="R10" s="10">
         <v>1</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T10" s="6">
         <v>900008</v>
       </c>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -2116,12 +2172,15 @@
       <c r="R11" s="10">
         <v>7</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T11" s="6">
         <v>900009</v>
       </c>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="5">
         <v>7</v>
       </c>
@@ -2173,12 +2232,15 @@
       <c r="R12" s="10">
         <v>1</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="6">
         <v>900010</v>
       </c>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -2230,12 +2292,15 @@
       <c r="R13" s="10">
         <v>5</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T13" s="6">
         <v>900011</v>
       </c>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -2287,12 +2352,15 @@
       <c r="R14" s="10">
         <v>5</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="6">
         <v>900012</v>
       </c>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -2344,12 +2412,15 @@
       <c r="R15" s="10">
         <v>1</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T15" s="6">
         <v>900013</v>
       </c>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="5">
         <v>11</v>
       </c>
@@ -2401,12 +2472,15 @@
       <c r="R16" s="10">
         <v>7</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T16" s="6">
         <v>900014</v>
       </c>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -2458,12 +2532,15 @@
       <c r="R17" s="10">
         <v>3</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T17" s="6">
         <v>900015</v>
       </c>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -2515,12 +2592,15 @@
       <c r="R18" s="10">
         <v>3</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T18" s="6">
         <v>900016</v>
       </c>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -2572,12 +2652,15 @@
       <c r="R19" s="10">
         <v>1</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T19" s="6">
         <v>900017</v>
       </c>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -2629,12 +2712,15 @@
       <c r="R20" s="10">
         <v>10</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T20" s="6">
         <v>900018</v>
       </c>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -2686,12 +2772,15 @@
       <c r="R21" s="10">
         <v>5</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T21" s="6">
         <v>900019</v>
       </c>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -2743,12 +2832,15 @@
       <c r="R22" s="10">
         <v>3</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T22" s="6">
         <v>900020</v>
       </c>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -2800,12 +2892,15 @@
       <c r="R23" s="10">
         <v>5</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T23" s="6">
         <v>900021</v>
       </c>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -2857,12 +2952,15 @@
       <c r="R24" s="10">
         <v>1</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T24" s="6">
         <v>900022</v>
       </c>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -2914,12 +3012,15 @@
       <c r="R25" s="10">
         <v>3</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T25" s="6">
         <v>900023</v>
       </c>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -2971,12 +3072,15 @@
       <c r="R26" s="10">
         <v>5</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T26" s="6">
         <v>900024</v>
       </c>
-      <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -3028,12 +3132,15 @@
       <c r="R27" s="10">
         <v>3</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T27" s="6">
         <v>900025</v>
       </c>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="5">
         <v>23</v>
       </c>
@@ -3085,12 +3192,15 @@
       <c r="R28" s="10">
         <v>5</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T28" s="6">
         <v>900026</v>
       </c>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -3142,12 +3252,15 @@
       <c r="R29" s="10">
         <v>7</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T29" s="6">
         <v>900027</v>
       </c>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30" s="5">
         <v>25</v>
       </c>
@@ -3199,12 +3312,15 @@
       <c r="R30" s="10">
         <v>10</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T30" s="6">
         <v>900028</v>
       </c>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="2:21">
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -3256,12 +3372,15 @@
       <c r="R31" s="10">
         <v>1</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T31" s="6">
         <v>900029</v>
       </c>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="2:21">
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -3313,12 +3432,15 @@
       <c r="R32" s="10">
         <v>7</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T32" s="6">
         <v>900030</v>
       </c>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -3370,12 +3492,15 @@
       <c r="R33" s="10">
         <v>6</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T33" s="6">
         <v>900031</v>
       </c>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -3427,12 +3552,15 @@
       <c r="R34" s="10">
         <v>6</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T34" s="6">
         <v>900032</v>
       </c>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="5">
         <v>30</v>
       </c>
@@ -3484,12 +3612,15 @@
       <c r="R35" s="10">
         <v>14</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T35" s="6">
         <v>900033</v>
       </c>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36" s="5">
         <v>31</v>
       </c>
@@ -3541,12 +3672,15 @@
       <c r="R36" s="10">
         <v>2</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T36" s="6">
         <v>900034</v>
       </c>
-      <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="5">
         <v>32</v>
       </c>
@@ -3598,12 +3732,15 @@
       <c r="R37" s="10">
         <v>2</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T37" s="6">
         <v>900035</v>
       </c>
-      <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="2:21">
       <c r="B38" s="5">
         <v>33</v>
       </c>
@@ -3655,12 +3792,15 @@
       <c r="R38" s="10">
         <v>14</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T38" s="6">
         <v>900036</v>
       </c>
-      <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39" s="5">
         <v>34</v>
       </c>
@@ -3712,12 +3852,15 @@
       <c r="R39" s="10">
         <v>2</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T39" s="6">
         <v>900037</v>
       </c>
-      <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="2:21">
       <c r="B40" s="5">
         <v>35</v>
       </c>
@@ -3769,12 +3912,15 @@
       <c r="R40" s="10">
         <v>10</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T40" s="6">
         <v>900038</v>
       </c>
-      <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="2:21">
       <c r="B41" s="5">
         <v>36</v>
       </c>
@@ -3826,12 +3972,15 @@
       <c r="R41" s="10">
         <v>10</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T41" s="6">
         <v>900039</v>
       </c>
-      <c r="T41" s="6"/>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="2:21">
       <c r="B42" s="5">
         <v>37</v>
       </c>
@@ -3883,12 +4032,15 @@
       <c r="R42" s="10">
         <v>2</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T42" s="6">
         <v>900040</v>
       </c>
-      <c r="T42" s="6"/>
-    </row>
-    <row r="43" spans="2:20">
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="2:21">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -3940,12 +4092,15 @@
       <c r="R43" s="10">
         <v>14</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T43" s="6">
         <v>900041</v>
       </c>
-      <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="2:21">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -3997,12 +4152,15 @@
       <c r="R44" s="10">
         <v>6</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T44" s="6">
         <v>900042</v>
       </c>
-      <c r="T44" s="9"/>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="2:21">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -4054,12 +4212,15 @@
       <c r="R45" s="10">
         <v>6</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T45" s="6">
         <v>900043</v>
       </c>
-      <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="2:21">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -4111,12 +4272,15 @@
       <c r="R46" s="10">
         <v>2</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T46" s="6">
         <v>900044</v>
       </c>
-      <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="2:20">
+      <c r="U46" s="6"/>
+    </row>
+    <row r="47" spans="2:21">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -4168,12 +4332,15 @@
       <c r="R47" s="10">
         <v>20</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T47" s="6">
         <v>900045</v>
       </c>
-      <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="2:20">
+      <c r="U47" s="6"/>
+    </row>
+    <row r="48" spans="2:21">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -4225,12 +4392,15 @@
       <c r="R48" s="10">
         <v>10</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T48" s="6">
         <v>900046</v>
       </c>
-      <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="2:20">
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="2:21">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -4282,12 +4452,15 @@
       <c r="R49" s="10">
         <v>6</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T49" s="6">
         <v>900047</v>
       </c>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="2:20">
+      <c r="U49" s="6"/>
+    </row>
+    <row r="50" spans="2:21">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -4339,12 +4512,15 @@
       <c r="R50" s="10">
         <v>10</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T50" s="6">
         <v>900048</v>
       </c>
-      <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="2:20">
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="2:21">
       <c r="B51" s="5">
         <v>46</v>
       </c>
@@ -4396,12 +4572,15 @@
       <c r="R51" s="10">
         <v>2</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T51" s="6">
         <v>900049</v>
       </c>
-      <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="2:20">
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="2:21">
       <c r="B52" s="5">
         <v>47</v>
       </c>
@@ -4453,12 +4632,15 @@
       <c r="R52" s="10">
         <v>6</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T52" s="6">
         <v>900050</v>
       </c>
-      <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="2:20">
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="2:21">
       <c r="B53" s="5">
         <v>48</v>
       </c>
@@ -4510,12 +4692,15 @@
       <c r="R53" s="10">
         <v>10</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T53" s="6">
         <v>900051</v>
       </c>
-      <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="2:20">
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="2:21">
       <c r="B54" s="5">
         <v>49</v>
       </c>
@@ -4567,12 +4752,15 @@
       <c r="R54" s="10">
         <v>6</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T54" s="6">
         <v>900052</v>
       </c>
-      <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="2:20">
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="2:21">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -4624,12 +4812,15 @@
       <c r="R55" s="10">
         <v>10</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T55" s="6">
         <v>900053</v>
       </c>
-      <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="2:20">
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="2:21">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -4681,12 +4872,15 @@
       <c r="R56" s="10">
         <v>14</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T56" s="6">
         <v>900054</v>
       </c>
-      <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="2:20">
+      <c r="U56" s="6"/>
+    </row>
+    <row r="57" spans="2:21">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -4738,12 +4932,15 @@
       <c r="R57" s="10">
         <v>20</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T57" s="6">
         <v>900055</v>
       </c>
-      <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="2:20">
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="2:21">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -4795,12 +4992,15 @@
       <c r="R58" s="10">
         <v>2</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T58" s="6">
         <v>900056</v>
       </c>
-      <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="2:20">
+      <c r="U58" s="6"/>
+    </row>
+    <row r="59" spans="2:21">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -4852,12 +5052,15 @@
       <c r="R59" s="10">
         <v>14</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S59" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T59" s="6">
         <v>900057</v>
       </c>
-      <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="U59" s="6"/>
+    </row>
+    <row r="60" spans="2:21">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -4909,12 +5112,15 @@
       <c r="R60" s="10">
         <v>18</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T60" s="6">
         <v>900058</v>
       </c>
-      <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="2:20">
+      <c r="U60" s="6"/>
+    </row>
+    <row r="61" spans="2:21">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -4966,12 +5172,15 @@
       <c r="R61" s="10">
         <v>18</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T61" s="6">
         <v>900059</v>
       </c>
-      <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="2:20">
+      <c r="U61" s="6"/>
+    </row>
+    <row r="62" spans="2:21">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -5023,12 +5232,15 @@
       <c r="R62" s="10">
         <v>42</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T62" s="6">
         <v>900060</v>
       </c>
-      <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="2:20">
+      <c r="U62" s="6"/>
+    </row>
+    <row r="63" spans="2:21">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -5080,12 +5292,15 @@
       <c r="R63" s="10">
         <v>6</v>
       </c>
-      <c r="S63" s="6">
+      <c r="S63" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T63" s="6">
         <v>900061</v>
       </c>
-      <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="2:20">
+      <c r="U63" s="6"/>
+    </row>
+    <row r="64" spans="2:21">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -5137,12 +5352,15 @@
       <c r="R64" s="10">
         <v>6</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S64" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T64" s="6">
         <v>900062</v>
       </c>
-      <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="2:20">
+      <c r="U64" s="6"/>
+    </row>
+    <row r="65" spans="2:21">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -5194,12 +5412,15 @@
       <c r="R65" s="10">
         <v>42</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S65" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T65" s="6">
         <v>900063</v>
       </c>
-      <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="2:20">
+      <c r="U65" s="6"/>
+    </row>
+    <row r="66" spans="2:21">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -5251,12 +5472,15 @@
       <c r="R66" s="10">
         <v>6</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T66" s="6">
         <v>900064</v>
       </c>
-      <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="2:20">
+      <c r="U66" s="6"/>
+    </row>
+    <row r="67" spans="2:21">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -5308,12 +5532,15 @@
       <c r="R67" s="10">
         <v>30</v>
       </c>
-      <c r="S67" s="6">
+      <c r="S67" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T67" s="6">
         <v>900065</v>
       </c>
-      <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="2:20">
+      <c r="U67" s="6"/>
+    </row>
+    <row r="68" spans="2:21">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -5365,12 +5592,15 @@
       <c r="R68" s="10">
         <v>30</v>
       </c>
-      <c r="S68" s="6">
+      <c r="S68" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T68" s="6">
         <v>900066</v>
       </c>
-      <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="2:20">
+      <c r="U68" s="6"/>
+    </row>
+    <row r="69" spans="2:21">
       <c r="B69" s="5">
         <v>64</v>
       </c>
@@ -5422,12 +5652,15 @@
       <c r="R69" s="10">
         <v>6</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S69" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T69" s="6">
         <v>900067</v>
       </c>
-      <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="2:20">
+      <c r="U69" s="6"/>
+    </row>
+    <row r="70" spans="2:21">
       <c r="B70" s="5">
         <v>65</v>
       </c>
@@ -5479,12 +5712,15 @@
       <c r="R70" s="10">
         <v>42</v>
       </c>
-      <c r="S70" s="6">
+      <c r="S70" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T70" s="6">
         <v>900068</v>
       </c>
-      <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="2:20">
+      <c r="U70" s="6"/>
+    </row>
+    <row r="71" spans="2:21">
       <c r="B71" s="5">
         <v>66</v>
       </c>
@@ -5536,12 +5772,15 @@
       <c r="R71" s="10">
         <v>18</v>
       </c>
-      <c r="S71" s="6">
+      <c r="S71" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T71" s="6">
         <v>900069</v>
       </c>
-      <c r="T71" s="6"/>
-    </row>
-    <row r="72" spans="2:20">
+      <c r="U71" s="6"/>
+    </row>
+    <row r="72" spans="2:21">
       <c r="B72" s="5">
         <v>67</v>
       </c>
@@ -5593,12 +5832,15 @@
       <c r="R72" s="10">
         <v>18</v>
       </c>
-      <c r="S72" s="6">
+      <c r="S72" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T72" s="6">
         <v>900070</v>
       </c>
-      <c r="T72" s="6"/>
-    </row>
-    <row r="73" spans="2:20">
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" spans="2:21">
       <c r="B73" s="5">
         <v>68</v>
       </c>
@@ -5650,12 +5892,15 @@
       <c r="R73" s="10">
         <v>6</v>
       </c>
-      <c r="S73" s="6">
+      <c r="S73" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T73" s="6">
         <v>900071</v>
       </c>
-      <c r="T73" s="6"/>
-    </row>
-    <row r="74" spans="2:20">
+      <c r="U73" s="6"/>
+    </row>
+    <row r="74" spans="2:21">
       <c r="B74" s="5">
         <v>69</v>
       </c>
@@ -5707,12 +5952,15 @@
       <c r="R74" s="10">
         <v>60</v>
       </c>
-      <c r="S74" s="6">
+      <c r="S74" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T74" s="6">
         <v>900072</v>
       </c>
-      <c r="T74" s="6"/>
-    </row>
-    <row r="75" spans="2:20">
+      <c r="U74" s="6"/>
+    </row>
+    <row r="75" spans="2:21">
       <c r="B75" s="5">
         <v>70</v>
       </c>
@@ -5764,12 +6012,15 @@
       <c r="R75" s="10">
         <v>30</v>
       </c>
-      <c r="S75" s="6">
+      <c r="S75" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T75" s="6">
         <v>900073</v>
       </c>
-      <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="2:20">
+      <c r="U75" s="6"/>
+    </row>
+    <row r="76" spans="2:21">
       <c r="B76" s="5">
         <v>71</v>
       </c>
@@ -5821,12 +6072,15 @@
       <c r="R76" s="10">
         <v>18</v>
       </c>
-      <c r="S76" s="6">
+      <c r="S76" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T76" s="6">
         <v>900074</v>
       </c>
-      <c r="T76" s="6"/>
-    </row>
-    <row r="77" spans="2:20">
+      <c r="U76" s="6"/>
+    </row>
+    <row r="77" spans="2:21">
       <c r="B77" s="5">
         <v>72</v>
       </c>
@@ -5878,12 +6132,15 @@
       <c r="R77" s="10">
         <v>30</v>
       </c>
-      <c r="S77" s="6">
+      <c r="S77" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T77" s="6">
         <v>900075</v>
       </c>
-      <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="2:20">
+      <c r="U77" s="6"/>
+    </row>
+    <row r="78" spans="2:21">
       <c r="B78" s="5">
         <v>73</v>
       </c>
@@ -5935,12 +6192,15 @@
       <c r="R78" s="10">
         <v>6</v>
       </c>
-      <c r="S78" s="6">
+      <c r="S78" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T78" s="6">
         <v>900076</v>
       </c>
-      <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="2:20">
+      <c r="U78" s="6"/>
+    </row>
+    <row r="79" spans="2:21">
       <c r="B79" s="5">
         <v>74</v>
       </c>
@@ -5992,12 +6252,15 @@
       <c r="R79" s="10">
         <v>18</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S79" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T79" s="6">
         <v>900077</v>
       </c>
-      <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="2:20">
+      <c r="U79" s="6"/>
+    </row>
+    <row r="80" spans="2:21">
       <c r="B80" s="5">
         <v>75</v>
       </c>
@@ -6049,12 +6312,15 @@
       <c r="R80" s="10">
         <v>30</v>
       </c>
-      <c r="S80" s="6">
+      <c r="S80" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T80" s="6">
         <v>900078</v>
       </c>
-      <c r="T80" s="9"/>
-    </row>
-    <row r="81" spans="2:20">
+      <c r="U80" s="9"/>
+    </row>
+    <row r="81" spans="2:21">
       <c r="B81" s="5">
         <v>76</v>
       </c>
@@ -6106,12 +6372,15 @@
       <c r="R81" s="10">
         <v>18</v>
       </c>
-      <c r="S81" s="6">
+      <c r="S81" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T81" s="6">
         <v>900079</v>
       </c>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="2:20">
+      <c r="U81" s="6"/>
+    </row>
+    <row r="82" spans="2:21">
       <c r="B82" s="5">
         <v>77</v>
       </c>
@@ -6163,12 +6432,15 @@
       <c r="R82" s="10">
         <v>30</v>
       </c>
-      <c r="S82" s="6">
+      <c r="S82" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T82" s="6">
         <v>900080</v>
       </c>
-      <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="2:20">
+      <c r="U82" s="6"/>
+    </row>
+    <row r="83" spans="2:21">
       <c r="B83" s="5">
         <v>78</v>
       </c>
@@ -6220,12 +6492,15 @@
       <c r="R83" s="10">
         <v>42</v>
       </c>
-      <c r="S83" s="6">
+      <c r="S83" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T83" s="6">
         <v>900081</v>
       </c>
-      <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="2:20">
+      <c r="U83" s="6"/>
+    </row>
+    <row r="84" spans="2:21">
       <c r="B84" s="5">
         <v>79</v>
       </c>
@@ -6277,12 +6552,15 @@
       <c r="R84" s="10">
         <v>60</v>
       </c>
-      <c r="S84" s="6">
+      <c r="S84" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T84" s="6">
         <v>900082</v>
       </c>
-      <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="2:20">
+      <c r="U84" s="6"/>
+    </row>
+    <row r="85" spans="2:21">
       <c r="B85" s="5">
         <v>80</v>
       </c>
@@ -6334,12 +6612,15 @@
       <c r="R85" s="10">
         <v>6</v>
       </c>
-      <c r="S85" s="11">
+      <c r="S85" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T85" s="11">
         <v>900083</v>
       </c>
-      <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="2:20">
+      <c r="U85" s="6"/>
+    </row>
+    <row r="86" spans="2:21">
       <c r="B86" s="5">
         <v>81</v>
       </c>
@@ -6391,30 +6672,34 @@
       <c r="R86" s="10">
         <v>42</v>
       </c>
-      <c r="S86" s="11">
+      <c r="S86" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="T86" s="11">
         <v>900084</v>
       </c>
-      <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="2:20">
+      <c r="U86" s="6"/>
+    </row>
+    <row r="87" spans="2:21">
       <c r="B87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6425,7 +6710,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>
-    <brk id="19" max="85" man="1"/>
+    <brk id="20" max="85" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD7F03D-DE18-4434-9DFC-0D0A9DD43218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD7CD8-F675-4C3C-9B11-8BACB073D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
@@ -1226,6 +1226,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,9 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,90 +1582,90 @@
   <dimension ref="B2:U87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.125" customWidth="1"/>
+    <col min="18" max="18" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="12" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1690,11 +1690,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="3" t="s">
@@ -1867,12 +1867,12 @@
         <v>330011</v>
       </c>
       <c r="Q6" s="6">
-        <v>100031</v>
+        <v>120028</v>
       </c>
       <c r="R6" s="10">
         <v>3</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="12">
         <v>1.5</v>
       </c>
       <c r="T6" s="6">
@@ -1927,12 +1927,12 @@
         <v>330013</v>
       </c>
       <c r="Q7" s="6">
-        <v>100032</v>
+        <v>120029</v>
       </c>
       <c r="R7" s="10">
         <v>3</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="12">
         <v>1.5</v>
       </c>
       <c r="T7" s="6">
@@ -1987,12 +1987,12 @@
         <v>330013</v>
       </c>
       <c r="Q8" s="6">
-        <v>100033</v>
+        <v>120030</v>
       </c>
       <c r="R8" s="10">
         <v>7</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="12">
         <v>1.5</v>
       </c>
       <c r="T8" s="6">
@@ -2047,12 +2047,12 @@
         <v>330011</v>
       </c>
       <c r="Q9" s="6">
-        <v>100034</v>
+        <v>120031</v>
       </c>
       <c r="R9" s="10">
         <v>1</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="12">
         <v>1.5</v>
       </c>
       <c r="T9" s="6">
@@ -2107,12 +2107,12 @@
         <v>330013</v>
       </c>
       <c r="Q10" s="6">
-        <v>100035</v>
+        <v>120032</v>
       </c>
       <c r="R10" s="10">
         <v>1</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="12">
         <v>1.5</v>
       </c>
       <c r="T10" s="6">
@@ -2167,12 +2167,12 @@
         <v>330015</v>
       </c>
       <c r="Q11" s="6">
-        <v>100036</v>
+        <v>120033</v>
       </c>
       <c r="R11" s="10">
         <v>7</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="12">
         <v>1.5</v>
       </c>
       <c r="T11" s="6">
@@ -2227,12 +2227,12 @@
         <v>330015</v>
       </c>
       <c r="Q12" s="6">
-        <v>100037</v>
+        <v>120034</v>
       </c>
       <c r="R12" s="10">
         <v>1</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="12">
         <v>1.5</v>
       </c>
       <c r="T12" s="6">
@@ -2287,12 +2287,12 @@
         <v>330011</v>
       </c>
       <c r="Q13" s="6">
-        <v>100038</v>
+        <v>120035</v>
       </c>
       <c r="R13" s="10">
         <v>5</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="12">
         <v>1.5</v>
       </c>
       <c r="T13" s="6">
@@ -2347,12 +2347,12 @@
         <v>330016</v>
       </c>
       <c r="Q14" s="6">
-        <v>100039</v>
+        <v>120036</v>
       </c>
       <c r="R14" s="10">
         <v>5</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="12">
         <v>1.5</v>
       </c>
       <c r="T14" s="6">
@@ -2407,12 +2407,12 @@
         <v>330011</v>
       </c>
       <c r="Q15" s="6">
-        <v>100040</v>
+        <v>120037</v>
       </c>
       <c r="R15" s="10">
         <v>1</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="12">
         <v>1.5</v>
       </c>
       <c r="T15" s="6">
@@ -2467,12 +2467,12 @@
         <v>330016</v>
       </c>
       <c r="Q16" s="6">
-        <v>100041</v>
+        <v>120038</v>
       </c>
       <c r="R16" s="10">
         <v>7</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="12">
         <v>1.5</v>
       </c>
       <c r="T16" s="6">
@@ -2527,12 +2527,12 @@
         <v>330013</v>
       </c>
       <c r="Q17" s="6">
-        <v>100042</v>
+        <v>120039</v>
       </c>
       <c r="R17" s="10">
         <v>3</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="12">
         <v>1.5</v>
       </c>
       <c r="T17" s="6">
@@ -2587,12 +2587,12 @@
         <v>330012</v>
       </c>
       <c r="Q18" s="6">
-        <v>100043</v>
+        <v>120040</v>
       </c>
       <c r="R18" s="10">
         <v>3</v>
       </c>
-      <c r="S18" s="24">
+      <c r="S18" s="12">
         <v>1.5</v>
       </c>
       <c r="T18" s="6">
@@ -2647,12 +2647,12 @@
         <v>330014</v>
       </c>
       <c r="Q19" s="6">
-        <v>100044</v>
+        <v>120041</v>
       </c>
       <c r="R19" s="10">
         <v>1</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="12">
         <v>1.5</v>
       </c>
       <c r="T19" s="6">
@@ -2707,12 +2707,12 @@
         <v>330017</v>
       </c>
       <c r="Q20" s="6">
-        <v>100045</v>
+        <v>120042</v>
       </c>
       <c r="R20" s="10">
         <v>10</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="12">
         <v>1.5</v>
       </c>
       <c r="T20" s="6">
@@ -2767,12 +2767,12 @@
         <v>330014</v>
       </c>
       <c r="Q21" s="6">
-        <v>100046</v>
+        <v>120043</v>
       </c>
       <c r="R21" s="10">
         <v>5</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="12">
         <v>1.5</v>
       </c>
       <c r="T21" s="6">
@@ -2827,12 +2827,12 @@
         <v>330016</v>
       </c>
       <c r="Q22" s="6">
-        <v>100047</v>
+        <v>120044</v>
       </c>
       <c r="R22" s="10">
         <v>3</v>
       </c>
-      <c r="S22" s="24">
+      <c r="S22" s="12">
         <v>1.5</v>
       </c>
       <c r="T22" s="6">
@@ -2887,12 +2887,12 @@
         <v>330015</v>
       </c>
       <c r="Q23" s="6">
-        <v>100048</v>
+        <v>120045</v>
       </c>
       <c r="R23" s="10">
         <v>5</v>
       </c>
-      <c r="S23" s="24">
+      <c r="S23" s="12">
         <v>1.5</v>
       </c>
       <c r="T23" s="6">
@@ -2947,12 +2947,12 @@
         <v>330014</v>
       </c>
       <c r="Q24" s="6">
-        <v>100049</v>
+        <v>120046</v>
       </c>
       <c r="R24" s="10">
         <v>1</v>
       </c>
-      <c r="S24" s="24">
+      <c r="S24" s="12">
         <v>1.5</v>
       </c>
       <c r="T24" s="6">
@@ -3007,12 +3007,12 @@
         <v>330011</v>
       </c>
       <c r="Q25" s="6">
-        <v>100050</v>
+        <v>120047</v>
       </c>
       <c r="R25" s="10">
         <v>3</v>
       </c>
-      <c r="S25" s="24">
+      <c r="S25" s="12">
         <v>1.5</v>
       </c>
       <c r="T25" s="6">
@@ -3067,12 +3067,12 @@
         <v>330013</v>
       </c>
       <c r="Q26" s="6">
-        <v>100051</v>
+        <v>120048</v>
       </c>
       <c r="R26" s="10">
         <v>5</v>
       </c>
-      <c r="S26" s="24">
+      <c r="S26" s="12">
         <v>1.5</v>
       </c>
       <c r="T26" s="6">
@@ -3127,12 +3127,12 @@
         <v>330015</v>
       </c>
       <c r="Q27" s="6">
-        <v>100052</v>
+        <v>120049</v>
       </c>
       <c r="R27" s="10">
         <v>3</v>
       </c>
-      <c r="S27" s="24">
+      <c r="S27" s="12">
         <v>1.5</v>
       </c>
       <c r="T27" s="6">
@@ -3187,12 +3187,12 @@
         <v>330012</v>
       </c>
       <c r="Q28" s="6">
-        <v>100053</v>
+        <v>120050</v>
       </c>
       <c r="R28" s="10">
         <v>5</v>
       </c>
-      <c r="S28" s="24">
+      <c r="S28" s="12">
         <v>1.5</v>
       </c>
       <c r="T28" s="6">
@@ -3247,12 +3247,12 @@
         <v>330012</v>
       </c>
       <c r="Q29" s="6">
-        <v>100054</v>
+        <v>120051</v>
       </c>
       <c r="R29" s="10">
         <v>7</v>
       </c>
-      <c r="S29" s="24">
+      <c r="S29" s="12">
         <v>1.5</v>
       </c>
       <c r="T29" s="6">
@@ -3307,12 +3307,12 @@
         <v>330017</v>
       </c>
       <c r="Q30" s="6">
-        <v>100055</v>
+        <v>120052</v>
       </c>
       <c r="R30" s="10">
         <v>10</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="12">
         <v>1.5</v>
       </c>
       <c r="T30" s="6">
@@ -3367,12 +3367,12 @@
         <v>330012</v>
       </c>
       <c r="Q31" s="6">
-        <v>100056</v>
+        <v>120053</v>
       </c>
       <c r="R31" s="10">
         <v>1</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S31" s="12">
         <v>1.5</v>
       </c>
       <c r="T31" s="6">
@@ -3427,12 +3427,12 @@
         <v>330014</v>
       </c>
       <c r="Q32" s="6">
-        <v>100057</v>
+        <v>120054</v>
       </c>
       <c r="R32" s="10">
         <v>7</v>
       </c>
-      <c r="S32" s="24">
+      <c r="S32" s="12">
         <v>1.5</v>
       </c>
       <c r="T32" s="6">
@@ -3487,12 +3487,12 @@
         <v>330011</v>
       </c>
       <c r="Q33" s="6">
-        <v>100058</v>
+        <v>120055</v>
       </c>
       <c r="R33" s="10">
         <v>6</v>
       </c>
-      <c r="S33" s="24">
+      <c r="S33" s="12">
         <v>1.5</v>
       </c>
       <c r="T33" s="6">
@@ -3547,12 +3547,12 @@
         <v>330013</v>
       </c>
       <c r="Q34" s="6">
-        <v>100059</v>
+        <v>120056</v>
       </c>
       <c r="R34" s="10">
         <v>6</v>
       </c>
-      <c r="S34" s="24">
+      <c r="S34" s="12">
         <v>1.5</v>
       </c>
       <c r="T34" s="6">
@@ -3607,12 +3607,12 @@
         <v>330013</v>
       </c>
       <c r="Q35" s="6">
-        <v>100060</v>
+        <v>120057</v>
       </c>
       <c r="R35" s="10">
         <v>14</v>
       </c>
-      <c r="S35" s="24">
+      <c r="S35" s="12">
         <v>1.5</v>
       </c>
       <c r="T35" s="6">
@@ -3667,12 +3667,12 @@
         <v>330011</v>
       </c>
       <c r="Q36" s="6">
-        <v>100061</v>
+        <v>120058</v>
       </c>
       <c r="R36" s="10">
         <v>2</v>
       </c>
-      <c r="S36" s="24">
+      <c r="S36" s="12">
         <v>1.5</v>
       </c>
       <c r="T36" s="6">
@@ -3727,12 +3727,12 @@
         <v>330013</v>
       </c>
       <c r="Q37" s="6">
-        <v>100062</v>
+        <v>120059</v>
       </c>
       <c r="R37" s="10">
         <v>2</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="12">
         <v>1.5</v>
       </c>
       <c r="T37" s="6">
@@ -3787,12 +3787,12 @@
         <v>330015</v>
       </c>
       <c r="Q38" s="6">
-        <v>100063</v>
+        <v>120060</v>
       </c>
       <c r="R38" s="10">
         <v>14</v>
       </c>
-      <c r="S38" s="24">
+      <c r="S38" s="12">
         <v>1.5</v>
       </c>
       <c r="T38" s="6">
@@ -3847,12 +3847,12 @@
         <v>330015</v>
       </c>
       <c r="Q39" s="6">
-        <v>100064</v>
+        <v>120061</v>
       </c>
       <c r="R39" s="10">
         <v>2</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S39" s="12">
         <v>1.5</v>
       </c>
       <c r="T39" s="6">
@@ -3907,12 +3907,12 @@
         <v>330011</v>
       </c>
       <c r="Q40" s="6">
-        <v>100065</v>
+        <v>120062</v>
       </c>
       <c r="R40" s="10">
         <v>10</v>
       </c>
-      <c r="S40" s="24">
+      <c r="S40" s="12">
         <v>1.5</v>
       </c>
       <c r="T40" s="6">
@@ -3967,12 +3967,12 @@
         <v>330016</v>
       </c>
       <c r="Q41" s="6">
-        <v>100066</v>
+        <v>120063</v>
       </c>
       <c r="R41" s="10">
         <v>10</v>
       </c>
-      <c r="S41" s="24">
+      <c r="S41" s="12">
         <v>1.5</v>
       </c>
       <c r="T41" s="6">
@@ -4027,12 +4027,12 @@
         <v>330011</v>
       </c>
       <c r="Q42" s="6">
-        <v>100067</v>
+        <v>120064</v>
       </c>
       <c r="R42" s="10">
         <v>2</v>
       </c>
-      <c r="S42" s="24">
+      <c r="S42" s="12">
         <v>1.5</v>
       </c>
       <c r="T42" s="6">
@@ -4087,12 +4087,12 @@
         <v>330016</v>
       </c>
       <c r="Q43" s="6">
-        <v>100068</v>
+        <v>120065</v>
       </c>
       <c r="R43" s="10">
         <v>14</v>
       </c>
-      <c r="S43" s="24">
+      <c r="S43" s="12">
         <v>1.5</v>
       </c>
       <c r="T43" s="6">
@@ -4147,12 +4147,12 @@
         <v>330013</v>
       </c>
       <c r="Q44" s="6">
-        <v>100069</v>
+        <v>120066</v>
       </c>
       <c r="R44" s="10">
         <v>6</v>
       </c>
-      <c r="S44" s="24">
+      <c r="S44" s="12">
         <v>1.5</v>
       </c>
       <c r="T44" s="6">
@@ -4207,12 +4207,12 @@
         <v>330012</v>
       </c>
       <c r="Q45" s="6">
-        <v>100070</v>
+        <v>120067</v>
       </c>
       <c r="R45" s="10">
         <v>6</v>
       </c>
-      <c r="S45" s="24">
+      <c r="S45" s="12">
         <v>1.5</v>
       </c>
       <c r="T45" s="6">
@@ -4267,12 +4267,12 @@
         <v>330014</v>
       </c>
       <c r="Q46" s="6">
-        <v>100071</v>
+        <v>120068</v>
       </c>
       <c r="R46" s="10">
         <v>2</v>
       </c>
-      <c r="S46" s="24">
+      <c r="S46" s="12">
         <v>1.5</v>
       </c>
       <c r="T46" s="6">
@@ -4327,12 +4327,12 @@
         <v>330017</v>
       </c>
       <c r="Q47" s="6">
-        <v>100072</v>
+        <v>120069</v>
       </c>
       <c r="R47" s="10">
         <v>20</v>
       </c>
-      <c r="S47" s="24">
+      <c r="S47" s="12">
         <v>1.5</v>
       </c>
       <c r="T47" s="6">
@@ -4387,12 +4387,12 @@
         <v>330014</v>
       </c>
       <c r="Q48" s="6">
-        <v>100073</v>
+        <v>120070</v>
       </c>
       <c r="R48" s="10">
         <v>10</v>
       </c>
-      <c r="S48" s="24">
+      <c r="S48" s="12">
         <v>1.5</v>
       </c>
       <c r="T48" s="6">
@@ -4447,12 +4447,12 @@
         <v>330016</v>
       </c>
       <c r="Q49" s="6">
-        <v>100074</v>
+        <v>120071</v>
       </c>
       <c r="R49" s="10">
         <v>6</v>
       </c>
-      <c r="S49" s="24">
+      <c r="S49" s="12">
         <v>1.5</v>
       </c>
       <c r="T49" s="6">
@@ -4507,12 +4507,12 @@
         <v>330015</v>
       </c>
       <c r="Q50" s="6">
-        <v>100075</v>
+        <v>120072</v>
       </c>
       <c r="R50" s="10">
         <v>10</v>
       </c>
-      <c r="S50" s="24">
+      <c r="S50" s="12">
         <v>1.5</v>
       </c>
       <c r="T50" s="6">
@@ -4567,12 +4567,12 @@
         <v>330014</v>
       </c>
       <c r="Q51" s="6">
-        <v>100076</v>
+        <v>120073</v>
       </c>
       <c r="R51" s="10">
         <v>2</v>
       </c>
-      <c r="S51" s="24">
+      <c r="S51" s="12">
         <v>1.5</v>
       </c>
       <c r="T51" s="6">
@@ -4627,12 +4627,12 @@
         <v>330011</v>
       </c>
       <c r="Q52" s="6">
-        <v>100077</v>
+        <v>120074</v>
       </c>
       <c r="R52" s="10">
         <v>6</v>
       </c>
-      <c r="S52" s="24">
+      <c r="S52" s="12">
         <v>1.5</v>
       </c>
       <c r="T52" s="6">
@@ -4687,12 +4687,12 @@
         <v>330013</v>
       </c>
       <c r="Q53" s="6">
-        <v>100078</v>
+        <v>120075</v>
       </c>
       <c r="R53" s="10">
         <v>10</v>
       </c>
-      <c r="S53" s="24">
+      <c r="S53" s="12">
         <v>1.5</v>
       </c>
       <c r="T53" s="6">
@@ -4747,12 +4747,12 @@
         <v>330015</v>
       </c>
       <c r="Q54" s="6">
-        <v>100079</v>
+        <v>120076</v>
       </c>
       <c r="R54" s="10">
         <v>6</v>
       </c>
-      <c r="S54" s="24">
+      <c r="S54" s="12">
         <v>1.5</v>
       </c>
       <c r="T54" s="6">
@@ -4807,12 +4807,12 @@
         <v>330012</v>
       </c>
       <c r="Q55" s="6">
-        <v>100080</v>
+        <v>120077</v>
       </c>
       <c r="R55" s="10">
         <v>10</v>
       </c>
-      <c r="S55" s="24">
+      <c r="S55" s="12">
         <v>1.5</v>
       </c>
       <c r="T55" s="6">
@@ -4867,12 +4867,12 @@
         <v>330012</v>
       </c>
       <c r="Q56" s="6">
-        <v>100081</v>
+        <v>120078</v>
       </c>
       <c r="R56" s="10">
         <v>14</v>
       </c>
-      <c r="S56" s="24">
+      <c r="S56" s="12">
         <v>1.5</v>
       </c>
       <c r="T56" s="6">
@@ -4927,12 +4927,12 @@
         <v>330017</v>
       </c>
       <c r="Q57" s="6">
-        <v>100082</v>
+        <v>120079</v>
       </c>
       <c r="R57" s="10">
         <v>20</v>
       </c>
-      <c r="S57" s="24">
+      <c r="S57" s="12">
         <v>1.5</v>
       </c>
       <c r="T57" s="6">
@@ -4987,12 +4987,12 @@
         <v>330012</v>
       </c>
       <c r="Q58" s="6">
-        <v>100083</v>
+        <v>120080</v>
       </c>
       <c r="R58" s="10">
         <v>2</v>
       </c>
-      <c r="S58" s="24">
+      <c r="S58" s="12">
         <v>1.5</v>
       </c>
       <c r="T58" s="6">
@@ -5047,12 +5047,12 @@
         <v>330014</v>
       </c>
       <c r="Q59" s="6">
-        <v>100084</v>
+        <v>120081</v>
       </c>
       <c r="R59" s="10">
         <v>14</v>
       </c>
-      <c r="S59" s="24">
+      <c r="S59" s="12">
         <v>1.5</v>
       </c>
       <c r="T59" s="6">
@@ -5112,7 +5112,7 @@
       <c r="R60" s="10">
         <v>18</v>
       </c>
-      <c r="S60" s="24">
+      <c r="S60" s="12">
         <v>1.5</v>
       </c>
       <c r="T60" s="6">
@@ -5172,7 +5172,7 @@
       <c r="R61" s="10">
         <v>18</v>
       </c>
-      <c r="S61" s="24">
+      <c r="S61" s="12">
         <v>1.5</v>
       </c>
       <c r="T61" s="6">
@@ -5232,7 +5232,7 @@
       <c r="R62" s="10">
         <v>42</v>
       </c>
-      <c r="S62" s="24">
+      <c r="S62" s="12">
         <v>1.5</v>
       </c>
       <c r="T62" s="6">
@@ -5292,7 +5292,7 @@
       <c r="R63" s="10">
         <v>6</v>
       </c>
-      <c r="S63" s="24">
+      <c r="S63" s="12">
         <v>1.5</v>
       </c>
       <c r="T63" s="6">
@@ -5352,7 +5352,7 @@
       <c r="R64" s="10">
         <v>6</v>
       </c>
-      <c r="S64" s="24">
+      <c r="S64" s="12">
         <v>1.5</v>
       </c>
       <c r="T64" s="6">
@@ -5412,7 +5412,7 @@
       <c r="R65" s="10">
         <v>42</v>
       </c>
-      <c r="S65" s="24">
+      <c r="S65" s="12">
         <v>1.5</v>
       </c>
       <c r="T65" s="6">
@@ -5472,7 +5472,7 @@
       <c r="R66" s="10">
         <v>6</v>
       </c>
-      <c r="S66" s="24">
+      <c r="S66" s="12">
         <v>1.5</v>
       </c>
       <c r="T66" s="6">
@@ -5532,7 +5532,7 @@
       <c r="R67" s="10">
         <v>30</v>
       </c>
-      <c r="S67" s="24">
+      <c r="S67" s="12">
         <v>1.5</v>
       </c>
       <c r="T67" s="6">
@@ -5592,7 +5592,7 @@
       <c r="R68" s="10">
         <v>30</v>
       </c>
-      <c r="S68" s="24">
+      <c r="S68" s="12">
         <v>1.5</v>
       </c>
       <c r="T68" s="6">
@@ -5652,7 +5652,7 @@
       <c r="R69" s="10">
         <v>6</v>
       </c>
-      <c r="S69" s="24">
+      <c r="S69" s="12">
         <v>1.5</v>
       </c>
       <c r="T69" s="6">
@@ -5712,7 +5712,7 @@
       <c r="R70" s="10">
         <v>42</v>
       </c>
-      <c r="S70" s="24">
+      <c r="S70" s="12">
         <v>1.5</v>
       </c>
       <c r="T70" s="6">
@@ -5772,7 +5772,7 @@
       <c r="R71" s="10">
         <v>18</v>
       </c>
-      <c r="S71" s="24">
+      <c r="S71" s="12">
         <v>1.5</v>
       </c>
       <c r="T71" s="6">
@@ -5832,7 +5832,7 @@
       <c r="R72" s="10">
         <v>18</v>
       </c>
-      <c r="S72" s="24">
+      <c r="S72" s="12">
         <v>1.5</v>
       </c>
       <c r="T72" s="6">
@@ -5892,7 +5892,7 @@
       <c r="R73" s="10">
         <v>6</v>
       </c>
-      <c r="S73" s="24">
+      <c r="S73" s="12">
         <v>1.5</v>
       </c>
       <c r="T73" s="6">
@@ -5952,7 +5952,7 @@
       <c r="R74" s="10">
         <v>60</v>
       </c>
-      <c r="S74" s="24">
+      <c r="S74" s="12">
         <v>1.5</v>
       </c>
       <c r="T74" s="6">
@@ -6012,7 +6012,7 @@
       <c r="R75" s="10">
         <v>30</v>
       </c>
-      <c r="S75" s="24">
+      <c r="S75" s="12">
         <v>1.5</v>
       </c>
       <c r="T75" s="6">
@@ -6072,7 +6072,7 @@
       <c r="R76" s="10">
         <v>18</v>
       </c>
-      <c r="S76" s="24">
+      <c r="S76" s="12">
         <v>1.5</v>
       </c>
       <c r="T76" s="6">
@@ -6132,7 +6132,7 @@
       <c r="R77" s="10">
         <v>30</v>
       </c>
-      <c r="S77" s="24">
+      <c r="S77" s="12">
         <v>1.5</v>
       </c>
       <c r="T77" s="6">
@@ -6192,7 +6192,7 @@
       <c r="R78" s="10">
         <v>6</v>
       </c>
-      <c r="S78" s="24">
+      <c r="S78" s="12">
         <v>1.5</v>
       </c>
       <c r="T78" s="6">
@@ -6252,7 +6252,7 @@
       <c r="R79" s="10">
         <v>18</v>
       </c>
-      <c r="S79" s="24">
+      <c r="S79" s="12">
         <v>1.5</v>
       </c>
       <c r="T79" s="6">
@@ -6312,7 +6312,7 @@
       <c r="R80" s="10">
         <v>30</v>
       </c>
-      <c r="S80" s="24">
+      <c r="S80" s="12">
         <v>1.5</v>
       </c>
       <c r="T80" s="6">
@@ -6372,7 +6372,7 @@
       <c r="R81" s="10">
         <v>18</v>
       </c>
-      <c r="S81" s="24">
+      <c r="S81" s="12">
         <v>1.5</v>
       </c>
       <c r="T81" s="6">
@@ -6432,7 +6432,7 @@
       <c r="R82" s="10">
         <v>30</v>
       </c>
-      <c r="S82" s="24">
+      <c r="S82" s="12">
         <v>1.5</v>
       </c>
       <c r="T82" s="6">
@@ -6492,7 +6492,7 @@
       <c r="R83" s="10">
         <v>42</v>
       </c>
-      <c r="S83" s="24">
+      <c r="S83" s="12">
         <v>1.5</v>
       </c>
       <c r="T83" s="6">
@@ -6552,7 +6552,7 @@
       <c r="R84" s="10">
         <v>60</v>
       </c>
-      <c r="S84" s="24">
+      <c r="S84" s="12">
         <v>1.5</v>
       </c>
       <c r="T84" s="6">
@@ -6612,7 +6612,7 @@
       <c r="R85" s="10">
         <v>6</v>
       </c>
-      <c r="S85" s="24">
+      <c r="S85" s="12">
         <v>1.5</v>
       </c>
       <c r="T85" s="11">
@@ -6672,7 +6672,7 @@
       <c r="R86" s="10">
         <v>42</v>
       </c>
-      <c r="S86" s="24">
+      <c r="S86" s="12">
         <v>1.5</v>
       </c>
       <c r="T86" s="11">
@@ -6685,6 +6685,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:H3"/>
@@ -6694,12 +6700,6 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD7CD8-F675-4C3C-9B11-8BACB073D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42183C9D-50C1-4409-8AC6-F76979F12F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tower_Table!$B$5:$U$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1582,28 +1585,31 @@
   <dimension ref="B2:U87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.09765625" customWidth="1"/>
+    <col min="18" max="18" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
@@ -6684,13 +6690,8 @@
       <c r="B87" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:U5" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
   <mergeCells count="15">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:H3"/>
@@ -6700,6 +6701,12 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42183C9D-50C1-4409-8AC6-F76979F12F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1BB77-BED2-428F-9CD2-400A2762190A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
+    <workbookView xWindow="5205" yWindow="3960" windowWidth="21600" windowHeight="11385" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
@@ -1585,10 +1585,10 @@
   <dimension ref="B2:U87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6:I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1848,8 +1848,8 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
-        <v>50</v>
+      <c r="I6" s="10">
+        <v>67</v>
       </c>
       <c r="J6" s="8">
         <v>0.2</v>
@@ -1908,8 +1908,8 @@
       <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
-        <v>50</v>
+      <c r="I7" s="10">
+        <v>80</v>
       </c>
       <c r="J7" s="8">
         <v>0.2</v>
@@ -1968,8 +1968,8 @@
       <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="6">
-        <v>50</v>
+      <c r="I8" s="10">
+        <v>150</v>
       </c>
       <c r="J8" s="8">
         <v>0.2</v>
@@ -2028,8 +2028,8 @@
       <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="6">
-        <v>50</v>
+      <c r="I9" s="10">
+        <v>45</v>
       </c>
       <c r="J9" s="8">
         <v>0.2</v>
@@ -2088,8 +2088,8 @@
       <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="I10" s="6">
-        <v>50</v>
+      <c r="I10" s="10">
+        <v>53</v>
       </c>
       <c r="J10" s="8">
         <v>0.2</v>
@@ -2148,8 +2148,8 @@
       <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="6">
-        <v>50</v>
+      <c r="I11" s="10">
+        <v>135</v>
       </c>
       <c r="J11" s="8">
         <v>0.2</v>
@@ -2208,8 +2208,8 @@
       <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="I12" s="6">
-        <v>50</v>
+      <c r="I12" s="10">
+        <v>43</v>
       </c>
       <c r="J12" s="8">
         <v>0.2</v>
@@ -2268,8 +2268,8 @@
       <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="I13" s="6">
-        <v>50</v>
+      <c r="I13" s="10">
+        <v>111</v>
       </c>
       <c r="J13" s="8">
         <v>0.2</v>
@@ -2328,8 +2328,8 @@
       <c r="H14" s="7">
         <v>9</v>
       </c>
-      <c r="I14" s="6">
-        <v>50</v>
+      <c r="I14" s="10">
+        <v>112</v>
       </c>
       <c r="J14" s="8">
         <v>0.2</v>
@@ -2388,8 +2388,8 @@
       <c r="H15" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="6">
-        <v>50</v>
+      <c r="I15" s="10">
+        <v>53</v>
       </c>
       <c r="J15" s="8">
         <v>0.2</v>
@@ -2448,8 +2448,8 @@
       <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="I16" s="6">
-        <v>50</v>
+      <c r="I16" s="10">
+        <v>135</v>
       </c>
       <c r="J16" s="8">
         <v>0.2</v>
@@ -2508,8 +2508,8 @@
       <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="I17" s="6">
-        <v>50</v>
+      <c r="I17" s="10">
+        <v>82</v>
       </c>
       <c r="J17" s="8">
         <v>0.2</v>
@@ -2568,8 +2568,8 @@
       <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="I18" s="6">
-        <v>50</v>
+      <c r="I18" s="10">
+        <v>70</v>
       </c>
       <c r="J18" s="8">
         <v>0.2</v>
@@ -2628,8 +2628,8 @@
       <c r="H19" s="7">
         <v>14</v>
       </c>
-      <c r="I19" s="6">
-        <v>50</v>
+      <c r="I19" s="10">
+        <v>52</v>
       </c>
       <c r="J19" s="8">
         <v>0.2</v>
@@ -2688,8 +2688,8 @@
       <c r="H20" s="7">
         <v>15</v>
       </c>
-      <c r="I20" s="6">
-        <v>50</v>
+      <c r="I20" s="10">
+        <v>250</v>
       </c>
       <c r="J20" s="8">
         <v>0.2</v>
@@ -2748,8 +2748,8 @@
       <c r="H21" s="7">
         <v>16</v>
       </c>
-      <c r="I21" s="6">
-        <v>50</v>
+      <c r="I21" s="10">
+        <v>109</v>
       </c>
       <c r="J21" s="8">
         <v>0.2</v>
@@ -2808,8 +2808,8 @@
       <c r="H22" s="7">
         <v>17</v>
       </c>
-      <c r="I22" s="6">
-        <v>50</v>
+      <c r="I22" s="10">
+        <v>83</v>
       </c>
       <c r="J22" s="8">
         <v>0.2</v>
@@ -2868,8 +2868,8 @@
       <c r="H23" s="7">
         <v>18</v>
       </c>
-      <c r="I23" s="6">
-        <v>50</v>
+      <c r="I23" s="10">
+        <v>113</v>
       </c>
       <c r="J23" s="8">
         <v>0.2</v>
@@ -2928,8 +2928,8 @@
       <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="I24" s="6">
-        <v>50</v>
+      <c r="I24" s="10">
+        <v>52</v>
       </c>
       <c r="J24" s="8">
         <v>0.2</v>
@@ -2988,8 +2988,8 @@
       <c r="H25" s="7">
         <v>20</v>
       </c>
-      <c r="I25" s="6">
-        <v>50</v>
+      <c r="I25" s="10">
+        <v>78</v>
       </c>
       <c r="J25" s="8">
         <v>0.2</v>
@@ -3048,8 +3048,8 @@
       <c r="H26" s="7">
         <v>21</v>
       </c>
-      <c r="I26" s="6">
-        <v>50</v>
+      <c r="I26" s="10">
+        <v>110</v>
       </c>
       <c r="J26" s="8">
         <v>0.2</v>
@@ -3108,8 +3108,8 @@
       <c r="H27" s="7">
         <v>22</v>
       </c>
-      <c r="I27" s="6">
-        <v>50</v>
+      <c r="I27" s="10">
+        <v>68</v>
       </c>
       <c r="J27" s="8">
         <v>0.2</v>
@@ -3168,8 +3168,8 @@
       <c r="H28" s="7">
         <v>23</v>
       </c>
-      <c r="I28" s="6">
-        <v>50</v>
+      <c r="I28" s="10">
+        <v>105</v>
       </c>
       <c r="J28" s="8">
         <v>0.2</v>
@@ -3228,8 +3228,8 @@
       <c r="H29" s="7">
         <v>24</v>
       </c>
-      <c r="I29" s="6">
-        <v>50</v>
+      <c r="I29" s="10">
+        <v>150</v>
       </c>
       <c r="J29" s="8">
         <v>0.2</v>
@@ -3288,8 +3288,8 @@
       <c r="H30" s="7">
         <v>25</v>
       </c>
-      <c r="I30" s="6">
-        <v>50</v>
+      <c r="I30" s="10">
+        <v>220</v>
       </c>
       <c r="J30" s="8">
         <v>0.2</v>
@@ -3348,8 +3348,8 @@
       <c r="H31" s="7">
         <v>26</v>
       </c>
-      <c r="I31" s="6">
-        <v>50</v>
+      <c r="I31" s="10">
+        <v>43</v>
       </c>
       <c r="J31" s="8">
         <v>0.2</v>
@@ -3408,8 +3408,8 @@
       <c r="H32" s="7">
         <v>27</v>
       </c>
-      <c r="I32" s="6">
-        <v>50</v>
+      <c r="I32" s="10">
+        <v>150</v>
       </c>
       <c r="J32" s="8">
         <v>0.2</v>
@@ -3468,8 +3468,8 @@
       <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="I33" s="6">
-        <v>100</v>
+      <c r="I33" s="10">
+        <v>107.2</v>
       </c>
       <c r="J33" s="8">
         <v>0.2</v>
@@ -3528,8 +3528,8 @@
       <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="6">
-        <v>100</v>
+      <c r="I34" s="10">
+        <v>128</v>
       </c>
       <c r="J34" s="8">
         <v>0.2</v>
@@ -3588,8 +3588,8 @@
       <c r="H35" s="7">
         <v>3</v>
       </c>
-      <c r="I35" s="6">
-        <v>100</v>
+      <c r="I35" s="10">
+        <v>240</v>
       </c>
       <c r="J35" s="8">
         <v>0.2</v>
@@ -3648,8 +3648,8 @@
       <c r="H36" s="7">
         <v>4</v>
       </c>
-      <c r="I36" s="6">
-        <v>100</v>
+      <c r="I36" s="10">
+        <v>72</v>
       </c>
       <c r="J36" s="8">
         <v>0.2</v>
@@ -3708,8 +3708,8 @@
       <c r="H37" s="7">
         <v>5</v>
       </c>
-      <c r="I37" s="6">
-        <v>100</v>
+      <c r="I37" s="10">
+        <v>84.800000000000011</v>
       </c>
       <c r="J37" s="8">
         <v>0.2</v>
@@ -3768,8 +3768,8 @@
       <c r="H38" s="7">
         <v>6</v>
       </c>
-      <c r="I38" s="6">
-        <v>100</v>
+      <c r="I38" s="10">
+        <v>216</v>
       </c>
       <c r="J38" s="8">
         <v>0.2</v>
@@ -3828,8 +3828,8 @@
       <c r="H39" s="7">
         <v>7</v>
       </c>
-      <c r="I39" s="6">
-        <v>100</v>
+      <c r="I39" s="10">
+        <v>68.8</v>
       </c>
       <c r="J39" s="8">
         <v>0.2</v>
@@ -3888,8 +3888,8 @@
       <c r="H40" s="7">
         <v>8</v>
       </c>
-      <c r="I40" s="6">
-        <v>100</v>
+      <c r="I40" s="10">
+        <v>177.60000000000002</v>
       </c>
       <c r="J40" s="8">
         <v>0.2</v>
@@ -3948,8 +3948,8 @@
       <c r="H41" s="7">
         <v>9</v>
       </c>
-      <c r="I41" s="6">
-        <v>100</v>
+      <c r="I41" s="10">
+        <v>179.20000000000002</v>
       </c>
       <c r="J41" s="8">
         <v>0.2</v>
@@ -4008,8 +4008,8 @@
       <c r="H42" s="7">
         <v>10</v>
       </c>
-      <c r="I42" s="6">
-        <v>100</v>
+      <c r="I42" s="10">
+        <v>84.800000000000011</v>
       </c>
       <c r="J42" s="8">
         <v>0.2</v>
@@ -4068,8 +4068,8 @@
       <c r="H43" s="7">
         <v>11</v>
       </c>
-      <c r="I43" s="6">
-        <v>100</v>
+      <c r="I43" s="10">
+        <v>216</v>
       </c>
       <c r="J43" s="8">
         <v>0.2</v>
@@ -4128,8 +4128,8 @@
       <c r="H44" s="7">
         <v>12</v>
       </c>
-      <c r="I44" s="6">
-        <v>100</v>
+      <c r="I44" s="10">
+        <v>131.20000000000002</v>
       </c>
       <c r="J44" s="8">
         <v>0.2</v>
@@ -4188,8 +4188,8 @@
       <c r="H45" s="7">
         <v>13</v>
       </c>
-      <c r="I45" s="6">
-        <v>100</v>
+      <c r="I45" s="10">
+        <v>112</v>
       </c>
       <c r="J45" s="8">
         <v>0.2</v>
@@ -4248,8 +4248,8 @@
       <c r="H46" s="7">
         <v>14</v>
       </c>
-      <c r="I46" s="6">
-        <v>100</v>
+      <c r="I46" s="10">
+        <v>83.2</v>
       </c>
       <c r="J46" s="8">
         <v>0.2</v>
@@ -4308,8 +4308,8 @@
       <c r="H47" s="7">
         <v>15</v>
       </c>
-      <c r="I47" s="6">
-        <v>100</v>
+      <c r="I47" s="10">
+        <v>400</v>
       </c>
       <c r="J47" s="8">
         <v>0.2</v>
@@ -4368,8 +4368,8 @@
       <c r="H48" s="7">
         <v>16</v>
       </c>
-      <c r="I48" s="6">
-        <v>100</v>
+      <c r="I48" s="10">
+        <v>174.4</v>
       </c>
       <c r="J48" s="8">
         <v>0.2</v>
@@ -4428,8 +4428,8 @@
       <c r="H49" s="7">
         <v>17</v>
       </c>
-      <c r="I49" s="6">
-        <v>100</v>
+      <c r="I49" s="10">
+        <v>132.80000000000001</v>
       </c>
       <c r="J49" s="8">
         <v>0.2</v>
@@ -4488,8 +4488,8 @@
       <c r="H50" s="7">
         <v>18</v>
       </c>
-      <c r="I50" s="6">
-        <v>100</v>
+      <c r="I50" s="10">
+        <v>180.8</v>
       </c>
       <c r="J50" s="8">
         <v>0.2</v>
@@ -4548,8 +4548,8 @@
       <c r="H51" s="7">
         <v>19</v>
       </c>
-      <c r="I51" s="6">
-        <v>100</v>
+      <c r="I51" s="10">
+        <v>83.2</v>
       </c>
       <c r="J51" s="8">
         <v>0.2</v>
@@ -4608,8 +4608,8 @@
       <c r="H52" s="7">
         <v>20</v>
       </c>
-      <c r="I52" s="6">
-        <v>100</v>
+      <c r="I52" s="10">
+        <v>124.80000000000001</v>
       </c>
       <c r="J52" s="8">
         <v>0.2</v>
@@ -4668,8 +4668,8 @@
       <c r="H53" s="7">
         <v>21</v>
       </c>
-      <c r="I53" s="6">
-        <v>100</v>
+      <c r="I53" s="10">
+        <v>176</v>
       </c>
       <c r="J53" s="8">
         <v>0.2</v>
@@ -4728,8 +4728,8 @@
       <c r="H54" s="7">
         <v>22</v>
       </c>
-      <c r="I54" s="6">
-        <v>100</v>
+      <c r="I54" s="10">
+        <v>108.80000000000001</v>
       </c>
       <c r="J54" s="8">
         <v>0.2</v>
@@ -4788,8 +4788,8 @@
       <c r="H55" s="7">
         <v>23</v>
       </c>
-      <c r="I55" s="6">
-        <v>100</v>
+      <c r="I55" s="10">
+        <v>168</v>
       </c>
       <c r="J55" s="8">
         <v>0.2</v>
@@ -4848,8 +4848,8 @@
       <c r="H56" s="7">
         <v>24</v>
       </c>
-      <c r="I56" s="6">
-        <v>100</v>
+      <c r="I56" s="10">
+        <v>240</v>
       </c>
       <c r="J56" s="8">
         <v>0.2</v>
@@ -4908,8 +4908,8 @@
       <c r="H57" s="7">
         <v>25</v>
       </c>
-      <c r="I57" s="6">
-        <v>100</v>
+      <c r="I57" s="10">
+        <v>352</v>
       </c>
       <c r="J57" s="8">
         <v>0.2</v>
@@ -4968,8 +4968,8 @@
       <c r="H58" s="7">
         <v>26</v>
       </c>
-      <c r="I58" s="6">
-        <v>100</v>
+      <c r="I58" s="10">
+        <v>68.8</v>
       </c>
       <c r="J58" s="8">
         <v>0.2</v>
@@ -5028,8 +5028,8 @@
       <c r="H59" s="7">
         <v>27</v>
       </c>
-      <c r="I59" s="6">
-        <v>100</v>
+      <c r="I59" s="10">
+        <v>240</v>
       </c>
       <c r="J59" s="8">
         <v>0.2</v>
@@ -5088,8 +5088,8 @@
       <c r="H60" s="7">
         <v>1</v>
       </c>
-      <c r="I60" s="6">
-        <v>200</v>
+      <c r="I60" s="10">
+        <v>210</v>
       </c>
       <c r="J60" s="8">
         <v>0.2</v>
@@ -5148,8 +5148,8 @@
       <c r="H61" s="7">
         <v>2</v>
       </c>
-      <c r="I61" s="6">
-        <v>200</v>
+      <c r="I61" s="10">
+        <v>250</v>
       </c>
       <c r="J61" s="8">
         <v>0.2</v>
@@ -5208,8 +5208,8 @@
       <c r="H62" s="7">
         <v>3</v>
       </c>
-      <c r="I62" s="6">
-        <v>200</v>
+      <c r="I62" s="10">
+        <v>500</v>
       </c>
       <c r="J62" s="8">
         <v>0.2</v>
@@ -5268,8 +5268,8 @@
       <c r="H63" s="7">
         <v>4</v>
       </c>
-      <c r="I63" s="6">
-        <v>200</v>
+      <c r="I63" s="10">
+        <v>165</v>
       </c>
       <c r="J63" s="8">
         <v>0.2</v>
@@ -5328,8 +5328,8 @@
       <c r="H64" s="7">
         <v>5</v>
       </c>
-      <c r="I64" s="6">
-        <v>200</v>
+      <c r="I64" s="10">
+        <v>190</v>
       </c>
       <c r="J64" s="8">
         <v>0.2</v>
@@ -5388,8 +5388,8 @@
       <c r="H65" s="7">
         <v>6</v>
       </c>
-      <c r="I65" s="6">
-        <v>200</v>
+      <c r="I65" s="10">
+        <v>450</v>
       </c>
       <c r="J65" s="8">
         <v>0.2</v>
@@ -5448,8 +5448,8 @@
       <c r="H66" s="7">
         <v>7</v>
       </c>
-      <c r="I66" s="6">
-        <v>200</v>
+      <c r="I66" s="10">
+        <v>154.80000000000001</v>
       </c>
       <c r="J66" s="8">
         <v>0.2</v>
@@ -5508,8 +5508,8 @@
       <c r="H67" s="7">
         <v>8</v>
       </c>
-      <c r="I67" s="6">
-        <v>200</v>
+      <c r="I67" s="10">
+        <v>390</v>
       </c>
       <c r="J67" s="8">
         <v>0.2</v>
@@ -5568,8 +5568,8 @@
       <c r="H68" s="7">
         <v>9</v>
       </c>
-      <c r="I68" s="6">
-        <v>200</v>
+      <c r="I68" s="10">
+        <v>390</v>
       </c>
       <c r="J68" s="8">
         <v>0.2</v>
@@ -5628,7 +5628,7 @@
       <c r="H69" s="7">
         <v>10</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="10">
         <v>200</v>
       </c>
       <c r="J69" s="8">
@@ -5688,8 +5688,8 @@
       <c r="H70" s="7">
         <v>11</v>
       </c>
-      <c r="I70" s="6">
-        <v>200</v>
+      <c r="I70" s="10">
+        <v>450</v>
       </c>
       <c r="J70" s="8">
         <v>0.2</v>
@@ -5748,8 +5748,8 @@
       <c r="H71" s="7">
         <v>12</v>
       </c>
-      <c r="I71" s="6">
-        <v>200</v>
+      <c r="I71" s="10">
+        <v>255</v>
       </c>
       <c r="J71" s="8">
         <v>0.2</v>
@@ -5808,8 +5808,8 @@
       <c r="H72" s="7">
         <v>13</v>
       </c>
-      <c r="I72" s="6">
-        <v>200</v>
+      <c r="I72" s="10">
+        <v>217</v>
       </c>
       <c r="J72" s="8">
         <v>0.2</v>
@@ -5868,8 +5868,8 @@
       <c r="H73" s="7">
         <v>14</v>
       </c>
-      <c r="I73" s="6">
-        <v>200</v>
+      <c r="I73" s="10">
+        <v>190</v>
       </c>
       <c r="J73" s="8">
         <v>0.2</v>
@@ -5928,8 +5928,8 @@
       <c r="H74" s="7">
         <v>15</v>
       </c>
-      <c r="I74" s="6">
-        <v>200</v>
+      <c r="I74" s="10">
+        <v>800</v>
       </c>
       <c r="J74" s="8">
         <v>0.2</v>
@@ -5988,8 +5988,8 @@
       <c r="H75" s="7">
         <v>16</v>
       </c>
-      <c r="I75" s="6">
-        <v>200</v>
+      <c r="I75" s="10">
+        <v>380</v>
       </c>
       <c r="J75" s="8">
         <v>0.2</v>
@@ -6048,8 +6048,8 @@
       <c r="H76" s="7">
         <v>17</v>
       </c>
-      <c r="I76" s="6">
-        <v>200</v>
+      <c r="I76" s="10">
+        <v>255</v>
       </c>
       <c r="J76" s="8">
         <v>0.2</v>
@@ -6108,8 +6108,8 @@
       <c r="H77" s="7">
         <v>18</v>
       </c>
-      <c r="I77" s="6">
-        <v>200</v>
+      <c r="I77" s="10">
+        <v>400</v>
       </c>
       <c r="J77" s="8">
         <v>0.2</v>
@@ -6168,8 +6168,8 @@
       <c r="H78" s="7">
         <v>19</v>
       </c>
-      <c r="I78" s="6">
-        <v>200</v>
+      <c r="I78" s="10">
+        <v>190</v>
       </c>
       <c r="J78" s="8">
         <v>0.2</v>
@@ -6228,8 +6228,8 @@
       <c r="H79" s="7">
         <v>20</v>
       </c>
-      <c r="I79" s="6">
-        <v>200</v>
+      <c r="I79" s="10">
+        <v>240</v>
       </c>
       <c r="J79" s="8">
         <v>0.2</v>
@@ -6288,8 +6288,8 @@
       <c r="H80" s="7">
         <v>21</v>
       </c>
-      <c r="I80" s="6">
-        <v>200</v>
+      <c r="I80" s="10">
+        <v>385</v>
       </c>
       <c r="J80" s="8">
         <v>0.2</v>
@@ -6348,8 +6348,8 @@
       <c r="H81" s="7">
         <v>22</v>
       </c>
-      <c r="I81" s="6">
-        <v>200</v>
+      <c r="I81" s="10">
+        <v>210</v>
       </c>
       <c r="J81" s="8">
         <v>0.2</v>
@@ -6408,8 +6408,8 @@
       <c r="H82" s="7">
         <v>23</v>
       </c>
-      <c r="I82" s="6">
-        <v>200</v>
+      <c r="I82" s="10">
+        <v>370</v>
       </c>
       <c r="J82" s="8">
         <v>0.2</v>
@@ -6468,8 +6468,8 @@
       <c r="H83" s="7">
         <v>24</v>
       </c>
-      <c r="I83" s="6">
-        <v>200</v>
+      <c r="I83" s="10">
+        <v>500</v>
       </c>
       <c r="J83" s="8">
         <v>0.2</v>
@@ -6528,8 +6528,8 @@
       <c r="H84" s="7">
         <v>25</v>
       </c>
-      <c r="I84" s="6">
-        <v>200</v>
+      <c r="I84" s="10">
+        <v>700</v>
       </c>
       <c r="J84" s="8">
         <v>0.2</v>
@@ -6588,8 +6588,8 @@
       <c r="H85" s="7">
         <v>26</v>
       </c>
-      <c r="I85" s="6">
-        <v>200</v>
+      <c r="I85" s="10">
+        <v>154.80000000000001</v>
       </c>
       <c r="J85" s="8">
         <v>0.2</v>
@@ -6648,8 +6648,8 @@
       <c r="H86" s="7">
         <v>27</v>
       </c>
-      <c r="I86" s="6">
-        <v>200</v>
+      <c r="I86" s="10">
+        <v>495</v>
       </c>
       <c r="J86" s="8">
         <v>0.2</v>
@@ -6692,6 +6692,12 @@
   </sheetData>
   <autoFilter ref="B5:U5" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
   <mergeCells count="15">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:H3"/>
@@ -6701,12 +6707,6 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1BB77-BED2-428F-9CD2-400A2762190A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F66EFEB-952D-4619-8BDF-4D995AEE6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="3960" windowWidth="21600" windowHeight="11385" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tower_Table!$B$5:$U$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tower_Table!$B$5:$X$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="163">
   <si>
     <t>번호</t>
   </si>
@@ -886,6 +886,37 @@
     <t>Atk_Speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>일반공격 
+음향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1
+음향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2
+음향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1Sound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2Sound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKsound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -895,7 +926,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1037,11 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1033,7 +1069,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1186,13 +1222,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,6 +1352,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,13 +1688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}">
-  <dimension ref="B2:U87"/>
+  <dimension ref="B2:X87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6:I86"/>
+      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1609,10 +1715,13 @@
     <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.125" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.625" customWidth="1"/>
+    <col min="24" max="24" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:24">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1660,11 +1769,20 @@
       <c r="T2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:24">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1700,9 +1818,12 @@
       <c r="R3" s="16"/>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
-      <c r="U3" s="16"/>
-    </row>
-    <row r="4" spans="2:21">
+      <c r="U3" s="25"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="16"/>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1761,10 +1882,19 @@
         <v>39</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:24">
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
@@ -1823,10 +1953,19 @@
         <v>41</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:24">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1884,9 +2023,18 @@
       <c r="T6" s="6">
         <v>900004</v>
       </c>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="2:21">
+      <c r="U6" s="31">
+        <v>920003</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="2:24">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1944,9 +2092,18 @@
       <c r="T7" s="6">
         <v>900005</v>
       </c>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="2:21">
+      <c r="U7" s="31">
+        <v>920020</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -2004,9 +2161,18 @@
       <c r="T8" s="6">
         <v>900006</v>
       </c>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="2:21">
+      <c r="U8" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -2064,9 +2230,18 @@
       <c r="T9" s="6">
         <v>900007</v>
       </c>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="U9" s="31">
+        <v>920001</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="2:24">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -2124,9 +2299,18 @@
       <c r="T10" s="6">
         <v>900008</v>
       </c>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="2:21">
+      <c r="U10" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -2184,9 +2368,18 @@
       <c r="T11" s="6">
         <v>900009</v>
       </c>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="2:21">
+      <c r="U11" s="31">
+        <v>920008</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="2:24">
       <c r="B12" s="5">
         <v>7</v>
       </c>
@@ -2244,9 +2437,18 @@
       <c r="T12" s="6">
         <v>900010</v>
       </c>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="2:21">
+      <c r="U12" s="31">
+        <v>920006</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="2:24">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -2304,9 +2506,18 @@
       <c r="T13" s="6">
         <v>900011</v>
       </c>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="2:21">
+      <c r="U13" s="31">
+        <v>920019</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="2:24">
       <c r="B14" s="5">
         <v>9</v>
       </c>
@@ -2364,9 +2575,18 @@
       <c r="T14" s="6">
         <v>900012</v>
       </c>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="2:21">
+      <c r="U14" s="31">
+        <v>920012</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="2:24">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -2424,9 +2644,18 @@
       <c r="T15" s="6">
         <v>900013</v>
       </c>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="2:21">
+      <c r="U15" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <v>0</v>
+      </c>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="2:24">
       <c r="B16" s="5">
         <v>11</v>
       </c>
@@ -2484,9 +2713,18 @@
       <c r="T16" s="6">
         <v>900014</v>
       </c>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="2:21">
+      <c r="U16" s="31">
+        <v>920021</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="5">
         <v>12</v>
       </c>
@@ -2544,9 +2782,18 @@
       <c r="T17" s="6">
         <v>900015</v>
       </c>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="2:21">
+      <c r="U17" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -2604,9 +2851,18 @@
       <c r="T18" s="6">
         <v>900016</v>
       </c>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="2:21">
+      <c r="U18" s="31">
+        <v>920014</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19" s="5">
         <v>14</v>
       </c>
@@ -2664,9 +2920,18 @@
       <c r="T19" s="6">
         <v>900017</v>
       </c>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="2:21">
+      <c r="U19" s="31">
+        <v>920017</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="5">
         <v>15</v>
       </c>
@@ -2724,9 +2989,18 @@
       <c r="T20" s="6">
         <v>900018</v>
       </c>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="21" spans="2:21">
+      <c r="U20" s="31">
+        <v>920007</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="5">
         <v>16</v>
       </c>
@@ -2784,9 +3058,18 @@
       <c r="T21" s="6">
         <v>900019</v>
       </c>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="2:21">
+      <c r="U21" s="31">
+        <v>920018</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0</v>
+      </c>
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" s="5">
         <v>17</v>
       </c>
@@ -2844,9 +3127,18 @@
       <c r="T22" s="6">
         <v>900020</v>
       </c>
-      <c r="U22" s="6"/>
-    </row>
-    <row r="23" spans="2:21">
+      <c r="U22" s="31">
+        <v>920011</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0</v>
+      </c>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -2904,9 +3196,18 @@
       <c r="T23" s="6">
         <v>900021</v>
       </c>
-      <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="2:21">
+      <c r="U23" s="31">
+        <v>920012</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24" s="5">
         <v>19</v>
       </c>
@@ -2964,9 +3265,18 @@
       <c r="T24" s="6">
         <v>900022</v>
       </c>
-      <c r="U24" s="6"/>
-    </row>
-    <row r="25" spans="2:21">
+      <c r="U24" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0</v>
+      </c>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="5">
         <v>20</v>
       </c>
@@ -3024,9 +3334,18 @@
       <c r="T25" s="6">
         <v>900023</v>
       </c>
-      <c r="U25" s="6"/>
-    </row>
-    <row r="26" spans="2:21">
+      <c r="U25" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="5">
         <v>21</v>
       </c>
@@ -3084,9 +3403,18 @@
       <c r="T26" s="6">
         <v>900024</v>
       </c>
-      <c r="U26" s="9"/>
-    </row>
-    <row r="27" spans="2:21">
+      <c r="U26" s="31">
+        <v>920015</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="5">
         <v>22</v>
       </c>
@@ -3144,9 +3472,18 @@
       <c r="T27" s="6">
         <v>900025</v>
       </c>
-      <c r="U27" s="6"/>
-    </row>
-    <row r="28" spans="2:21">
+      <c r="U27" s="31">
+        <v>920004</v>
+      </c>
+      <c r="V27" s="6">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <v>0</v>
+      </c>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28" s="5">
         <v>23</v>
       </c>
@@ -3204,9 +3541,18 @@
       <c r="T28" s="6">
         <v>900026</v>
       </c>
-      <c r="U28" s="6"/>
-    </row>
-    <row r="29" spans="2:21">
+      <c r="U28" s="31">
+        <v>920016</v>
+      </c>
+      <c r="V28" s="6">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0</v>
+      </c>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29" s="5">
         <v>24</v>
       </c>
@@ -3264,9 +3610,18 @@
       <c r="T29" s="6">
         <v>900027</v>
       </c>
-      <c r="U29" s="6"/>
-    </row>
-    <row r="30" spans="2:21">
+      <c r="U29" s="31">
+        <v>920009</v>
+      </c>
+      <c r="V29" s="6">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0</v>
+      </c>
+      <c r="X29" s="6"/>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30" s="5">
         <v>25</v>
       </c>
@@ -3324,9 +3679,18 @@
       <c r="T30" s="6">
         <v>900028</v>
       </c>
-      <c r="U30" s="6"/>
-    </row>
-    <row r="31" spans="2:21">
+      <c r="U30" s="31">
+        <v>920013</v>
+      </c>
+      <c r="V30" s="6">
+        <v>0</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0</v>
+      </c>
+      <c r="X30" s="6"/>
+    </row>
+    <row r="31" spans="2:24">
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -3384,9 +3748,18 @@
       <c r="T31" s="6">
         <v>900029</v>
       </c>
-      <c r="U31" s="6"/>
-    </row>
-    <row r="32" spans="2:21">
+      <c r="U31" s="31">
+        <v>920010</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0</v>
+      </c>
+      <c r="X31" s="6"/>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -3444,9 +3817,18 @@
       <c r="T32" s="6">
         <v>900030</v>
       </c>
-      <c r="U32" s="6"/>
-    </row>
-    <row r="33" spans="2:21">
+      <c r="U32" s="31">
+        <v>920017</v>
+      </c>
+      <c r="V32" s="6">
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0</v>
+      </c>
+      <c r="X32" s="6"/>
+    </row>
+    <row r="33" spans="2:24">
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -3504,9 +3886,18 @@
       <c r="T33" s="6">
         <v>900031</v>
       </c>
-      <c r="U33" s="6"/>
-    </row>
-    <row r="34" spans="2:21">
+      <c r="U33" s="31">
+        <v>920003</v>
+      </c>
+      <c r="V33" s="6">
+        <v>0</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="2:24">
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -3564,9 +3955,18 @@
       <c r="T34" s="6">
         <v>900032</v>
       </c>
-      <c r="U34" s="6"/>
-    </row>
-    <row r="35" spans="2:21">
+      <c r="U34" s="31">
+        <v>920020</v>
+      </c>
+      <c r="V34" s="6">
+        <v>0</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0</v>
+      </c>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35" s="5">
         <v>30</v>
       </c>
@@ -3624,9 +4024,18 @@
       <c r="T35" s="6">
         <v>900033</v>
       </c>
-      <c r="U35" s="6"/>
-    </row>
-    <row r="36" spans="2:21">
+      <c r="U35" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0</v>
+      </c>
+      <c r="X35" s="6"/>
+    </row>
+    <row r="36" spans="2:24">
       <c r="B36" s="5">
         <v>31</v>
       </c>
@@ -3684,9 +4093,18 @@
       <c r="T36" s="6">
         <v>900034</v>
       </c>
-      <c r="U36" s="6"/>
-    </row>
-    <row r="37" spans="2:21">
+      <c r="U36" s="31">
+        <v>920001</v>
+      </c>
+      <c r="V36" s="6">
+        <v>0</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0</v>
+      </c>
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" spans="2:24">
       <c r="B37" s="5">
         <v>32</v>
       </c>
@@ -3744,9 +4162,18 @@
       <c r="T37" s="6">
         <v>900035</v>
       </c>
-      <c r="U37" s="6"/>
-    </row>
-    <row r="38" spans="2:21">
+      <c r="U37" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V37" s="6">
+        <v>0</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0</v>
+      </c>
+      <c r="X37" s="6"/>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38" s="5">
         <v>33</v>
       </c>
@@ -3804,9 +4231,18 @@
       <c r="T38" s="6">
         <v>900036</v>
       </c>
-      <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="2:21">
+      <c r="U38" s="31">
+        <v>920008</v>
+      </c>
+      <c r="V38" s="6">
+        <v>0</v>
+      </c>
+      <c r="W38" s="6">
+        <v>0</v>
+      </c>
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="2:24">
       <c r="B39" s="5">
         <v>34</v>
       </c>
@@ -3864,9 +4300,18 @@
       <c r="T39" s="6">
         <v>900037</v>
       </c>
-      <c r="U39" s="6"/>
-    </row>
-    <row r="40" spans="2:21">
+      <c r="U39" s="31">
+        <v>920006</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0</v>
+      </c>
+      <c r="W39" s="6">
+        <v>0</v>
+      </c>
+      <c r="X39" s="6"/>
+    </row>
+    <row r="40" spans="2:24">
       <c r="B40" s="5">
         <v>35</v>
       </c>
@@ -3924,9 +4369,18 @@
       <c r="T40" s="6">
         <v>900038</v>
       </c>
-      <c r="U40" s="6"/>
-    </row>
-    <row r="41" spans="2:21">
+      <c r="U40" s="31">
+        <v>920019</v>
+      </c>
+      <c r="V40" s="6">
+        <v>0</v>
+      </c>
+      <c r="W40" s="6">
+        <v>0</v>
+      </c>
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" spans="2:24">
       <c r="B41" s="5">
         <v>36</v>
       </c>
@@ -3984,9 +4438,18 @@
       <c r="T41" s="6">
         <v>900039</v>
       </c>
-      <c r="U41" s="6"/>
-    </row>
-    <row r="42" spans="2:21">
+      <c r="U41" s="31">
+        <v>920012</v>
+      </c>
+      <c r="V41" s="6">
+        <v>0</v>
+      </c>
+      <c r="W41" s="6">
+        <v>0</v>
+      </c>
+      <c r="X41" s="6"/>
+    </row>
+    <row r="42" spans="2:24">
       <c r="B42" s="5">
         <v>37</v>
       </c>
@@ -4044,9 +4507,18 @@
       <c r="T42" s="6">
         <v>900040</v>
       </c>
-      <c r="U42" s="6"/>
-    </row>
-    <row r="43" spans="2:21">
+      <c r="U42" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V42" s="6">
+        <v>0</v>
+      </c>
+      <c r="W42" s="6">
+        <v>0</v>
+      </c>
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="2:24">
       <c r="B43" s="5">
         <v>38</v>
       </c>
@@ -4104,9 +4576,18 @@
       <c r="T43" s="6">
         <v>900041</v>
       </c>
-      <c r="U43" s="6"/>
-    </row>
-    <row r="44" spans="2:21">
+      <c r="U43" s="31">
+        <v>920021</v>
+      </c>
+      <c r="V43" s="6">
+        <v>0</v>
+      </c>
+      <c r="W43" s="6">
+        <v>0</v>
+      </c>
+      <c r="X43" s="6"/>
+    </row>
+    <row r="44" spans="2:24">
       <c r="B44" s="5">
         <v>39</v>
       </c>
@@ -4164,9 +4645,18 @@
       <c r="T44" s="6">
         <v>900042</v>
       </c>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="2:21">
+      <c r="U44" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V44" s="6">
+        <v>0</v>
+      </c>
+      <c r="W44" s="6">
+        <v>0</v>
+      </c>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="2:24">
       <c r="B45" s="5">
         <v>40</v>
       </c>
@@ -4224,9 +4714,18 @@
       <c r="T45" s="6">
         <v>900043</v>
       </c>
-      <c r="U45" s="6"/>
-    </row>
-    <row r="46" spans="2:21">
+      <c r="U45" s="31">
+        <v>920014</v>
+      </c>
+      <c r="V45" s="6">
+        <v>0</v>
+      </c>
+      <c r="W45" s="6">
+        <v>0</v>
+      </c>
+      <c r="X45" s="6"/>
+    </row>
+    <row r="46" spans="2:24">
       <c r="B46" s="5">
         <v>41</v>
       </c>
@@ -4284,9 +4783,18 @@
       <c r="T46" s="6">
         <v>900044</v>
       </c>
-      <c r="U46" s="6"/>
-    </row>
-    <row r="47" spans="2:21">
+      <c r="U46" s="31">
+        <v>920017</v>
+      </c>
+      <c r="V46" s="6">
+        <v>0</v>
+      </c>
+      <c r="W46" s="6">
+        <v>0</v>
+      </c>
+      <c r="X46" s="6"/>
+    </row>
+    <row r="47" spans="2:24">
       <c r="B47" s="5">
         <v>42</v>
       </c>
@@ -4344,9 +4852,18 @@
       <c r="T47" s="6">
         <v>900045</v>
       </c>
-      <c r="U47" s="6"/>
-    </row>
-    <row r="48" spans="2:21">
+      <c r="U47" s="31">
+        <v>920007</v>
+      </c>
+      <c r="V47" s="6">
+        <v>0</v>
+      </c>
+      <c r="W47" s="6">
+        <v>0</v>
+      </c>
+      <c r="X47" s="6"/>
+    </row>
+    <row r="48" spans="2:24">
       <c r="B48" s="5">
         <v>43</v>
       </c>
@@ -4404,9 +4921,18 @@
       <c r="T48" s="6">
         <v>900046</v>
       </c>
-      <c r="U48" s="6"/>
-    </row>
-    <row r="49" spans="2:21">
+      <c r="U48" s="31">
+        <v>920018</v>
+      </c>
+      <c r="V48" s="6">
+        <v>0</v>
+      </c>
+      <c r="W48" s="6">
+        <v>0</v>
+      </c>
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="2:24">
       <c r="B49" s="5">
         <v>44</v>
       </c>
@@ -4464,9 +4990,18 @@
       <c r="T49" s="6">
         <v>900047</v>
       </c>
-      <c r="U49" s="6"/>
-    </row>
-    <row r="50" spans="2:21">
+      <c r="U49" s="31">
+        <v>920011</v>
+      </c>
+      <c r="V49" s="6">
+        <v>0</v>
+      </c>
+      <c r="W49" s="6">
+        <v>0</v>
+      </c>
+      <c r="X49" s="6"/>
+    </row>
+    <row r="50" spans="2:24">
       <c r="B50" s="5">
         <v>45</v>
       </c>
@@ -4524,9 +5059,18 @@
       <c r="T50" s="6">
         <v>900048</v>
       </c>
-      <c r="U50" s="6"/>
-    </row>
-    <row r="51" spans="2:21">
+      <c r="U50" s="31">
+        <v>920012</v>
+      </c>
+      <c r="V50" s="6">
+        <v>0</v>
+      </c>
+      <c r="W50" s="6">
+        <v>0</v>
+      </c>
+      <c r="X50" s="6"/>
+    </row>
+    <row r="51" spans="2:24">
       <c r="B51" s="5">
         <v>46</v>
       </c>
@@ -4584,9 +5128,18 @@
       <c r="T51" s="6">
         <v>900049</v>
       </c>
-      <c r="U51" s="6"/>
-    </row>
-    <row r="52" spans="2:21">
+      <c r="U51" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V51" s="6">
+        <v>0</v>
+      </c>
+      <c r="W51" s="6">
+        <v>0</v>
+      </c>
+      <c r="X51" s="6"/>
+    </row>
+    <row r="52" spans="2:24">
       <c r="B52" s="5">
         <v>47</v>
       </c>
@@ -4644,9 +5197,18 @@
       <c r="T52" s="6">
         <v>900050</v>
       </c>
-      <c r="U52" s="6"/>
-    </row>
-    <row r="53" spans="2:21">
+      <c r="U52" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V52" s="6">
+        <v>0</v>
+      </c>
+      <c r="W52" s="6">
+        <v>0</v>
+      </c>
+      <c r="X52" s="6"/>
+    </row>
+    <row r="53" spans="2:24">
       <c r="B53" s="5">
         <v>48</v>
       </c>
@@ -4704,9 +5266,18 @@
       <c r="T53" s="6">
         <v>900051</v>
       </c>
-      <c r="U53" s="6"/>
-    </row>
-    <row r="54" spans="2:21">
+      <c r="U53" s="31">
+        <v>920015</v>
+      </c>
+      <c r="V53" s="6">
+        <v>0</v>
+      </c>
+      <c r="W53" s="6">
+        <v>0</v>
+      </c>
+      <c r="X53" s="6"/>
+    </row>
+    <row r="54" spans="2:24">
       <c r="B54" s="5">
         <v>49</v>
       </c>
@@ -4764,9 +5335,18 @@
       <c r="T54" s="6">
         <v>900052</v>
       </c>
-      <c r="U54" s="6"/>
-    </row>
-    <row r="55" spans="2:21">
+      <c r="U54" s="31">
+        <v>920004</v>
+      </c>
+      <c r="V54" s="6">
+        <v>0</v>
+      </c>
+      <c r="W54" s="6">
+        <v>0</v>
+      </c>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="2:24">
       <c r="B55" s="5">
         <v>50</v>
       </c>
@@ -4824,9 +5404,18 @@
       <c r="T55" s="6">
         <v>900053</v>
       </c>
-      <c r="U55" s="6"/>
-    </row>
-    <row r="56" spans="2:21">
+      <c r="U55" s="31">
+        <v>920016</v>
+      </c>
+      <c r="V55" s="6">
+        <v>0</v>
+      </c>
+      <c r="W55" s="6">
+        <v>0</v>
+      </c>
+      <c r="X55" s="6"/>
+    </row>
+    <row r="56" spans="2:24">
       <c r="B56" s="5">
         <v>51</v>
       </c>
@@ -4884,9 +5473,18 @@
       <c r="T56" s="6">
         <v>900054</v>
       </c>
-      <c r="U56" s="6"/>
-    </row>
-    <row r="57" spans="2:21">
+      <c r="U56" s="31">
+        <v>920009</v>
+      </c>
+      <c r="V56" s="6">
+        <v>0</v>
+      </c>
+      <c r="W56" s="6">
+        <v>0</v>
+      </c>
+      <c r="X56" s="6"/>
+    </row>
+    <row r="57" spans="2:24">
       <c r="B57" s="5">
         <v>52</v>
       </c>
@@ -4944,9 +5542,18 @@
       <c r="T57" s="6">
         <v>900055</v>
       </c>
-      <c r="U57" s="6"/>
-    </row>
-    <row r="58" spans="2:21">
+      <c r="U57" s="31">
+        <v>920013</v>
+      </c>
+      <c r="V57" s="6">
+        <v>0</v>
+      </c>
+      <c r="W57" s="6">
+        <v>0</v>
+      </c>
+      <c r="X57" s="6"/>
+    </row>
+    <row r="58" spans="2:24">
       <c r="B58" s="5">
         <v>53</v>
       </c>
@@ -5004,9 +5611,18 @@
       <c r="T58" s="6">
         <v>900056</v>
       </c>
-      <c r="U58" s="6"/>
-    </row>
-    <row r="59" spans="2:21">
+      <c r="U58" s="31">
+        <v>920010</v>
+      </c>
+      <c r="V58" s="6">
+        <v>0</v>
+      </c>
+      <c r="W58" s="6">
+        <v>0</v>
+      </c>
+      <c r="X58" s="6"/>
+    </row>
+    <row r="59" spans="2:24">
       <c r="B59" s="5">
         <v>54</v>
       </c>
@@ -5064,9 +5680,18 @@
       <c r="T59" s="6">
         <v>900057</v>
       </c>
-      <c r="U59" s="6"/>
-    </row>
-    <row r="60" spans="2:21">
+      <c r="U59" s="31">
+        <v>920017</v>
+      </c>
+      <c r="V59" s="6">
+        <v>0</v>
+      </c>
+      <c r="W59" s="6">
+        <v>0</v>
+      </c>
+      <c r="X59" s="6"/>
+    </row>
+    <row r="60" spans="2:24">
       <c r="B60" s="5">
         <v>55</v>
       </c>
@@ -5124,9 +5749,18 @@
       <c r="T60" s="6">
         <v>900058</v>
       </c>
-      <c r="U60" s="6"/>
-    </row>
-    <row r="61" spans="2:21">
+      <c r="U60" s="31">
+        <v>920003</v>
+      </c>
+      <c r="V60" s="6">
+        <v>0</v>
+      </c>
+      <c r="W60" s="6">
+        <v>0</v>
+      </c>
+      <c r="X60" s="6"/>
+    </row>
+    <row r="61" spans="2:24">
       <c r="B61" s="5">
         <v>56</v>
       </c>
@@ -5184,9 +5818,18 @@
       <c r="T61" s="6">
         <v>900059</v>
       </c>
-      <c r="U61" s="6"/>
-    </row>
-    <row r="62" spans="2:21">
+      <c r="U61" s="31">
+        <v>920020</v>
+      </c>
+      <c r="V61" s="6">
+        <v>0</v>
+      </c>
+      <c r="W61" s="6">
+        <v>0</v>
+      </c>
+      <c r="X61" s="6"/>
+    </row>
+    <row r="62" spans="2:24">
       <c r="B62" s="5">
         <v>57</v>
       </c>
@@ -5244,9 +5887,18 @@
       <c r="T62" s="6">
         <v>900060</v>
       </c>
-      <c r="U62" s="6"/>
-    </row>
-    <row r="63" spans="2:21">
+      <c r="U62" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V62" s="6">
+        <v>0</v>
+      </c>
+      <c r="W62" s="6">
+        <v>0</v>
+      </c>
+      <c r="X62" s="6"/>
+    </row>
+    <row r="63" spans="2:24">
       <c r="B63" s="5">
         <v>58</v>
       </c>
@@ -5304,9 +5956,18 @@
       <c r="T63" s="6">
         <v>900061</v>
       </c>
-      <c r="U63" s="6"/>
-    </row>
-    <row r="64" spans="2:21">
+      <c r="U63" s="31">
+        <v>920001</v>
+      </c>
+      <c r="V63" s="6">
+        <v>0</v>
+      </c>
+      <c r="W63" s="6">
+        <v>0</v>
+      </c>
+      <c r="X63" s="6"/>
+    </row>
+    <row r="64" spans="2:24">
       <c r="B64" s="5">
         <v>59</v>
       </c>
@@ -5364,9 +6025,18 @@
       <c r="T64" s="6">
         <v>900062</v>
       </c>
-      <c r="U64" s="6"/>
-    </row>
-    <row r="65" spans="2:21">
+      <c r="U64" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V64" s="6">
+        <v>0</v>
+      </c>
+      <c r="W64" s="6">
+        <v>0</v>
+      </c>
+      <c r="X64" s="6"/>
+    </row>
+    <row r="65" spans="2:24">
       <c r="B65" s="5">
         <v>60</v>
       </c>
@@ -5424,9 +6094,18 @@
       <c r="T65" s="6">
         <v>900063</v>
       </c>
-      <c r="U65" s="6"/>
-    </row>
-    <row r="66" spans="2:21">
+      <c r="U65" s="31">
+        <v>920008</v>
+      </c>
+      <c r="V65" s="6">
+        <v>0</v>
+      </c>
+      <c r="W65" s="6">
+        <v>0</v>
+      </c>
+      <c r="X65" s="6"/>
+    </row>
+    <row r="66" spans="2:24">
       <c r="B66" s="5">
         <v>61</v>
       </c>
@@ -5484,9 +6163,18 @@
       <c r="T66" s="6">
         <v>900064</v>
       </c>
-      <c r="U66" s="6"/>
-    </row>
-    <row r="67" spans="2:21">
+      <c r="U66" s="31">
+        <v>920006</v>
+      </c>
+      <c r="V66" s="6">
+        <v>0</v>
+      </c>
+      <c r="W66" s="6">
+        <v>0</v>
+      </c>
+      <c r="X66" s="6"/>
+    </row>
+    <row r="67" spans="2:24">
       <c r="B67" s="5">
         <v>62</v>
       </c>
@@ -5544,9 +6232,18 @@
       <c r="T67" s="6">
         <v>900065</v>
       </c>
-      <c r="U67" s="6"/>
-    </row>
-    <row r="68" spans="2:21">
+      <c r="U67" s="31">
+        <v>920019</v>
+      </c>
+      <c r="V67" s="6">
+        <v>0</v>
+      </c>
+      <c r="W67" s="6">
+        <v>0</v>
+      </c>
+      <c r="X67" s="6"/>
+    </row>
+    <row r="68" spans="2:24">
       <c r="B68" s="5">
         <v>63</v>
       </c>
@@ -5604,9 +6301,18 @@
       <c r="T68" s="6">
         <v>900066</v>
       </c>
-      <c r="U68" s="6"/>
-    </row>
-    <row r="69" spans="2:21">
+      <c r="U68" s="31">
+        <v>920012</v>
+      </c>
+      <c r="V68" s="6">
+        <v>0</v>
+      </c>
+      <c r="W68" s="6">
+        <v>0</v>
+      </c>
+      <c r="X68" s="6"/>
+    </row>
+    <row r="69" spans="2:24">
       <c r="B69" s="5">
         <v>64</v>
       </c>
@@ -5664,9 +6370,18 @@
       <c r="T69" s="6">
         <v>900067</v>
       </c>
-      <c r="U69" s="6"/>
-    </row>
-    <row r="70" spans="2:21">
+      <c r="U69" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V69" s="6">
+        <v>0</v>
+      </c>
+      <c r="W69" s="6">
+        <v>0</v>
+      </c>
+      <c r="X69" s="6"/>
+    </row>
+    <row r="70" spans="2:24">
       <c r="B70" s="5">
         <v>65</v>
       </c>
@@ -5724,9 +6439,18 @@
       <c r="T70" s="6">
         <v>900068</v>
       </c>
-      <c r="U70" s="6"/>
-    </row>
-    <row r="71" spans="2:21">
+      <c r="U70" s="31">
+        <v>920021</v>
+      </c>
+      <c r="V70" s="6">
+        <v>0</v>
+      </c>
+      <c r="W70" s="6">
+        <v>0</v>
+      </c>
+      <c r="X70" s="6"/>
+    </row>
+    <row r="71" spans="2:24">
       <c r="B71" s="5">
         <v>66</v>
       </c>
@@ -5784,9 +6508,18 @@
       <c r="T71" s="6">
         <v>900069</v>
       </c>
-      <c r="U71" s="6"/>
-    </row>
-    <row r="72" spans="2:21">
+      <c r="U71" s="31">
+        <v>920002</v>
+      </c>
+      <c r="V71" s="6">
+        <v>0</v>
+      </c>
+      <c r="W71" s="6">
+        <v>0</v>
+      </c>
+      <c r="X71" s="6"/>
+    </row>
+    <row r="72" spans="2:24">
       <c r="B72" s="5">
         <v>67</v>
       </c>
@@ -5844,9 +6577,18 @@
       <c r="T72" s="6">
         <v>900070</v>
       </c>
-      <c r="U72" s="6"/>
-    </row>
-    <row r="73" spans="2:21">
+      <c r="U72" s="31">
+        <v>920014</v>
+      </c>
+      <c r="V72" s="6">
+        <v>0</v>
+      </c>
+      <c r="W72" s="6">
+        <v>0</v>
+      </c>
+      <c r="X72" s="6"/>
+    </row>
+    <row r="73" spans="2:24">
       <c r="B73" s="5">
         <v>68</v>
       </c>
@@ -5904,9 +6646,18 @@
       <c r="T73" s="6">
         <v>900071</v>
       </c>
-      <c r="U73" s="6"/>
-    </row>
-    <row r="74" spans="2:21">
+      <c r="U73" s="31">
+        <v>920017</v>
+      </c>
+      <c r="V73" s="6">
+        <v>0</v>
+      </c>
+      <c r="W73" s="6">
+        <v>0</v>
+      </c>
+      <c r="X73" s="6"/>
+    </row>
+    <row r="74" spans="2:24">
       <c r="B74" s="5">
         <v>69</v>
       </c>
@@ -5964,9 +6715,18 @@
       <c r="T74" s="6">
         <v>900072</v>
       </c>
-      <c r="U74" s="6"/>
-    </row>
-    <row r="75" spans="2:21">
+      <c r="U74" s="31">
+        <v>920007</v>
+      </c>
+      <c r="V74" s="6">
+        <v>0</v>
+      </c>
+      <c r="W74" s="6">
+        <v>0</v>
+      </c>
+      <c r="X74" s="6"/>
+    </row>
+    <row r="75" spans="2:24">
       <c r="B75" s="5">
         <v>70</v>
       </c>
@@ -6024,9 +6784,18 @@
       <c r="T75" s="6">
         <v>900073</v>
       </c>
-      <c r="U75" s="6"/>
-    </row>
-    <row r="76" spans="2:21">
+      <c r="U75" s="31">
+        <v>920018</v>
+      </c>
+      <c r="V75" s="6">
+        <v>0</v>
+      </c>
+      <c r="W75" s="6">
+        <v>0</v>
+      </c>
+      <c r="X75" s="6"/>
+    </row>
+    <row r="76" spans="2:24">
       <c r="B76" s="5">
         <v>71</v>
       </c>
@@ -6084,9 +6853,18 @@
       <c r="T76" s="6">
         <v>900074</v>
       </c>
-      <c r="U76" s="6"/>
-    </row>
-    <row r="77" spans="2:21">
+      <c r="U76" s="31">
+        <v>920011</v>
+      </c>
+      <c r="V76" s="6">
+        <v>0</v>
+      </c>
+      <c r="W76" s="6">
+        <v>0</v>
+      </c>
+      <c r="X76" s="6"/>
+    </row>
+    <row r="77" spans="2:24">
       <c r="B77" s="5">
         <v>72</v>
       </c>
@@ -6144,9 +6922,18 @@
       <c r="T77" s="6">
         <v>900075</v>
       </c>
-      <c r="U77" s="6"/>
-    </row>
-    <row r="78" spans="2:21">
+      <c r="U77" s="31">
+        <v>920012</v>
+      </c>
+      <c r="V77" s="6">
+        <v>0</v>
+      </c>
+      <c r="W77" s="6">
+        <v>0</v>
+      </c>
+      <c r="X77" s="6"/>
+    </row>
+    <row r="78" spans="2:24">
       <c r="B78" s="5">
         <v>73</v>
       </c>
@@ -6204,9 +6991,18 @@
       <c r="T78" s="6">
         <v>900076</v>
       </c>
-      <c r="U78" s="6"/>
-    </row>
-    <row r="79" spans="2:21">
+      <c r="U78" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V78" s="6">
+        <v>0</v>
+      </c>
+      <c r="W78" s="6">
+        <v>0</v>
+      </c>
+      <c r="X78" s="6"/>
+    </row>
+    <row r="79" spans="2:24">
       <c r="B79" s="5">
         <v>74</v>
       </c>
@@ -6264,9 +7060,18 @@
       <c r="T79" s="6">
         <v>900077</v>
       </c>
-      <c r="U79" s="6"/>
-    </row>
-    <row r="80" spans="2:21">
+      <c r="U79" s="31">
+        <v>920005</v>
+      </c>
+      <c r="V79" s="6">
+        <v>0</v>
+      </c>
+      <c r="W79" s="6">
+        <v>0</v>
+      </c>
+      <c r="X79" s="6"/>
+    </row>
+    <row r="80" spans="2:24">
       <c r="B80" s="5">
         <v>75</v>
       </c>
@@ -6324,9 +7129,18 @@
       <c r="T80" s="6">
         <v>900078</v>
       </c>
-      <c r="U80" s="9"/>
-    </row>
-    <row r="81" spans="2:21">
+      <c r="U80" s="31">
+        <v>920015</v>
+      </c>
+      <c r="V80" s="6">
+        <v>0</v>
+      </c>
+      <c r="W80" s="6">
+        <v>0</v>
+      </c>
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" spans="2:24">
       <c r="B81" s="5">
         <v>76</v>
       </c>
@@ -6384,9 +7198,18 @@
       <c r="T81" s="6">
         <v>900079</v>
       </c>
-      <c r="U81" s="6"/>
-    </row>
-    <row r="82" spans="2:21">
+      <c r="U81" s="31">
+        <v>920004</v>
+      </c>
+      <c r="V81" s="6">
+        <v>0</v>
+      </c>
+      <c r="W81" s="6">
+        <v>0</v>
+      </c>
+      <c r="X81" s="6"/>
+    </row>
+    <row r="82" spans="2:24">
       <c r="B82" s="5">
         <v>77</v>
       </c>
@@ -6444,9 +7267,18 @@
       <c r="T82" s="6">
         <v>900080</v>
       </c>
-      <c r="U82" s="6"/>
-    </row>
-    <row r="83" spans="2:21">
+      <c r="U82" s="31">
+        <v>920016</v>
+      </c>
+      <c r="V82" s="6">
+        <v>0</v>
+      </c>
+      <c r="W82" s="6">
+        <v>0</v>
+      </c>
+      <c r="X82" s="6"/>
+    </row>
+    <row r="83" spans="2:24">
       <c r="B83" s="5">
         <v>78</v>
       </c>
@@ -6504,9 +7336,18 @@
       <c r="T83" s="6">
         <v>900081</v>
       </c>
-      <c r="U83" s="6"/>
-    </row>
-    <row r="84" spans="2:21">
+      <c r="U83" s="31">
+        <v>920009</v>
+      </c>
+      <c r="V83" s="6">
+        <v>0</v>
+      </c>
+      <c r="W83" s="6">
+        <v>0</v>
+      </c>
+      <c r="X83" s="6"/>
+    </row>
+    <row r="84" spans="2:24">
       <c r="B84" s="5">
         <v>79</v>
       </c>
@@ -6564,9 +7405,18 @@
       <c r="T84" s="6">
         <v>900082</v>
       </c>
-      <c r="U84" s="6"/>
-    </row>
-    <row r="85" spans="2:21">
+      <c r="U84" s="31">
+        <v>920013</v>
+      </c>
+      <c r="V84" s="6">
+        <v>0</v>
+      </c>
+      <c r="W84" s="6">
+        <v>0</v>
+      </c>
+      <c r="X84" s="6"/>
+    </row>
+    <row r="85" spans="2:24">
       <c r="B85" s="5">
         <v>80</v>
       </c>
@@ -6624,9 +7474,18 @@
       <c r="T85" s="11">
         <v>900083</v>
       </c>
-      <c r="U85" s="6"/>
-    </row>
-    <row r="86" spans="2:21">
+      <c r="U85" s="31">
+        <v>920010</v>
+      </c>
+      <c r="V85" s="6">
+        <v>0</v>
+      </c>
+      <c r="W85" s="6">
+        <v>0</v>
+      </c>
+      <c r="X85" s="6"/>
+    </row>
+    <row r="86" spans="2:24">
       <c r="B86" s="5">
         <v>81</v>
       </c>
@@ -6684,22 +7543,25 @@
       <c r="T86" s="11">
         <v>900084</v>
       </c>
-      <c r="U86" s="6"/>
-    </row>
-    <row r="87" spans="2:21">
+      <c r="U86" s="31">
+        <v>920017</v>
+      </c>
+      <c r="V86" s="6">
+        <v>0</v>
+      </c>
+      <c r="W86" s="6">
+        <v>0</v>
+      </c>
+      <c r="X86" s="6"/>
+    </row>
+    <row r="87" spans="2:24">
       <c r="B87" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:U5" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
-  <mergeCells count="15">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+  <autoFilter ref="B5:X5" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
+  <mergeCells count="18">
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="X2:X3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
@@ -6707,17 +7569,26 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
     <brk id="86" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>
-    <brk id="20" max="85" man="1"/>
+    <brk id="23" max="85" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F66EFEB-952D-4619-8BDF-4D995AEE6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCF5EC-26F1-42A0-A457-4FDA3B80EF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tower_Table!$B$5:$X$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tower_Table!$B$5:$X$86</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1317,6 +1317,9 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,25 +1356,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,7 +1694,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1722,74 +1722,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="13" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="22" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="28" t="s">
         <v>157</v>
       </c>
       <c r="W2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1814,14 +1814,14 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="17"/>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="3" t="s">
@@ -2023,7 +2023,7 @@
       <c r="T6" s="6">
         <v>900004</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="13">
         <v>920003</v>
       </c>
       <c r="V6" s="6">
@@ -2092,7 +2092,7 @@
       <c r="T7" s="6">
         <v>900005</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="13">
         <v>920020</v>
       </c>
       <c r="V7" s="6">
@@ -2161,7 +2161,7 @@
       <c r="T8" s="6">
         <v>900006</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="13">
         <v>920002</v>
       </c>
       <c r="V8" s="6">
@@ -2230,7 +2230,7 @@
       <c r="T9" s="6">
         <v>900007</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="13">
         <v>920001</v>
       </c>
       <c r="V9" s="6">
@@ -2299,7 +2299,7 @@
       <c r="T10" s="6">
         <v>900008</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="13">
         <v>920002</v>
       </c>
       <c r="V10" s="6">
@@ -2368,7 +2368,7 @@
       <c r="T11" s="6">
         <v>900009</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="13">
         <v>920008</v>
       </c>
       <c r="V11" s="6">
@@ -2437,7 +2437,7 @@
       <c r="T12" s="6">
         <v>900010</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="13">
         <v>920006</v>
       </c>
       <c r="V12" s="6">
@@ -2506,7 +2506,7 @@
       <c r="T13" s="6">
         <v>900011</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="13">
         <v>920019</v>
       </c>
       <c r="V13" s="6">
@@ -2575,7 +2575,7 @@
       <c r="T14" s="6">
         <v>900012</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U14" s="13">
         <v>920012</v>
       </c>
       <c r="V14" s="6">
@@ -2644,7 +2644,7 @@
       <c r="T15" s="6">
         <v>900013</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="13">
         <v>920005</v>
       </c>
       <c r="V15" s="6">
@@ -2713,7 +2713,7 @@
       <c r="T16" s="6">
         <v>900014</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="13">
         <v>920021</v>
       </c>
       <c r="V16" s="6">
@@ -2782,7 +2782,7 @@
       <c r="T17" s="6">
         <v>900015</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="13">
         <v>920002</v>
       </c>
       <c r="V17" s="6">
@@ -2851,7 +2851,7 @@
       <c r="T18" s="6">
         <v>900016</v>
       </c>
-      <c r="U18" s="31">
+      <c r="U18" s="13">
         <v>920014</v>
       </c>
       <c r="V18" s="6">
@@ -2920,7 +2920,7 @@
       <c r="T19" s="6">
         <v>900017</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="13">
         <v>920017</v>
       </c>
       <c r="V19" s="6">
@@ -2989,7 +2989,7 @@
       <c r="T20" s="6">
         <v>900018</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="13">
         <v>920007</v>
       </c>
       <c r="V20" s="6">
@@ -3058,7 +3058,7 @@
       <c r="T21" s="6">
         <v>900019</v>
       </c>
-      <c r="U21" s="31">
+      <c r="U21" s="13">
         <v>920018</v>
       </c>
       <c r="V21" s="6">
@@ -3127,7 +3127,7 @@
       <c r="T22" s="6">
         <v>900020</v>
       </c>
-      <c r="U22" s="31">
+      <c r="U22" s="13">
         <v>920011</v>
       </c>
       <c r="V22" s="6">
@@ -3196,7 +3196,7 @@
       <c r="T23" s="6">
         <v>900021</v>
       </c>
-      <c r="U23" s="31">
+      <c r="U23" s="13">
         <v>920012</v>
       </c>
       <c r="V23" s="6">
@@ -3265,7 +3265,7 @@
       <c r="T24" s="6">
         <v>900022</v>
       </c>
-      <c r="U24" s="31">
+      <c r="U24" s="13">
         <v>920005</v>
       </c>
       <c r="V24" s="6">
@@ -3334,7 +3334,7 @@
       <c r="T25" s="6">
         <v>900023</v>
       </c>
-      <c r="U25" s="31">
+      <c r="U25" s="13">
         <v>920005</v>
       </c>
       <c r="V25" s="6">
@@ -3403,7 +3403,7 @@
       <c r="T26" s="6">
         <v>900024</v>
       </c>
-      <c r="U26" s="31">
+      <c r="U26" s="13">
         <v>920015</v>
       </c>
       <c r="V26" s="6">
@@ -3472,7 +3472,7 @@
       <c r="T27" s="6">
         <v>900025</v>
       </c>
-      <c r="U27" s="31">
+      <c r="U27" s="13">
         <v>920004</v>
       </c>
       <c r="V27" s="6">
@@ -3541,7 +3541,7 @@
       <c r="T28" s="6">
         <v>900026</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="13">
         <v>920016</v>
       </c>
       <c r="V28" s="6">
@@ -3610,7 +3610,7 @@
       <c r="T29" s="6">
         <v>900027</v>
       </c>
-      <c r="U29" s="31">
+      <c r="U29" s="13">
         <v>920009</v>
       </c>
       <c r="V29" s="6">
@@ -3644,7 +3644,7 @@
         <v>25</v>
       </c>
       <c r="I30" s="10">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="J30" s="8">
         <v>0.2</v>
@@ -3674,12 +3674,12 @@
         <v>10</v>
       </c>
       <c r="S30" s="12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="T30" s="6">
         <v>900028</v>
       </c>
-      <c r="U30" s="31">
+      <c r="U30" s="13">
         <v>920013</v>
       </c>
       <c r="V30" s="6">
@@ -3748,7 +3748,7 @@
       <c r="T31" s="6">
         <v>900029</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U31" s="13">
         <v>920010</v>
       </c>
       <c r="V31" s="6">
@@ -3812,12 +3812,12 @@
         <v>7</v>
       </c>
       <c r="S32" s="12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T32" s="6">
         <v>900030</v>
       </c>
-      <c r="U32" s="31">
+      <c r="U32" s="13">
         <v>920017</v>
       </c>
       <c r="V32" s="6">
@@ -3886,7 +3886,7 @@
       <c r="T33" s="6">
         <v>900031</v>
       </c>
-      <c r="U33" s="31">
+      <c r="U33" s="13">
         <v>920003</v>
       </c>
       <c r="V33" s="6">
@@ -3955,7 +3955,7 @@
       <c r="T34" s="6">
         <v>900032</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="13">
         <v>920020</v>
       </c>
       <c r="V34" s="6">
@@ -4024,7 +4024,7 @@
       <c r="T35" s="6">
         <v>900033</v>
       </c>
-      <c r="U35" s="31">
+      <c r="U35" s="13">
         <v>920002</v>
       </c>
       <c r="V35" s="6">
@@ -4093,7 +4093,7 @@
       <c r="T36" s="6">
         <v>900034</v>
       </c>
-      <c r="U36" s="31">
+      <c r="U36" s="13">
         <v>920001</v>
       </c>
       <c r="V36" s="6">
@@ -4162,7 +4162,7 @@
       <c r="T37" s="6">
         <v>900035</v>
       </c>
-      <c r="U37" s="31">
+      <c r="U37" s="13">
         <v>920002</v>
       </c>
       <c r="V37" s="6">
@@ -4231,7 +4231,7 @@
       <c r="T38" s="6">
         <v>900036</v>
       </c>
-      <c r="U38" s="31">
+      <c r="U38" s="13">
         <v>920008</v>
       </c>
       <c r="V38" s="6">
@@ -4300,7 +4300,7 @@
       <c r="T39" s="6">
         <v>900037</v>
       </c>
-      <c r="U39" s="31">
+      <c r="U39" s="13">
         <v>920006</v>
       </c>
       <c r="V39" s="6">
@@ -4369,7 +4369,7 @@
       <c r="T40" s="6">
         <v>900038</v>
       </c>
-      <c r="U40" s="31">
+      <c r="U40" s="13">
         <v>920019</v>
       </c>
       <c r="V40" s="6">
@@ -4438,7 +4438,7 @@
       <c r="T41" s="6">
         <v>900039</v>
       </c>
-      <c r="U41" s="31">
+      <c r="U41" s="13">
         <v>920012</v>
       </c>
       <c r="V41" s="6">
@@ -4507,7 +4507,7 @@
       <c r="T42" s="6">
         <v>900040</v>
       </c>
-      <c r="U42" s="31">
+      <c r="U42" s="13">
         <v>920005</v>
       </c>
       <c r="V42" s="6">
@@ -4576,7 +4576,7 @@
       <c r="T43" s="6">
         <v>900041</v>
       </c>
-      <c r="U43" s="31">
+      <c r="U43" s="13">
         <v>920021</v>
       </c>
       <c r="V43" s="6">
@@ -4645,7 +4645,7 @@
       <c r="T44" s="6">
         <v>900042</v>
       </c>
-      <c r="U44" s="31">
+      <c r="U44" s="13">
         <v>920002</v>
       </c>
       <c r="V44" s="6">
@@ -4714,7 +4714,7 @@
       <c r="T45" s="6">
         <v>900043</v>
       </c>
-      <c r="U45" s="31">
+      <c r="U45" s="13">
         <v>920014</v>
       </c>
       <c r="V45" s="6">
@@ -4783,7 +4783,7 @@
       <c r="T46" s="6">
         <v>900044</v>
       </c>
-      <c r="U46" s="31">
+      <c r="U46" s="13">
         <v>920017</v>
       </c>
       <c r="V46" s="6">
@@ -4852,7 +4852,7 @@
       <c r="T47" s="6">
         <v>900045</v>
       </c>
-      <c r="U47" s="31">
+      <c r="U47" s="13">
         <v>920007</v>
       </c>
       <c r="V47" s="6">
@@ -4921,7 +4921,7 @@
       <c r="T48" s="6">
         <v>900046</v>
       </c>
-      <c r="U48" s="31">
+      <c r="U48" s="13">
         <v>920018</v>
       </c>
       <c r="V48" s="6">
@@ -4990,7 +4990,7 @@
       <c r="T49" s="6">
         <v>900047</v>
       </c>
-      <c r="U49" s="31">
+      <c r="U49" s="13">
         <v>920011</v>
       </c>
       <c r="V49" s="6">
@@ -5059,7 +5059,7 @@
       <c r="T50" s="6">
         <v>900048</v>
       </c>
-      <c r="U50" s="31">
+      <c r="U50" s="13">
         <v>920012</v>
       </c>
       <c r="V50" s="6">
@@ -5128,7 +5128,7 @@
       <c r="T51" s="6">
         <v>900049</v>
       </c>
-      <c r="U51" s="31">
+      <c r="U51" s="13">
         <v>920005</v>
       </c>
       <c r="V51" s="6">
@@ -5197,7 +5197,7 @@
       <c r="T52" s="6">
         <v>900050</v>
       </c>
-      <c r="U52" s="31">
+      <c r="U52" s="13">
         <v>920005</v>
       </c>
       <c r="V52" s="6">
@@ -5266,7 +5266,7 @@
       <c r="T53" s="6">
         <v>900051</v>
       </c>
-      <c r="U53" s="31">
+      <c r="U53" s="13">
         <v>920015</v>
       </c>
       <c r="V53" s="6">
@@ -5335,7 +5335,7 @@
       <c r="T54" s="6">
         <v>900052</v>
       </c>
-      <c r="U54" s="31">
+      <c r="U54" s="13">
         <v>920004</v>
       </c>
       <c r="V54" s="6">
@@ -5404,7 +5404,7 @@
       <c r="T55" s="6">
         <v>900053</v>
       </c>
-      <c r="U55" s="31">
+      <c r="U55" s="13">
         <v>920016</v>
       </c>
       <c r="V55" s="6">
@@ -5473,7 +5473,7 @@
       <c r="T56" s="6">
         <v>900054</v>
       </c>
-      <c r="U56" s="31">
+      <c r="U56" s="13">
         <v>920009</v>
       </c>
       <c r="V56" s="6">
@@ -5507,7 +5507,7 @@
         <v>25</v>
       </c>
       <c r="I57" s="10">
-        <v>352</v>
+        <v>500</v>
       </c>
       <c r="J57" s="8">
         <v>0.2</v>
@@ -5537,12 +5537,12 @@
         <v>20</v>
       </c>
       <c r="S57" s="12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="T57" s="6">
         <v>900055</v>
       </c>
-      <c r="U57" s="31">
+      <c r="U57" s="13">
         <v>920013</v>
       </c>
       <c r="V57" s="6">
@@ -5611,7 +5611,7 @@
       <c r="T58" s="6">
         <v>900056</v>
       </c>
-      <c r="U58" s="31">
+      <c r="U58" s="13">
         <v>920010</v>
       </c>
       <c r="V58" s="6">
@@ -5675,12 +5675,12 @@
         <v>14</v>
       </c>
       <c r="S59" s="12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T59" s="6">
         <v>900057</v>
       </c>
-      <c r="U59" s="31">
+      <c r="U59" s="13">
         <v>920017</v>
       </c>
       <c r="V59" s="6">
@@ -5749,7 +5749,7 @@
       <c r="T60" s="6">
         <v>900058</v>
       </c>
-      <c r="U60" s="31">
+      <c r="U60" s="13">
         <v>920003</v>
       </c>
       <c r="V60" s="6">
@@ -5818,7 +5818,7 @@
       <c r="T61" s="6">
         <v>900059</v>
       </c>
-      <c r="U61" s="31">
+      <c r="U61" s="13">
         <v>920020</v>
       </c>
       <c r="V61" s="6">
@@ -5887,7 +5887,7 @@
       <c r="T62" s="6">
         <v>900060</v>
       </c>
-      <c r="U62" s="31">
+      <c r="U62" s="13">
         <v>920002</v>
       </c>
       <c r="V62" s="6">
@@ -5956,7 +5956,7 @@
       <c r="T63" s="6">
         <v>900061</v>
       </c>
-      <c r="U63" s="31">
+      <c r="U63" s="13">
         <v>920001</v>
       </c>
       <c r="V63" s="6">
@@ -6025,7 +6025,7 @@
       <c r="T64" s="6">
         <v>900062</v>
       </c>
-      <c r="U64" s="31">
+      <c r="U64" s="13">
         <v>920002</v>
       </c>
       <c r="V64" s="6">
@@ -6094,7 +6094,7 @@
       <c r="T65" s="6">
         <v>900063</v>
       </c>
-      <c r="U65" s="31">
+      <c r="U65" s="13">
         <v>920008</v>
       </c>
       <c r="V65" s="6">
@@ -6163,7 +6163,7 @@
       <c r="T66" s="6">
         <v>900064</v>
       </c>
-      <c r="U66" s="31">
+      <c r="U66" s="13">
         <v>920006</v>
       </c>
       <c r="V66" s="6">
@@ -6232,7 +6232,7 @@
       <c r="T67" s="6">
         <v>900065</v>
       </c>
-      <c r="U67" s="31">
+      <c r="U67" s="13">
         <v>920019</v>
       </c>
       <c r="V67" s="6">
@@ -6301,7 +6301,7 @@
       <c r="T68" s="6">
         <v>900066</v>
       </c>
-      <c r="U68" s="31">
+      <c r="U68" s="13">
         <v>920012</v>
       </c>
       <c r="V68" s="6">
@@ -6370,7 +6370,7 @@
       <c r="T69" s="6">
         <v>900067</v>
       </c>
-      <c r="U69" s="31">
+      <c r="U69" s="13">
         <v>920005</v>
       </c>
       <c r="V69" s="6">
@@ -6439,7 +6439,7 @@
       <c r="T70" s="6">
         <v>900068</v>
       </c>
-      <c r="U70" s="31">
+      <c r="U70" s="13">
         <v>920021</v>
       </c>
       <c r="V70" s="6">
@@ -6508,7 +6508,7 @@
       <c r="T71" s="6">
         <v>900069</v>
       </c>
-      <c r="U71" s="31">
+      <c r="U71" s="13">
         <v>920002</v>
       </c>
       <c r="V71" s="6">
@@ -6577,7 +6577,7 @@
       <c r="T72" s="6">
         <v>900070</v>
       </c>
-      <c r="U72" s="31">
+      <c r="U72" s="13">
         <v>920014</v>
       </c>
       <c r="V72" s="6">
@@ -6646,7 +6646,7 @@
       <c r="T73" s="6">
         <v>900071</v>
       </c>
-      <c r="U73" s="31">
+      <c r="U73" s="13">
         <v>920017</v>
       </c>
       <c r="V73" s="6">
@@ -6715,7 +6715,7 @@
       <c r="T74" s="6">
         <v>900072</v>
       </c>
-      <c r="U74" s="31">
+      <c r="U74" s="13">
         <v>920007</v>
       </c>
       <c r="V74" s="6">
@@ -6784,7 +6784,7 @@
       <c r="T75" s="6">
         <v>900073</v>
       </c>
-      <c r="U75" s="31">
+      <c r="U75" s="13">
         <v>920018</v>
       </c>
       <c r="V75" s="6">
@@ -6853,7 +6853,7 @@
       <c r="T76" s="6">
         <v>900074</v>
       </c>
-      <c r="U76" s="31">
+      <c r="U76" s="13">
         <v>920011</v>
       </c>
       <c r="V76" s="6">
@@ -6922,7 +6922,7 @@
       <c r="T77" s="6">
         <v>900075</v>
       </c>
-      <c r="U77" s="31">
+      <c r="U77" s="13">
         <v>920012</v>
       </c>
       <c r="V77" s="6">
@@ -6991,7 +6991,7 @@
       <c r="T78" s="6">
         <v>900076</v>
       </c>
-      <c r="U78" s="31">
+      <c r="U78" s="13">
         <v>920005</v>
       </c>
       <c r="V78" s="6">
@@ -7060,7 +7060,7 @@
       <c r="T79" s="6">
         <v>900077</v>
       </c>
-      <c r="U79" s="31">
+      <c r="U79" s="13">
         <v>920005</v>
       </c>
       <c r="V79" s="6">
@@ -7129,7 +7129,7 @@
       <c r="T80" s="6">
         <v>900078</v>
       </c>
-      <c r="U80" s="31">
+      <c r="U80" s="13">
         <v>920015</v>
       </c>
       <c r="V80" s="6">
@@ -7198,7 +7198,7 @@
       <c r="T81" s="6">
         <v>900079</v>
       </c>
-      <c r="U81" s="31">
+      <c r="U81" s="13">
         <v>920004</v>
       </c>
       <c r="V81" s="6">
@@ -7267,7 +7267,7 @@
       <c r="T82" s="6">
         <v>900080</v>
       </c>
-      <c r="U82" s="31">
+      <c r="U82" s="13">
         <v>920016</v>
       </c>
       <c r="V82" s="6">
@@ -7336,7 +7336,7 @@
       <c r="T83" s="6">
         <v>900081</v>
       </c>
-      <c r="U83" s="31">
+      <c r="U83" s="13">
         <v>920009</v>
       </c>
       <c r="V83" s="6">
@@ -7370,7 +7370,7 @@
         <v>25</v>
       </c>
       <c r="I84" s="10">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J84" s="8">
         <v>0.2</v>
@@ -7400,12 +7400,12 @@
         <v>60</v>
       </c>
       <c r="S84" s="12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="T84" s="6">
         <v>900082</v>
       </c>
-      <c r="U84" s="31">
+      <c r="U84" s="13">
         <v>920013</v>
       </c>
       <c r="V84" s="6">
@@ -7474,7 +7474,7 @@
       <c r="T85" s="11">
         <v>900083</v>
       </c>
-      <c r="U85" s="31">
+      <c r="U85" s="13">
         <v>920010</v>
       </c>
       <c r="V85" s="6">
@@ -7538,12 +7538,12 @@
         <v>42</v>
       </c>
       <c r="S86" s="12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T86" s="11">
         <v>900084</v>
       </c>
-      <c r="U86" s="31">
+      <c r="U86" s="13">
         <v>920017</v>
       </c>
       <c r="V86" s="6">
@@ -7558,8 +7558,14 @@
       <c r="B87" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:X5" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
+  <autoFilter ref="B5:X86" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
   <mergeCells count="18">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="H2:H3"/>
@@ -7572,12 +7578,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCF5EC-26F1-42A0-A457-4FDA3B80EF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032BBAE5-A409-45AC-9448-507E913AFEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
@@ -914,7 +914,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ATKsound</t>
+    <t>AtkSound</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1694,7 +1694,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7560,12 +7560,6 @@
   </sheetData>
   <autoFilter ref="B5:X86" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
   <mergeCells count="18">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="H2:H3"/>
@@ -7578,6 +7572,12 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032BBAE5-A409-45AC-9448-507E913AFEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817970A-BD96-4D3B-B6D4-1A2EB5FEE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
@@ -1694,7 +1694,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J6" s="8">
         <v>0.2</v>
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" s="8">
         <v>0.2</v>
@@ -2471,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="10">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J13" s="8">
         <v>0.2</v>
@@ -2609,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="10">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J15" s="8">
         <v>0.2</v>
@@ -3299,7 +3299,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="10">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J25" s="8">
         <v>0.2</v>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="10">
-        <v>107.2</v>
+        <v>100</v>
       </c>
       <c r="J33" s="8">
         <v>0.2</v>
@@ -4058,7 +4058,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="10">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J36" s="8">
         <v>0.2</v>
@@ -4334,7 +4334,7 @@
         <v>8</v>
       </c>
       <c r="I40" s="10">
-        <v>177.60000000000002</v>
+        <v>160</v>
       </c>
       <c r="J40" s="8">
         <v>0.2</v>
@@ -4472,7 +4472,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="10">
-        <v>84.800000000000011</v>
+        <v>75</v>
       </c>
       <c r="J42" s="8">
         <v>0.2</v>
@@ -5162,7 +5162,7 @@
         <v>20</v>
       </c>
       <c r="I52" s="10">
-        <v>124.80000000000001</v>
+        <v>110</v>
       </c>
       <c r="J52" s="8">
         <v>0.2</v>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="10">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="J60" s="8">
         <v>0.2</v>
@@ -5921,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="I63" s="10">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="J63" s="8">
         <v>0.2</v>
@@ -6197,7 +6197,7 @@
         <v>8</v>
       </c>
       <c r="I67" s="10">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="J67" s="8">
         <v>0.2</v>
@@ -6335,7 +6335,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="10">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J69" s="8">
         <v>0.2</v>
@@ -7025,7 +7025,7 @@
         <v>20</v>
       </c>
       <c r="I79" s="10">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="J79" s="8">
         <v>0.2</v>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817970A-BD96-4D3B-B6D4-1A2EB5FEE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F2A995-389E-41E1-8228-8CA013613D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
@@ -1277,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,6 +1372,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1691,10 +1694,10 @@
   <dimension ref="B2:X87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="K54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6:V86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1996,7 +1999,7 @@
       <c r="K6" s="8">
         <v>1.5</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="32">
         <v>300011</v>
       </c>
       <c r="M6" s="9">
@@ -2026,8 +2029,8 @@
       <c r="U6" s="13">
         <v>920003</v>
       </c>
-      <c r="V6" s="6">
-        <v>0</v>
+      <c r="V6" s="13">
+        <v>920003</v>
       </c>
       <c r="W6" s="6">
         <v>0</v>
@@ -2065,7 +2068,7 @@
       <c r="K7" s="8">
         <v>1.5</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="32">
         <v>300019</v>
       </c>
       <c r="M7" s="9">
@@ -2095,8 +2098,8 @@
       <c r="U7" s="13">
         <v>920020</v>
       </c>
-      <c r="V7" s="6">
-        <v>0</v>
+      <c r="V7" s="13">
+        <v>920020</v>
       </c>
       <c r="W7" s="6">
         <v>0</v>
@@ -2134,7 +2137,7 @@
       <c r="K8" s="8">
         <v>1.5</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="32">
         <v>300004</v>
       </c>
       <c r="M8" s="9">
@@ -2164,8 +2167,8 @@
       <c r="U8" s="13">
         <v>920002</v>
       </c>
-      <c r="V8" s="6">
-        <v>0</v>
+      <c r="V8" s="13">
+        <v>920002</v>
       </c>
       <c r="W8" s="6">
         <v>0</v>
@@ -2203,7 +2206,7 @@
       <c r="K9" s="8">
         <v>1.5</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="32">
         <v>300015</v>
       </c>
       <c r="M9" s="9">
@@ -2233,8 +2236,8 @@
       <c r="U9" s="13">
         <v>920001</v>
       </c>
-      <c r="V9" s="6">
-        <v>0</v>
+      <c r="V9" s="13">
+        <v>920001</v>
       </c>
       <c r="W9" s="6">
         <v>0</v>
@@ -2272,7 +2275,7 @@
       <c r="K10" s="8">
         <v>1.5</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="32">
         <v>300004</v>
       </c>
       <c r="M10" s="9">
@@ -2302,8 +2305,8 @@
       <c r="U10" s="13">
         <v>920002</v>
       </c>
-      <c r="V10" s="6">
-        <v>0</v>
+      <c r="V10" s="13">
+        <v>920002</v>
       </c>
       <c r="W10" s="6">
         <v>0</v>
@@ -2341,7 +2344,7 @@
       <c r="K11" s="8">
         <v>1.5</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="32">
         <v>300016</v>
       </c>
       <c r="M11" s="9">
@@ -2371,8 +2374,8 @@
       <c r="U11" s="13">
         <v>920008</v>
       </c>
-      <c r="V11" s="6">
-        <v>0</v>
+      <c r="V11" s="13">
+        <v>920008</v>
       </c>
       <c r="W11" s="6">
         <v>0</v>
@@ -2410,7 +2413,7 @@
       <c r="K12" s="8">
         <v>1.5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="32">
         <v>300012</v>
       </c>
       <c r="M12" s="9">
@@ -2440,8 +2443,8 @@
       <c r="U12" s="13">
         <v>920006</v>
       </c>
-      <c r="V12" s="6">
-        <v>0</v>
+      <c r="V12" s="13">
+        <v>920006</v>
       </c>
       <c r="W12" s="6">
         <v>0</v>
@@ -2479,7 +2482,7 @@
       <c r="K13" s="8">
         <v>1.5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="32">
         <v>300005</v>
       </c>
       <c r="M13" s="9">
@@ -2509,8 +2512,8 @@
       <c r="U13" s="13">
         <v>920019</v>
       </c>
-      <c r="V13" s="6">
-        <v>0</v>
+      <c r="V13" s="13">
+        <v>920019</v>
       </c>
       <c r="W13" s="6">
         <v>0</v>
@@ -2548,7 +2551,7 @@
       <c r="K14" s="8">
         <v>1.5</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="32">
         <v>300008</v>
       </c>
       <c r="M14" s="9">
@@ -2578,8 +2581,8 @@
       <c r="U14" s="13">
         <v>920012</v>
       </c>
-      <c r="V14" s="6">
-        <v>0</v>
+      <c r="V14" s="13">
+        <v>920012</v>
       </c>
       <c r="W14" s="6">
         <v>0</v>
@@ -2617,7 +2620,7 @@
       <c r="K15" s="8">
         <v>1.5</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="32">
         <v>300006</v>
       </c>
       <c r="M15" s="9">
@@ -2647,8 +2650,8 @@
       <c r="U15" s="13">
         <v>920005</v>
       </c>
-      <c r="V15" s="6">
-        <v>0</v>
+      <c r="V15" s="13">
+        <v>920005</v>
       </c>
       <c r="W15" s="6">
         <v>0</v>
@@ -2686,7 +2689,7 @@
       <c r="K16" s="8">
         <v>1.5</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="32">
         <v>300014</v>
       </c>
       <c r="M16" s="9">
@@ -2716,8 +2719,8 @@
       <c r="U16" s="13">
         <v>920021</v>
       </c>
-      <c r="V16" s="6">
-        <v>0</v>
+      <c r="V16" s="13">
+        <v>920021</v>
       </c>
       <c r="W16" s="6">
         <v>0</v>
@@ -2755,7 +2758,7 @@
       <c r="K17" s="8">
         <v>1.5</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="32">
         <v>300004</v>
       </c>
       <c r="M17" s="9">
@@ -2785,8 +2788,8 @@
       <c r="U17" s="13">
         <v>920002</v>
       </c>
-      <c r="V17" s="6">
-        <v>0</v>
+      <c r="V17" s="13">
+        <v>920002</v>
       </c>
       <c r="W17" s="6">
         <v>0</v>
@@ -2824,7 +2827,7 @@
       <c r="K18" s="8">
         <v>1.5</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="32">
         <v>300017</v>
       </c>
       <c r="M18" s="9">
@@ -2854,8 +2857,8 @@
       <c r="U18" s="13">
         <v>920014</v>
       </c>
-      <c r="V18" s="6">
-        <v>0</v>
+      <c r="V18" s="13">
+        <v>920014</v>
       </c>
       <c r="W18" s="6">
         <v>0</v>
@@ -2893,7 +2896,7 @@
       <c r="K19" s="8">
         <v>1.5</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="32">
         <v>300007</v>
       </c>
       <c r="M19" s="9">
@@ -2923,8 +2926,8 @@
       <c r="U19" s="13">
         <v>920017</v>
       </c>
-      <c r="V19" s="6">
-        <v>0</v>
+      <c r="V19" s="13">
+        <v>920017</v>
       </c>
       <c r="W19" s="6">
         <v>0</v>
@@ -2962,7 +2965,7 @@
       <c r="K20" s="8">
         <v>1.5</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="32">
         <v>300009</v>
       </c>
       <c r="M20" s="9">
@@ -2992,8 +2995,8 @@
       <c r="U20" s="13">
         <v>920007</v>
       </c>
-      <c r="V20" s="6">
-        <v>0</v>
+      <c r="V20" s="13">
+        <v>920007</v>
       </c>
       <c r="W20" s="6">
         <v>0</v>
@@ -3031,7 +3034,7 @@
       <c r="K21" s="8">
         <v>1.5</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="32">
         <v>300007</v>
       </c>
       <c r="M21" s="9">
@@ -3061,8 +3064,8 @@
       <c r="U21" s="13">
         <v>920018</v>
       </c>
-      <c r="V21" s="6">
-        <v>0</v>
+      <c r="V21" s="13">
+        <v>920018</v>
       </c>
       <c r="W21" s="6">
         <v>0</v>
@@ -3100,7 +3103,7 @@
       <c r="K22" s="8">
         <v>1.5</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="32">
         <v>300008</v>
       </c>
       <c r="M22" s="9">
@@ -3130,8 +3133,8 @@
       <c r="U22" s="13">
         <v>920011</v>
       </c>
-      <c r="V22" s="6">
-        <v>0</v>
+      <c r="V22" s="13">
+        <v>920011</v>
       </c>
       <c r="W22" s="6">
         <v>0</v>
@@ -3169,7 +3172,7 @@
       <c r="K23" s="8">
         <v>1.5</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="32">
         <v>300006</v>
       </c>
       <c r="M23" s="9">
@@ -3199,8 +3202,8 @@
       <c r="U23" s="13">
         <v>920012</v>
       </c>
-      <c r="V23" s="6">
-        <v>0</v>
+      <c r="V23" s="13">
+        <v>920012</v>
       </c>
       <c r="W23" s="6">
         <v>0</v>
@@ -3238,7 +3241,7 @@
       <c r="K24" s="8">
         <v>1.5</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="32">
         <v>300006</v>
       </c>
       <c r="M24" s="9">
@@ -3268,8 +3271,8 @@
       <c r="U24" s="13">
         <v>920005</v>
       </c>
-      <c r="V24" s="6">
-        <v>0</v>
+      <c r="V24" s="13">
+        <v>920005</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
@@ -3307,7 +3310,7 @@
       <c r="K25" s="8">
         <v>1.5</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="32">
         <v>300006</v>
       </c>
       <c r="M25" s="9">
@@ -3337,8 +3340,8 @@
       <c r="U25" s="13">
         <v>920005</v>
       </c>
-      <c r="V25" s="6">
-        <v>0</v>
+      <c r="V25" s="13">
+        <v>920005</v>
       </c>
       <c r="W25" s="6">
         <v>0</v>
@@ -3376,7 +3379,7 @@
       <c r="K26" s="8">
         <v>1.5</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="32">
         <v>300006</v>
       </c>
       <c r="M26" s="9">
@@ -3406,8 +3409,8 @@
       <c r="U26" s="13">
         <v>920015</v>
       </c>
-      <c r="V26" s="6">
-        <v>0</v>
+      <c r="V26" s="13">
+        <v>920015</v>
       </c>
       <c r="W26" s="6">
         <v>0</v>
@@ -3445,7 +3448,7 @@
       <c r="K27" s="8">
         <v>1.5</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="32">
         <v>300017</v>
       </c>
       <c r="M27" s="9">
@@ -3475,8 +3478,8 @@
       <c r="U27" s="13">
         <v>920004</v>
       </c>
-      <c r="V27" s="6">
-        <v>0</v>
+      <c r="V27" s="13">
+        <v>920004</v>
       </c>
       <c r="W27" s="6">
         <v>0</v>
@@ -3514,7 +3517,7 @@
       <c r="K28" s="8">
         <v>1.5</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="32">
         <v>300021</v>
       </c>
       <c r="M28" s="9">
@@ -3544,8 +3547,8 @@
       <c r="U28" s="13">
         <v>920016</v>
       </c>
-      <c r="V28" s="6">
-        <v>0</v>
+      <c r="V28" s="13">
+        <v>920016</v>
       </c>
       <c r="W28" s="6">
         <v>0</v>
@@ -3583,7 +3586,7 @@
       <c r="K29" s="8">
         <v>1.5</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="32">
         <v>300021</v>
       </c>
       <c r="M29" s="9">
@@ -3613,8 +3616,8 @@
       <c r="U29" s="13">
         <v>920009</v>
       </c>
-      <c r="V29" s="6">
-        <v>0</v>
+      <c r="V29" s="13">
+        <v>920009</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
@@ -3652,7 +3655,7 @@
       <c r="K30" s="8">
         <v>1.5</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="32">
         <v>300023</v>
       </c>
       <c r="M30" s="9">
@@ -3682,8 +3685,8 @@
       <c r="U30" s="13">
         <v>920013</v>
       </c>
-      <c r="V30" s="6">
-        <v>0</v>
+      <c r="V30" s="13">
+        <v>920013</v>
       </c>
       <c r="W30" s="6">
         <v>0</v>
@@ -3721,7 +3724,7 @@
       <c r="K31" s="8">
         <v>1.5</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="32">
         <v>300013</v>
       </c>
       <c r="M31" s="9">
@@ -3751,8 +3754,8 @@
       <c r="U31" s="13">
         <v>920010</v>
       </c>
-      <c r="V31" s="6">
-        <v>0</v>
+      <c r="V31" s="13">
+        <v>920010</v>
       </c>
       <c r="W31" s="6">
         <v>0</v>
@@ -3790,7 +3793,7 @@
       <c r="K32" s="8">
         <v>1.5</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="32">
         <v>300021</v>
       </c>
       <c r="M32" s="9">
@@ -3820,8 +3823,8 @@
       <c r="U32" s="13">
         <v>920017</v>
       </c>
-      <c r="V32" s="6">
-        <v>0</v>
+      <c r="V32" s="13">
+        <v>920017</v>
       </c>
       <c r="W32" s="6">
         <v>0</v>
@@ -3859,7 +3862,7 @@
       <c r="K33" s="8">
         <v>1.5</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="32">
         <v>300011</v>
       </c>
       <c r="M33" s="9">
@@ -3889,8 +3892,8 @@
       <c r="U33" s="13">
         <v>920003</v>
       </c>
-      <c r="V33" s="6">
-        <v>0</v>
+      <c r="V33" s="13">
+        <v>920003</v>
       </c>
       <c r="W33" s="6">
         <v>0</v>
@@ -3928,7 +3931,7 @@
       <c r="K34" s="8">
         <v>1.5</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="32">
         <v>300019</v>
       </c>
       <c r="M34" s="9">
@@ -3958,8 +3961,8 @@
       <c r="U34" s="13">
         <v>920020</v>
       </c>
-      <c r="V34" s="6">
-        <v>0</v>
+      <c r="V34" s="13">
+        <v>920020</v>
       </c>
       <c r="W34" s="6">
         <v>0</v>
@@ -3997,7 +4000,7 @@
       <c r="K35" s="8">
         <v>1.5</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="32">
         <v>300004</v>
       </c>
       <c r="M35" s="9">
@@ -4027,8 +4030,8 @@
       <c r="U35" s="13">
         <v>920002</v>
       </c>
-      <c r="V35" s="6">
-        <v>0</v>
+      <c r="V35" s="13">
+        <v>920002</v>
       </c>
       <c r="W35" s="6">
         <v>0</v>
@@ -4066,7 +4069,7 @@
       <c r="K36" s="8">
         <v>1.5</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="32">
         <v>300015</v>
       </c>
       <c r="M36" s="9">
@@ -4096,8 +4099,8 @@
       <c r="U36" s="13">
         <v>920001</v>
       </c>
-      <c r="V36" s="6">
-        <v>0</v>
+      <c r="V36" s="13">
+        <v>920001</v>
       </c>
       <c r="W36" s="6">
         <v>0</v>
@@ -4135,7 +4138,7 @@
       <c r="K37" s="8">
         <v>1.5</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="32">
         <v>300004</v>
       </c>
       <c r="M37" s="9">
@@ -4165,8 +4168,8 @@
       <c r="U37" s="13">
         <v>920002</v>
       </c>
-      <c r="V37" s="6">
-        <v>0</v>
+      <c r="V37" s="13">
+        <v>920002</v>
       </c>
       <c r="W37" s="6">
         <v>0</v>
@@ -4204,7 +4207,7 @@
       <c r="K38" s="8">
         <v>1.5</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="32">
         <v>300016</v>
       </c>
       <c r="M38" s="9">
@@ -4234,8 +4237,8 @@
       <c r="U38" s="13">
         <v>920008</v>
       </c>
-      <c r="V38" s="6">
-        <v>0</v>
+      <c r="V38" s="13">
+        <v>920008</v>
       </c>
       <c r="W38" s="6">
         <v>0</v>
@@ -4273,7 +4276,7 @@
       <c r="K39" s="8">
         <v>1.5</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="32">
         <v>300012</v>
       </c>
       <c r="M39" s="9">
@@ -4303,8 +4306,8 @@
       <c r="U39" s="13">
         <v>920006</v>
       </c>
-      <c r="V39" s="6">
-        <v>0</v>
+      <c r="V39" s="13">
+        <v>920006</v>
       </c>
       <c r="W39" s="6">
         <v>0</v>
@@ -4342,7 +4345,7 @@
       <c r="K40" s="8">
         <v>1.5</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="32">
         <v>300005</v>
       </c>
       <c r="M40" s="9">
@@ -4372,8 +4375,8 @@
       <c r="U40" s="13">
         <v>920019</v>
       </c>
-      <c r="V40" s="6">
-        <v>0</v>
+      <c r="V40" s="13">
+        <v>920019</v>
       </c>
       <c r="W40" s="6">
         <v>0</v>
@@ -4441,8 +4444,8 @@
       <c r="U41" s="13">
         <v>920012</v>
       </c>
-      <c r="V41" s="6">
-        <v>0</v>
+      <c r="V41" s="13">
+        <v>920012</v>
       </c>
       <c r="W41" s="6">
         <v>0</v>
@@ -4510,8 +4513,8 @@
       <c r="U42" s="13">
         <v>920005</v>
       </c>
-      <c r="V42" s="6">
-        <v>0</v>
+      <c r="V42" s="13">
+        <v>920005</v>
       </c>
       <c r="W42" s="6">
         <v>0</v>
@@ -4579,8 +4582,8 @@
       <c r="U43" s="13">
         <v>920021</v>
       </c>
-      <c r="V43" s="6">
-        <v>0</v>
+      <c r="V43" s="13">
+        <v>920021</v>
       </c>
       <c r="W43" s="6">
         <v>0</v>
@@ -4648,8 +4651,8 @@
       <c r="U44" s="13">
         <v>920002</v>
       </c>
-      <c r="V44" s="6">
-        <v>0</v>
+      <c r="V44" s="13">
+        <v>920002</v>
       </c>
       <c r="W44" s="6">
         <v>0</v>
@@ -4717,8 +4720,8 @@
       <c r="U45" s="13">
         <v>920014</v>
       </c>
-      <c r="V45" s="6">
-        <v>0</v>
+      <c r="V45" s="13">
+        <v>920014</v>
       </c>
       <c r="W45" s="6">
         <v>0</v>
@@ -4786,8 +4789,8 @@
       <c r="U46" s="13">
         <v>920017</v>
       </c>
-      <c r="V46" s="6">
-        <v>0</v>
+      <c r="V46" s="13">
+        <v>920017</v>
       </c>
       <c r="W46" s="6">
         <v>0</v>
@@ -4855,8 +4858,8 @@
       <c r="U47" s="13">
         <v>920007</v>
       </c>
-      <c r="V47" s="6">
-        <v>0</v>
+      <c r="V47" s="13">
+        <v>920007</v>
       </c>
       <c r="W47" s="6">
         <v>0</v>
@@ -4924,8 +4927,8 @@
       <c r="U48" s="13">
         <v>920018</v>
       </c>
-      <c r="V48" s="6">
-        <v>0</v>
+      <c r="V48" s="13">
+        <v>920018</v>
       </c>
       <c r="W48" s="6">
         <v>0</v>
@@ -4993,8 +4996,8 @@
       <c r="U49" s="13">
         <v>920011</v>
       </c>
-      <c r="V49" s="6">
-        <v>0</v>
+      <c r="V49" s="13">
+        <v>920011</v>
       </c>
       <c r="W49" s="6">
         <v>0</v>
@@ -5062,8 +5065,8 @@
       <c r="U50" s="13">
         <v>920012</v>
       </c>
-      <c r="V50" s="6">
-        <v>0</v>
+      <c r="V50" s="13">
+        <v>920012</v>
       </c>
       <c r="W50" s="6">
         <v>0</v>
@@ -5131,8 +5134,8 @@
       <c r="U51" s="13">
         <v>920005</v>
       </c>
-      <c r="V51" s="6">
-        <v>0</v>
+      <c r="V51" s="13">
+        <v>920005</v>
       </c>
       <c r="W51" s="6">
         <v>0</v>
@@ -5200,8 +5203,8 @@
       <c r="U52" s="13">
         <v>920005</v>
       </c>
-      <c r="V52" s="6">
-        <v>0</v>
+      <c r="V52" s="13">
+        <v>920005</v>
       </c>
       <c r="W52" s="6">
         <v>0</v>
@@ -5269,8 +5272,8 @@
       <c r="U53" s="13">
         <v>920015</v>
       </c>
-      <c r="V53" s="6">
-        <v>0</v>
+      <c r="V53" s="13">
+        <v>920015</v>
       </c>
       <c r="W53" s="6">
         <v>0</v>
@@ -5338,8 +5341,8 @@
       <c r="U54" s="13">
         <v>920004</v>
       </c>
-      <c r="V54" s="6">
-        <v>0</v>
+      <c r="V54" s="13">
+        <v>920004</v>
       </c>
       <c r="W54" s="6">
         <v>0</v>
@@ -5407,8 +5410,8 @@
       <c r="U55" s="13">
         <v>920016</v>
       </c>
-      <c r="V55" s="6">
-        <v>0</v>
+      <c r="V55" s="13">
+        <v>920016</v>
       </c>
       <c r="W55" s="6">
         <v>0</v>
@@ -5476,8 +5479,8 @@
       <c r="U56" s="13">
         <v>920009</v>
       </c>
-      <c r="V56" s="6">
-        <v>0</v>
+      <c r="V56" s="13">
+        <v>920009</v>
       </c>
       <c r="W56" s="6">
         <v>0</v>
@@ -5545,8 +5548,8 @@
       <c r="U57" s="13">
         <v>920013</v>
       </c>
-      <c r="V57" s="6">
-        <v>0</v>
+      <c r="V57" s="13">
+        <v>920013</v>
       </c>
       <c r="W57" s="6">
         <v>0</v>
@@ -5614,8 +5617,8 @@
       <c r="U58" s="13">
         <v>920010</v>
       </c>
-      <c r="V58" s="6">
-        <v>0</v>
+      <c r="V58" s="13">
+        <v>920010</v>
       </c>
       <c r="W58" s="6">
         <v>0</v>
@@ -5683,8 +5686,8 @@
       <c r="U59" s="13">
         <v>920017</v>
       </c>
-      <c r="V59" s="6">
-        <v>0</v>
+      <c r="V59" s="13">
+        <v>920017</v>
       </c>
       <c r="W59" s="6">
         <v>0</v>
@@ -5752,8 +5755,8 @@
       <c r="U60" s="13">
         <v>920003</v>
       </c>
-      <c r="V60" s="6">
-        <v>0</v>
+      <c r="V60" s="13">
+        <v>920003</v>
       </c>
       <c r="W60" s="6">
         <v>0</v>
@@ -5821,8 +5824,8 @@
       <c r="U61" s="13">
         <v>920020</v>
       </c>
-      <c r="V61" s="6">
-        <v>0</v>
+      <c r="V61" s="13">
+        <v>920020</v>
       </c>
       <c r="W61" s="6">
         <v>0</v>
@@ -5890,8 +5893,8 @@
       <c r="U62" s="13">
         <v>920002</v>
       </c>
-      <c r="V62" s="6">
-        <v>0</v>
+      <c r="V62" s="13">
+        <v>920002</v>
       </c>
       <c r="W62" s="6">
         <v>0</v>
@@ -5959,8 +5962,8 @@
       <c r="U63" s="13">
         <v>920001</v>
       </c>
-      <c r="V63" s="6">
-        <v>0</v>
+      <c r="V63" s="13">
+        <v>920001</v>
       </c>
       <c r="W63" s="6">
         <v>0</v>
@@ -6028,8 +6031,8 @@
       <c r="U64" s="13">
         <v>920002</v>
       </c>
-      <c r="V64" s="6">
-        <v>0</v>
+      <c r="V64" s="13">
+        <v>920002</v>
       </c>
       <c r="W64" s="6">
         <v>0</v>
@@ -6097,8 +6100,8 @@
       <c r="U65" s="13">
         <v>920008</v>
       </c>
-      <c r="V65" s="6">
-        <v>0</v>
+      <c r="V65" s="13">
+        <v>920008</v>
       </c>
       <c r="W65" s="6">
         <v>0</v>
@@ -6166,8 +6169,8 @@
       <c r="U66" s="13">
         <v>920006</v>
       </c>
-      <c r="V66" s="6">
-        <v>0</v>
+      <c r="V66" s="13">
+        <v>920006</v>
       </c>
       <c r="W66" s="6">
         <v>0</v>
@@ -6235,8 +6238,8 @@
       <c r="U67" s="13">
         <v>920019</v>
       </c>
-      <c r="V67" s="6">
-        <v>0</v>
+      <c r="V67" s="13">
+        <v>920019</v>
       </c>
       <c r="W67" s="6">
         <v>0</v>
@@ -6304,8 +6307,8 @@
       <c r="U68" s="13">
         <v>920012</v>
       </c>
-      <c r="V68" s="6">
-        <v>0</v>
+      <c r="V68" s="13">
+        <v>920012</v>
       </c>
       <c r="W68" s="6">
         <v>0</v>
@@ -6373,8 +6376,8 @@
       <c r="U69" s="13">
         <v>920005</v>
       </c>
-      <c r="V69" s="6">
-        <v>0</v>
+      <c r="V69" s="13">
+        <v>920005</v>
       </c>
       <c r="W69" s="6">
         <v>0</v>
@@ -6442,8 +6445,8 @@
       <c r="U70" s="13">
         <v>920021</v>
       </c>
-      <c r="V70" s="6">
-        <v>0</v>
+      <c r="V70" s="13">
+        <v>920021</v>
       </c>
       <c r="W70" s="6">
         <v>0</v>
@@ -6511,8 +6514,8 @@
       <c r="U71" s="13">
         <v>920002</v>
       </c>
-      <c r="V71" s="6">
-        <v>0</v>
+      <c r="V71" s="13">
+        <v>920002</v>
       </c>
       <c r="W71" s="6">
         <v>0</v>
@@ -6580,8 +6583,8 @@
       <c r="U72" s="13">
         <v>920014</v>
       </c>
-      <c r="V72" s="6">
-        <v>0</v>
+      <c r="V72" s="13">
+        <v>920014</v>
       </c>
       <c r="W72" s="6">
         <v>0</v>
@@ -6649,8 +6652,8 @@
       <c r="U73" s="13">
         <v>920017</v>
       </c>
-      <c r="V73" s="6">
-        <v>0</v>
+      <c r="V73" s="13">
+        <v>920017</v>
       </c>
       <c r="W73" s="6">
         <v>0</v>
@@ -6718,8 +6721,8 @@
       <c r="U74" s="13">
         <v>920007</v>
       </c>
-      <c r="V74" s="6">
-        <v>0</v>
+      <c r="V74" s="13">
+        <v>920007</v>
       </c>
       <c r="W74" s="6">
         <v>0</v>
@@ -6787,8 +6790,8 @@
       <c r="U75" s="13">
         <v>920018</v>
       </c>
-      <c r="V75" s="6">
-        <v>0</v>
+      <c r="V75" s="13">
+        <v>920018</v>
       </c>
       <c r="W75" s="6">
         <v>0</v>
@@ -6856,8 +6859,8 @@
       <c r="U76" s="13">
         <v>920011</v>
       </c>
-      <c r="V76" s="6">
-        <v>0</v>
+      <c r="V76" s="13">
+        <v>920011</v>
       </c>
       <c r="W76" s="6">
         <v>0</v>
@@ -6925,8 +6928,8 @@
       <c r="U77" s="13">
         <v>920012</v>
       </c>
-      <c r="V77" s="6">
-        <v>0</v>
+      <c r="V77" s="13">
+        <v>920012</v>
       </c>
       <c r="W77" s="6">
         <v>0</v>
@@ -6994,8 +6997,8 @@
       <c r="U78" s="13">
         <v>920005</v>
       </c>
-      <c r="V78" s="6">
-        <v>0</v>
+      <c r="V78" s="13">
+        <v>920005</v>
       </c>
       <c r="W78" s="6">
         <v>0</v>
@@ -7063,8 +7066,8 @@
       <c r="U79" s="13">
         <v>920005</v>
       </c>
-      <c r="V79" s="6">
-        <v>0</v>
+      <c r="V79" s="13">
+        <v>920005</v>
       </c>
       <c r="W79" s="6">
         <v>0</v>
@@ -7132,8 +7135,8 @@
       <c r="U80" s="13">
         <v>920015</v>
       </c>
-      <c r="V80" s="6">
-        <v>0</v>
+      <c r="V80" s="13">
+        <v>920015</v>
       </c>
       <c r="W80" s="6">
         <v>0</v>
@@ -7201,8 +7204,8 @@
       <c r="U81" s="13">
         <v>920004</v>
       </c>
-      <c r="V81" s="6">
-        <v>0</v>
+      <c r="V81" s="13">
+        <v>920004</v>
       </c>
       <c r="W81" s="6">
         <v>0</v>
@@ -7270,8 +7273,8 @@
       <c r="U82" s="13">
         <v>920016</v>
       </c>
-      <c r="V82" s="6">
-        <v>0</v>
+      <c r="V82" s="13">
+        <v>920016</v>
       </c>
       <c r="W82" s="6">
         <v>0</v>
@@ -7339,8 +7342,8 @@
       <c r="U83" s="13">
         <v>920009</v>
       </c>
-      <c r="V83" s="6">
-        <v>0</v>
+      <c r="V83" s="13">
+        <v>920009</v>
       </c>
       <c r="W83" s="6">
         <v>0</v>
@@ -7408,8 +7411,8 @@
       <c r="U84" s="13">
         <v>920013</v>
       </c>
-      <c r="V84" s="6">
-        <v>0</v>
+      <c r="V84" s="13">
+        <v>920013</v>
       </c>
       <c r="W84" s="6">
         <v>0</v>
@@ -7477,8 +7480,8 @@
       <c r="U85" s="13">
         <v>920010</v>
       </c>
-      <c r="V85" s="6">
-        <v>0</v>
+      <c r="V85" s="13">
+        <v>920010</v>
       </c>
       <c r="W85" s="6">
         <v>0</v>
@@ -7546,8 +7549,8 @@
       <c r="U86" s="13">
         <v>920017</v>
       </c>
-      <c r="V86" s="6">
-        <v>0</v>
+      <c r="V86" s="13">
+        <v>920017</v>
       </c>
       <c r="W86" s="6">
         <v>0</v>
@@ -7560,6 +7563,12 @@
   </sheetData>
   <autoFilter ref="B5:X86" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
   <mergeCells count="18">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="H2:H3"/>
@@ -7572,12 +7581,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/02_Tower_Table.xlsx
+++ b/Documents/Table_List/02_Tower_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F2A995-389E-41E1-8228-8CA013613D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633553B-0DE1-48E9-9FBA-3DF01D1482FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="14400" windowHeight="12210" xr2:uid="{6AAB0205-E066-4C10-9737-EB04E6B3402F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower_Table" sheetId="1" r:id="rId1"/>
@@ -1320,6 +1320,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,9 +1375,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,10 +1694,10 @@
   <dimension ref="B2:X87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="K54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6:V86"/>
+      <selection pane="bottomRight" activeCell="X21" activeCellId="1" sqref="U17 X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1725,74 +1725,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="23" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1817,14 +1817,14 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="18"/>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="3" t="s">
@@ -1999,7 +1999,7 @@
       <c r="K6" s="8">
         <v>1.5</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="14">
         <v>300011</v>
       </c>
       <c r="M6" s="9">
@@ -2068,7 +2068,7 @@
       <c r="K7" s="8">
         <v>1.5</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="14">
         <v>300019</v>
       </c>
       <c r="M7" s="9">
@@ -2137,7 +2137,7 @@
       <c r="K8" s="8">
         <v>1.5</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="14">
         <v>300004</v>
       </c>
       <c r="M8" s="9">
@@ -2206,7 +2206,7 @@
       <c r="K9" s="8">
         <v>1.5</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="14">
         <v>300015</v>
       </c>
       <c r="M9" s="9">
@@ -2275,7 +2275,7 @@
       <c r="K10" s="8">
         <v>1.5</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="14">
         <v>300004</v>
       </c>
       <c r="M10" s="9">
@@ -2344,7 +2344,7 @@
       <c r="K11" s="8">
         <v>1.5</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="14">
         <v>300016</v>
       </c>
       <c r="M11" s="9">
@@ -2413,7 +2413,7 @@
       <c r="K12" s="8">
         <v>1.5</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="14">
         <v>300012</v>
       </c>
       <c r="M12" s="9">
@@ -2482,7 +2482,7 @@
       <c r="K13" s="8">
         <v>1.5</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="14">
         <v>300005</v>
       </c>
       <c r="M13" s="9">
@@ -2551,7 +2551,7 @@
       <c r="K14" s="8">
         <v>1.5</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="14">
         <v>300008</v>
       </c>
       <c r="M14" s="9">
@@ -2620,7 +2620,7 @@
       <c r="K15" s="8">
         <v>1.5</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="14">
         <v>300006</v>
       </c>
       <c r="M15" s="9">
@@ -2689,7 +2689,7 @@
       <c r="K16" s="8">
         <v>1.5</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="14">
         <v>300014</v>
       </c>
       <c r="M16" s="9">
@@ -2758,7 +2758,7 @@
       <c r="K17" s="8">
         <v>1.5</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="14">
         <v>300004</v>
       </c>
       <c r="M17" s="9">
@@ -2827,7 +2827,7 @@
       <c r="K18" s="8">
         <v>1.5</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="14">
         <v>300017</v>
       </c>
       <c r="M18" s="9">
@@ -2896,7 +2896,7 @@
       <c r="K19" s="8">
         <v>1.5</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="14">
         <v>300007</v>
       </c>
       <c r="M19" s="9">
@@ -2965,7 +2965,7 @@
       <c r="K20" s="8">
         <v>1.5</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="14">
         <v>300009</v>
       </c>
       <c r="M20" s="9">
@@ -3034,7 +3034,7 @@
       <c r="K21" s="8">
         <v>1.5</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="14">
         <v>300007</v>
       </c>
       <c r="M21" s="9">
@@ -3103,7 +3103,7 @@
       <c r="K22" s="8">
         <v>1.5</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="14">
         <v>300008</v>
       </c>
       <c r="M22" s="9">
@@ -3172,7 +3172,7 @@
       <c r="K23" s="8">
         <v>1.5</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="14">
         <v>300006</v>
       </c>
       <c r="M23" s="9">
@@ -3241,7 +3241,7 @@
       <c r="K24" s="8">
         <v>1.5</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="14">
         <v>300006</v>
       </c>
       <c r="M24" s="9">
@@ -3310,7 +3310,7 @@
       <c r="K25" s="8">
         <v>1.5</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="14">
         <v>300006</v>
       </c>
       <c r="M25" s="9">
@@ -3379,7 +3379,7 @@
       <c r="K26" s="8">
         <v>1.5</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="14">
         <v>300006</v>
       </c>
       <c r="M26" s="9">
@@ -3448,7 +3448,7 @@
       <c r="K27" s="8">
         <v>1.5</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="14">
         <v>300017</v>
       </c>
       <c r="M27" s="9">
@@ -3517,7 +3517,7 @@
       <c r="K28" s="8">
         <v>1.5</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="14">
         <v>300021</v>
       </c>
       <c r="M28" s="9">
@@ -3586,7 +3586,7 @@
       <c r="K29" s="8">
         <v>1.5</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="14">
         <v>300021</v>
       </c>
       <c r="M29" s="9">
@@ -3655,7 +3655,7 @@
       <c r="K30" s="8">
         <v>1.5</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="14">
         <v>300023</v>
       </c>
       <c r="M30" s="9">
@@ -3724,7 +3724,7 @@
       <c r="K31" s="8">
         <v>1.5</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="14">
         <v>300013</v>
       </c>
       <c r="M31" s="9">
@@ -3793,7 +3793,7 @@
       <c r="K32" s="8">
         <v>1.5</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="14">
         <v>300021</v>
       </c>
       <c r="M32" s="9">
@@ -3862,7 +3862,7 @@
       <c r="K33" s="8">
         <v>1.5</v>
       </c>
-      <c r="L33" s="32">
+      <c r="L33" s="14">
         <v>300011</v>
       </c>
       <c r="M33" s="9">
@@ -3931,7 +3931,7 @@
       <c r="K34" s="8">
         <v>1.5</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="14">
         <v>300019</v>
       </c>
       <c r="M34" s="9">
@@ -4000,7 +4000,7 @@
       <c r="K35" s="8">
         <v>1.5</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="14">
         <v>300004</v>
       </c>
       <c r="M35" s="9">
@@ -4069,7 +4069,7 @@
       <c r="K36" s="8">
         <v>1.5</v>
       </c>
-      <c r="L36" s="32">
+      <c r="L36" s="14">
         <v>300015</v>
       </c>
       <c r="M36" s="9">
@@ -4138,7 +4138,7 @@
       <c r="K37" s="8">
         <v>1.5</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="14">
         <v>300004</v>
       </c>
       <c r="M37" s="9">
@@ -4207,7 +4207,7 @@
       <c r="K38" s="8">
         <v>1.5</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="14">
         <v>300016</v>
       </c>
       <c r="M38" s="9">
@@ -4276,7 +4276,7 @@
       <c r="K39" s="8">
         <v>1.5</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="14">
         <v>300012</v>
       </c>
       <c r="M39" s="9">
@@ -4345,7 +4345,7 @@
       <c r="K40" s="8">
         <v>1.5</v>
       </c>
-      <c r="L40" s="32">
+      <c r="L40" s="14">
         <v>300005</v>
       </c>
       <c r="M40" s="9">
@@ -7563,12 +7563,6 @@
   </sheetData>
   <autoFilter ref="B5:X86" xr:uid="{026E578C-E437-46FD-ADE1-AA2F9C8BDD08}"/>
   <mergeCells count="18">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="H2:H3"/>
@@ -7581,6 +7575,12 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
